--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>Float</t>
   </si>
@@ -379,11 +379,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1007,11 +1007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211809792"/>
-        <c:axId val="211811712"/>
+        <c:axId val="45434368"/>
+        <c:axId val="45441024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211809792"/>
+        <c:axId val="45434368"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1036,20 +1036,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211811712"/>
+        <c:crossAx val="45441024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211811712"/>
+        <c:axId val="45441024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1075,14 +1074,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211809792"/>
+        <c:crossAx val="45434368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1141,6 +1139,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1412,21 +1451,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215228416"/>
-        <c:axId val="215231104"/>
+        <c:axId val="46501248"/>
+        <c:axId val="46503424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215228416"/>
+        <c:axId val="46501248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215231104"/>
+        <c:crossAx val="46503424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,25 +1492,53 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215231104"/>
+        <c:axId val="46503424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215228416"/>
+        <c:crossAx val="46501248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1488,12 +1574,34 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIR Filter Scaling (Python, PC)</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Performance,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1503,108 +1611,262 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:xVal>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
             <c:numRef>
-              <c:f>Python!$B$9:$B$21</c:f>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Python!$K$9:$K$21</c:f>
+              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4246666666666667</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6993125</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34403125000000001</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17789843750000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13063671874999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8507812500000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2874023437499999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.52666015625E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.671240234375E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3727213541666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.42724609375E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4598795572916665E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2399495442708334E-2</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1615,13 +1877,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213681280"/>
-        <c:axId val="213683200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="213681280"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83393536"/>
+        <c:axId val="151900928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83393536"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1637,7 +1900,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>FIR Filter Length</a:t>
+                  <a:t>FIR Length (samples)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1648,14 +1911,16 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="213683200"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151900928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="213683200"/>
+        <c:axId val="151900928"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1674,7 +1939,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time per FIR Tap (usec)</a:t>
+                  <a:t>Duration (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1686,14 +1951,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213681280"/>
+        <c:crossAx val="83393536"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1729,16 +2003,900 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filters per Second,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Bigger </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$G$13:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3215.4340836012861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1607.7170418006431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>787.40157480314963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396.51070578905632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$H$13:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24390.243902439026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12658.227848101265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6451.6129032258068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3246.7532467532469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$I$13:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7751.937984496124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3937.0078740157483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988.0715705765408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998.00399201596804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43686528"/>
+        <c:axId val="70632192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43686528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70632192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70632192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="48000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filters per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43686528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="8000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Bigger </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$G$13:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3215.4340836012861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1607.7170418006431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>787.40157480314963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396.51070578905632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7071290944123313E-3"/>
+                  <c:y val="-4.7388252598043142E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$H$13:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24390.243902439026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12658.227848101265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6451.6129032258068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3246.7532467532469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$I$13:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7751.937984496124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3937.0078740157483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988.0715705765408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998.00399201596804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83543936"/>
+        <c:axId val="89531136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83543936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89531136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89531136"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filters per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83543936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FIR Filter Time (Python, PC)</a:t>
+              <a:t>FIR Filter Scaling (Python, PC)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1800,48 +2958,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Python!$D$9:$D$21</c:f>
+              <c:f>Python!$K$9:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.698666666666667</c:v>
+                  <c:v>1.4246666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5945</c:v>
+                  <c:v>0.6993125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5045000000000002</c:v>
+                  <c:v>0.34403125000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6927500000000002</c:v>
+                  <c:v>0.17789843750000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3607499999999995</c:v>
+                  <c:v>0.13063671874999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7690000000000001</c:v>
+                  <c:v>6.8507812500000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.97575</c:v>
+                  <c:v>4.2874023437499999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.0565</c:v>
+                  <c:v>3.52666015625E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.3535</c:v>
+                  <c:v>2.671240234375E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.593333333333334</c:v>
+                  <c:v>2.3727213541666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.42</c:v>
+                  <c:v>2.42724609375E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201.51333333333332</c:v>
+                  <c:v>2.4598795572916665E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>366.99333333333334</c:v>
+                  <c:v>2.2399495442708334E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,11 +3014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213699968"/>
-        <c:axId val="213329408"/>
+        <c:axId val="46627840"/>
+        <c:axId val="46630016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213699968"/>
+        <c:axId val="46627840"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1883,20 +3041,256 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="46630016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46630016"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time per FIR Tap (usec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213329408"/>
+        <c:crossAx val="46627840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FIR Filter Time (Python, PC)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Python!$B$9:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Python!$D$9:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.698666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6927500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3607499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.97575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.0565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.3535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.593333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201.51333333333332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>366.99333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46650880"/>
+        <c:axId val="46652800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46650880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46652800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213329408"/>
+        <c:axId val="46652800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1920,21 +3314,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213699968"/>
+        <c:crossAx val="46650880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2216,11 +3608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213105280"/>
-        <c:axId val="213107072"/>
+        <c:axId val="46008192"/>
+        <c:axId val="46009728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213105280"/>
+        <c:axId val="46008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +3621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213107072"/>
+        <c:crossAx val="46009728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +3629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213107072"/>
+        <c:axId val="46009728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2261,21 +3653,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213105280"/>
+        <c:crossAx val="46008192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2339,7 +3729,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2560,11 +3949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213993728"/>
-        <c:axId val="214007808"/>
+        <c:axId val="46050304"/>
+        <c:axId val="46052096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213993728"/>
+        <c:axId val="46050304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +3962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214007808"/>
+        <c:crossAx val="46052096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +3970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214007808"/>
+        <c:axId val="46052096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2605,21 +3994,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213993728"/>
+        <c:crossAx val="46050304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2686,7 +4073,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2904,11 +4290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213961728"/>
-        <c:axId val="214926080"/>
+        <c:axId val="46086784"/>
+        <c:axId val="46092672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213961728"/>
+        <c:axId val="46086784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +4303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214926080"/>
+        <c:crossAx val="46092672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2925,7 +4311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214926080"/>
+        <c:axId val="46092672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,7 +4348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213961728"/>
+        <c:crossAx val="46086784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2970,7 +4356,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3037,7 +4422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3264,11 +4648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213148416"/>
-        <c:axId val="213149952"/>
+        <c:axId val="46123648"/>
+        <c:axId val="45814144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213148416"/>
+        <c:axId val="46123648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +4661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="213149952"/>
+        <c:crossAx val="45814144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3285,7 +4669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213149952"/>
+        <c:axId val="45814144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3328,7 +4712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213148416"/>
+        <c:crossAx val="46123648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3411,7 +4795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3629,11 +5012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188019072"/>
-        <c:axId val="188020608"/>
+        <c:axId val="45836544"/>
+        <c:axId val="45838336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188019072"/>
+        <c:axId val="45836544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188020608"/>
+        <c:crossAx val="45838336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3650,7 +5033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188020608"/>
+        <c:axId val="45838336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +5070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188019072"/>
+        <c:crossAx val="45836544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3995,11 +5378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102500224"/>
-        <c:axId val="102539648"/>
+        <c:axId val="45877120"/>
+        <c:axId val="45878656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102500224"/>
+        <c:axId val="45877120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +5391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102539648"/>
+        <c:crossAx val="45878656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4016,7 +5399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102539648"/>
+        <c:axId val="45878656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4054,7 +5437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102500224"/>
+        <c:crossAx val="45877120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4171,11 +5554,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -4376,11 +5754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180618368"/>
-        <c:axId val="180683520"/>
+        <c:axId val="45920256"/>
+        <c:axId val="45922176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180618368"/>
+        <c:axId val="45920256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,14 +5780,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180683520"/>
+        <c:crossAx val="45922176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4417,7 +5794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180683520"/>
+        <c:axId val="45922176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,14 +5817,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180618368"/>
+        <c:crossAx val="45920256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4764,11 +6140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185072640"/>
-        <c:axId val="185129984"/>
+        <c:axId val="45931904"/>
+        <c:axId val="45970944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185072640"/>
+        <c:axId val="45931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,14 +6166,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185129984"/>
+        <c:crossAx val="45970944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4805,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185129984"/>
+        <c:axId val="45970944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4829,14 +6204,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185072640"/>
+        <c:crossAx val="45931904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5160,16 +6534,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5193,7 +6567,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4238625" y="457200"/>
+          <a:off x="6791325" y="419100"/>
           <a:ext cx="4286250" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5216,15 +6590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5238,6 +6612,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5905,14 +7375,14 @@
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
@@ -5993,11 +7463,11 @@
         <v>2.7083514760950971</v>
       </c>
       <c r="L5" s="10">
-        <f>$C5/E5</f>
+        <f t="shared" ref="L5:M8" si="0">$C5/E5</f>
         <v>8.7139254693191379</v>
       </c>
       <c r="M5" s="10">
-        <f>$C5/F5</f>
+        <f t="shared" si="0"/>
         <v>10.636114911080712</v>
       </c>
       <c r="N5" s="4">
@@ -6047,15 +7517,15 @@
         <v>2.7465006402614032</v>
       </c>
       <c r="L6" s="10">
-        <f>$C6/E6</f>
+        <f t="shared" si="0"/>
         <v>8.6823003908431051</v>
       </c>
       <c r="M6" s="10">
-        <f>$C6/F6</f>
+        <f t="shared" si="0"/>
         <v>10.714900947459087</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" ref="N6:N8" si="0">C6/G6</f>
+        <f t="shared" ref="N6:N8" si="1">C6/G6</f>
         <v>230.37037037037035</v>
       </c>
       <c r="O6" s="4">
@@ -6101,15 +7571,15 @@
         <v>2.8446634561541049</v>
       </c>
       <c r="L7" s="10">
-        <f>$C7/E7</f>
+        <f t="shared" si="0"/>
         <v>8.8544934811406257</v>
       </c>
       <c r="M7" s="10">
-        <f>$C7/F7</f>
+        <f t="shared" si="0"/>
         <v>10.993767313019392</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>254</v>
       </c>
       <c r="O7" s="4">
@@ -6155,15 +7625,15 @@
         <v>2.8250106413961511</v>
       </c>
       <c r="L8" s="10">
-        <f>$C8/E8</f>
+        <f t="shared" si="0"/>
         <v>8.789600250932283</v>
       </c>
       <c r="M8" s="10">
-        <f>$C8/F8</f>
+        <f t="shared" si="0"/>
         <v>10.941906373378455</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252.2</v>
       </c>
       <c r="O8" s="4">
@@ -6239,14 +7709,14 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15">
       <c r="C14" t="s">
@@ -6309,34 +7779,34 @@
         <v>8000</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:D19" si="1">1/C16*1000000</f>
+        <f t="shared" ref="D16:D19" si="2">1/C16*1000000</f>
         <v>125</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J16" s="4">
-        <f>J15/$J15</f>
+        <f t="shared" ref="J16:O16" si="3">J15/$J15</f>
         <v>1</v>
       </c>
       <c r="K16" s="4">
-        <f>K15/$J15</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L16" s="4">
-        <f>L15/$J15</f>
+        <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
       <c r="M16" s="4">
-        <f>M15/$J15</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N16" s="4">
-        <f>N15/$J15</f>
+        <f t="shared" si="3"/>
         <v>11.25</v>
       </c>
       <c r="O16" s="4">
-        <f>O15/$J15</f>
+        <f t="shared" si="3"/>
         <v>158.125</v>
       </c>
     </row>
@@ -6345,34 +7815,34 @@
         <v>11025</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.702947845804985</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <f>J8/J16</f>
         <v>1</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" ref="K17:O17" si="2">K8/K16</f>
+      <c r="K17" s="14">
+        <f t="shared" ref="K17:O17" si="4">K8/K16</f>
         <v>0.94167021379871707</v>
       </c>
-      <c r="L17" s="15">
-        <f t="shared" si="2"/>
+      <c r="L17" s="14">
+        <f t="shared" si="4"/>
         <v>1.6742095716061491</v>
       </c>
-      <c r="M17" s="15">
-        <f t="shared" si="2"/>
+      <c r="M17" s="14">
+        <f t="shared" si="4"/>
         <v>1.8236510622297424</v>
       </c>
-      <c r="N17" s="15">
-        <f t="shared" si="2"/>
+      <c r="N17" s="14">
+        <f t="shared" si="4"/>
         <v>22.417777777777776</v>
       </c>
-      <c r="O17" s="15">
-        <f t="shared" si="2"/>
+      <c r="O17" s="14">
+        <f t="shared" si="4"/>
         <v>1.8188399035949943</v>
       </c>
     </row>
@@ -6381,7 +7851,7 @@
         <v>22050</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.351473922902493</v>
       </c>
       <c r="E18" s="4"/>
@@ -6399,7 +7869,7 @@
         <v>44100</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.675736961451246</v>
       </c>
       <c r="E19" s="4"/>
@@ -6474,15 +7944,15 @@
         <v>#REF!</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" ref="V21:X21" si="3">E21</f>
+        <f t="shared" ref="V21:X21" si="5">E21</f>
         <v>Arduino Due</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
@@ -6604,11 +8074,11 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="J24">
-        <f>C24/C24</f>
+        <f t="shared" ref="J24:J35" si="6">C24/C24</f>
         <v>1</v>
       </c>
       <c r="K24" s="6">
-        <f>C24/D24</f>
+        <f t="shared" ref="K24:K35" si="7">C24/D24</f>
         <v>2.7083514760950971</v>
       </c>
       <c r="L24" s="6">
@@ -6620,7 +8090,7 @@
         <v>10.636114911080712</v>
       </c>
       <c r="N24" s="6">
-        <f>C24/G24</f>
+        <f t="shared" ref="N24:N35" si="8">C24/G24</f>
         <v>239.23076923076923</v>
       </c>
       <c r="O24" s="6">
@@ -6634,11 +8104,11 @@
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6">
-        <f>C24/C32</f>
+        <f t="shared" ref="S24:T27" si="9">C24/C32</f>
         <v>7.5853658536585362</v>
       </c>
       <c r="T24" s="6">
-        <f>D24/D32</f>
+        <f t="shared" si="9"/>
         <v>12.604829857299672</v>
       </c>
       <c r="U24" s="6" t="e">
@@ -6646,15 +8116,15 @@
         <v>#REF!</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" ref="V24:X24" si="4">E24/E32</f>
+        <f t="shared" ref="V24:X24" si="10">E24/E32</f>
         <v>5.499229583975346</v>
       </c>
       <c r="W24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>13.537037037037035</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.92857142857142871</v>
       </c>
     </row>
@@ -6664,7 +8134,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:C27" si="5">C6</f>
+        <f t="shared" ref="C25:C27" si="11">C6</f>
         <v>622</v>
       </c>
       <c r="D25" s="4">
@@ -6684,45 +8154,45 @@
         <v>2.7</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" ref="H25:H27" si="6">H6</f>
+        <f t="shared" ref="H25:H27" si="12">H6</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="J25">
-        <f>C25/C25</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K25" s="6">
-        <f>C25/D25</f>
+        <f t="shared" si="7"/>
         <v>2.7465006402614032</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25:L35" si="7">$C25/E25</f>
+        <f t="shared" ref="L25:L35" si="13">$C25/E25</f>
         <v>8.6823003908431051</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" ref="M25:M35" si="8">$C25/F25</f>
+        <f t="shared" ref="M25:M35" si="14">$C25/F25</f>
         <v>10.714900947459087</v>
       </c>
       <c r="N25" s="6">
-        <f>C25/G25</f>
+        <f t="shared" si="8"/>
         <v>230.37037037037035</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" ref="O25:O35" si="9">$C25/H25</f>
+        <f t="shared" ref="O25:O35" si="15">$C25/H25</f>
         <v>109.26178033463616</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6">
-        <f t="shared" ref="Q25:Q35" si="10">F25/G25</f>
+        <f t="shared" ref="Q25:Q35" si="16">F25/G25</f>
         <v>21.499999999999996</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6">
-        <f>C25/C33</f>
+        <f t="shared" si="9"/>
         <v>7.8734177215189876</v>
       </c>
       <c r="T25" s="6">
-        <f>D25/D33</f>
+        <f t="shared" si="9"/>
         <v>12.970790378006873</v>
       </c>
       <c r="U25" s="6" t="e">
@@ -6730,15 +8200,15 @@
         <v>#REF!</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" ref="V25:V27" si="11">E25/E33</f>
+        <f t="shared" ref="V25:V27" si="17">E25/E33</f>
         <v>5.6857142857142859</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" ref="W25:X27" si="12">F25/F33</f>
+        <f t="shared" ref="W25:X27" si="18">F25/F33</f>
         <v>13.954326923076922</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.96428571428571441</v>
       </c>
     </row>
@@ -6748,7 +8218,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1270</v>
       </c>
       <c r="D26" s="4">
@@ -6768,45 +8238,45 @@
         <v>5</v>
       </c>
       <c r="H26" s="10">
+        <f t="shared" si="12"/>
+        <v>8.3607499999999995</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="6"/>
-        <v>8.3607499999999995</v>
-      </c>
-      <c r="J26">
-        <f>C26/C26</f>
         <v>1</v>
       </c>
       <c r="K26" s="6">
-        <f>C26/D26</f>
+        <f t="shared" si="7"/>
         <v>2.8446634561541049</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.8544934811406257</v>
       </c>
       <c r="M26" s="6">
+        <f t="shared" si="14"/>
+        <v>10.993767313019392</v>
+      </c>
+      <c r="N26" s="6">
         <f t="shared" si="8"/>
-        <v>10.993767313019392</v>
-      </c>
-      <c r="N26" s="6">
-        <f>C26/G26</f>
         <v>254</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>151.90024818347638</v>
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23.103999999999999</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
-        <f>C26/C34</f>
+        <f t="shared" si="9"/>
         <v>8.193548387096774</v>
       </c>
       <c r="T26" s="6">
-        <f>D26/D34</f>
+        <f t="shared" si="9"/>
         <v>13.07320644216691</v>
       </c>
       <c r="U26" s="6" t="e">
@@ -6814,15 +8284,15 @@
         <v>#REF!</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5.7834677419354836</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>14.13953488372093</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.92592592592592582</v>
       </c>
     </row>
@@ -6832,7 +8302,7 @@
         <v>128</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2522</v>
       </c>
       <c r="D27" s="4">
@@ -6852,45 +8322,45 @@
         <v>10</v>
       </c>
       <c r="H27" s="10">
+        <f t="shared" si="12"/>
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="6"/>
-        <v>8.7690000000000001</v>
-      </c>
-      <c r="J27">
-        <f>C27/C27</f>
         <v>1</v>
       </c>
       <c r="K27" s="6">
-        <f>C27/D27</f>
+        <f t="shared" si="7"/>
         <v>2.8250106413961511</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.789600250932283</v>
       </c>
       <c r="M27" s="6">
+        <f t="shared" si="14"/>
+        <v>10.941906373378455</v>
+      </c>
+      <c r="N27" s="6">
         <f t="shared" si="8"/>
-        <v>10.941906373378455</v>
-      </c>
-      <c r="N27" s="6">
-        <f>C27/G27</f>
         <v>252.2</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>287.60405975595847</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23.048999999999999</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6">
-        <f>C27/C35</f>
+        <f t="shared" si="9"/>
         <v>8.1883116883116891</v>
       </c>
       <c r="T27" s="6">
-        <f>D27/D35</f>
+        <f t="shared" si="9"/>
         <v>13.215988156920799</v>
       </c>
       <c r="U27" s="6" t="e">
@@ -6898,15 +8368,15 @@
         <v>#REF!</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5.83072546230441</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>14.22777777777778</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.93457943925233655</v>
       </c>
     </row>
@@ -6943,41 +8413,41 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="J28">
-        <f>C28/C28</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K28" s="6">
-        <f>C28/D28</f>
+        <f t="shared" si="7"/>
         <v>11.977715877437326</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>19.876733436055471</v>
       </c>
       <c r="M28" s="6">
+        <f t="shared" si="14"/>
+        <v>59.722222222222221</v>
+      </c>
+      <c r="N28" s="6">
         <f t="shared" si="8"/>
-        <v>59.722222222222221</v>
-      </c>
-      <c r="N28" s="6">
-        <f>C28/G28</f>
         <v>92.142857142857153</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>23.435371060041785</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.5428571428571431</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6">
-        <f>C28/C32</f>
+        <f t="shared" ref="S28:T31" si="19">C28/C32</f>
         <v>3.1463414634146343</v>
       </c>
       <c r="T28" s="6">
-        <f>D28/D32</f>
+        <f t="shared" si="19"/>
         <v>1.1822173435784853</v>
       </c>
       <c r="U28" s="6" t="e">
@@ -6985,21 +8455,21 @@
         <v>#REF!</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28:X28" si="13">E28/E32</f>
+        <f t="shared" ref="V28:X28" si="20">E28/E32</f>
         <v>1</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="B29">
-        <f t="shared" ref="B29:B35" si="14">B25</f>
+        <f t="shared" ref="B29:B35" si="21">B25</f>
         <v>32</v>
       </c>
       <c r="C29" s="4">
@@ -7019,49 +8489,49 @@
         <v>4.16</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" ref="G29:G31" si="15">G33</f>
+        <f t="shared" ref="G29:G31" si="22">G33</f>
         <v>2.8</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" ref="H29:H31" si="16">H25</f>
+        <f t="shared" ref="H29:H31" si="23">H25</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="J29">
-        <f>C29/C29</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K29" s="6">
-        <f>C29/D29</f>
+        <f t="shared" si="7"/>
         <v>12.217412217412218</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>20.158730158730158</v>
       </c>
       <c r="M29" s="6">
+        <f t="shared" si="14"/>
+        <v>61.057692307692307</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="8"/>
-        <v>61.057692307692307</v>
-      </c>
-      <c r="N29" s="6">
-        <f>C29/G29</f>
         <v>90.714285714285722</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>44.618154670414121</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6">
-        <f>C29/C33</f>
+        <f t="shared" si="19"/>
         <v>3.2151898734177213</v>
       </c>
       <c r="T29" s="6">
-        <f>D29/D33</f>
+        <f t="shared" si="19"/>
         <v>1.1907216494845361</v>
       </c>
       <c r="U29" s="6" t="e">
@@ -7069,21 +8539,21 @@
         <v>#REF!</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" ref="V29:V31" si="17">E29/E33</f>
+        <f t="shared" ref="V29:V31" si="24">E29/E33</f>
         <v>1</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" ref="W29:X31" si="18">F29/F33</f>
+        <f t="shared" ref="W29:X31" si="25">F29/F33</f>
         <v>1</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="B30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="C30" s="4">
@@ -7103,49 +8573,49 @@
         <v>8.17</v>
       </c>
       <c r="G30" s="10">
+        <f t="shared" si="22"/>
+        <v>5.4</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="23"/>
+        <v>8.3607499999999995</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="7"/>
+        <v>12.319373010041637</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="13"/>
+        <v>20.282258064516128</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="14"/>
+        <v>61.566707466340269</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="8"/>
+        <v>93.148148148148138</v>
+      </c>
+      <c r="O30" s="6">
         <f t="shared" si="15"/>
-        <v>5.4</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="16"/>
-        <v>8.3607499999999995</v>
-      </c>
-      <c r="J30">
-        <f>C30/C30</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <f>C30/D30</f>
-        <v>12.319373010041637</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="7"/>
-        <v>20.282258064516128</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="8"/>
-        <v>61.566707466340269</v>
-      </c>
-      <c r="N30" s="6">
-        <f>C30/G30</f>
-        <v>93.148148148148138</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="9"/>
         <v>60.162066800227258</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.5129629629629628</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6">
-        <f>C30/C34</f>
+        <f t="shared" si="19"/>
         <v>3.2451612903225806</v>
       </c>
       <c r="T30" s="6">
-        <f>D30/D34</f>
+        <f t="shared" si="19"/>
         <v>1.1956076134699853</v>
       </c>
       <c r="U30" s="6" t="e">
@@ -7153,21 +8623,21 @@
         <v>#REF!</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="B31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="C31" s="4">
@@ -7187,49 +8657,49 @@
         <v>16.2</v>
       </c>
       <c r="G31" s="10">
+        <f t="shared" si="22"/>
+        <v>10.7</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="23"/>
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="7"/>
+        <v>12.384130515387469</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="13"/>
+        <v>20.361715098557202</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="14"/>
+        <v>61.851851851851855</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="8"/>
+        <v>93.644859813084125</v>
+      </c>
+      <c r="O31" s="6">
         <f t="shared" si="15"/>
-        <v>10.7</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="16"/>
-        <v>8.7690000000000001</v>
-      </c>
-      <c r="J31">
-        <f>C31/C31</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="6">
-        <f>C31/D31</f>
-        <v>12.384130515387469</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="7"/>
-        <v>20.361715098557202</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="8"/>
-        <v>61.851851851851855</v>
-      </c>
-      <c r="N31" s="6">
-        <f>C31/G31</f>
-        <v>93.644859813084125</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="9"/>
         <v>114.26616489907629</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.514018691588785</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <f>C31/C35</f>
+        <f t="shared" si="19"/>
         <v>3.2532467532467533</v>
       </c>
       <c r="T31" s="6">
-        <f>D31/D35</f>
+        <f t="shared" si="19"/>
         <v>1.197779422649889</v>
       </c>
       <c r="U31" s="6" t="e">
@@ -7237,15 +8707,15 @@
         <v>#REF!</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -7254,7 +8724,7 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="C32" s="4">
@@ -7282,32 +8752,32 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="J32">
-        <f>C32/C32</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K32" s="6">
-        <f>C32/D32</f>
+        <f t="shared" si="7"/>
         <v>4.5005488474204176</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.3174114021571643</v>
       </c>
       <c r="M32" s="6">
+        <f t="shared" si="14"/>
+        <v>18.981481481481481</v>
+      </c>
+      <c r="N32" s="6">
         <f t="shared" si="8"/>
-        <v>18.981481481481481</v>
-      </c>
-      <c r="N32" s="6">
-        <f>C32/G32</f>
         <v>29.285714285714288</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.4484512671450629</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.5428571428571431</v>
       </c>
       <c r="R32" s="6"/>
@@ -7318,7 +8788,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="B33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="C33" s="4">
@@ -7334,7 +8804,7 @@
         <v>12.6</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F35" si="19">F29</f>
+        <f t="shared" ref="F33:F35" si="26">F29</f>
         <v>4.16</v>
       </c>
       <c r="G33" s="10">
@@ -7342,36 +8812,36 @@
         <v>2.8</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" ref="H33:H35" si="20">H25</f>
+        <f t="shared" ref="H33:H35" si="27">H25</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="J33">
-        <f>C33/C33</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K33" s="6">
-        <f>C33/D33</f>
+        <f t="shared" si="7"/>
         <v>4.5246277205040091</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.2698412698412698</v>
       </c>
       <c r="M33" s="6">
+        <f t="shared" si="14"/>
+        <v>18.990384615384613</v>
+      </c>
+      <c r="N33" s="6">
         <f t="shared" si="8"/>
-        <v>18.990384615384613</v>
-      </c>
-      <c r="N33" s="6">
-        <f>C33/G33</f>
         <v>28.214285714285715</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>13.877300074656361</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="R33" s="6"/>
@@ -7398,7 +8868,7 @@
         <v>24.8</v>
       </c>
       <c r="F34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>8.17</v>
       </c>
       <c r="G34" s="10">
@@ -7406,36 +8876,36 @@
         <v>5.4</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="J34">
-        <f>C34/C34</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K34" s="6">
-        <f>C34/D34</f>
+        <f t="shared" si="7"/>
         <v>4.5387994143484631</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="M34" s="6">
+        <f t="shared" si="14"/>
+        <v>18.971848225214199</v>
+      </c>
+      <c r="N34" s="6">
         <f t="shared" si="8"/>
-        <v>18.971848225214199</v>
-      </c>
-      <c r="N34" s="6">
-        <f>C34/G34</f>
         <v>28.703703703703702</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>18.539006668062076</v>
       </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.5129629629629628</v>
       </c>
       <c r="R34" s="6"/>
@@ -7446,7 +8916,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="B35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="C35" s="4">
@@ -7462,7 +8932,7 @@
         <v>49.21</v>
       </c>
       <c r="F35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>16.2</v>
       </c>
       <c r="G35" s="10">
@@ -7470,36 +8940,36 @@
         <v>10.7</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="J35">
-        <f>C35/C35</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K35" s="6">
-        <f>C35/D35</f>
+        <f t="shared" si="7"/>
         <v>4.5595854922279795</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.2588904694167855</v>
       </c>
       <c r="M35" s="6">
+        <f t="shared" si="14"/>
+        <v>19.012345679012345</v>
+      </c>
+      <c r="N35" s="6">
         <f t="shared" si="8"/>
-        <v>19.012345679012345</v>
-      </c>
-      <c r="N35" s="6">
-        <f>C35/G35</f>
         <v>28.785046728971963</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>35.12373132626297</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.514018691588785</v>
       </c>
       <c r="R35" s="6"/>
@@ -7521,19 +8991,19 @@
         <v>1607.7170418006433</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" ref="D37:F37" si="21">1/(D25*0.000001)</f>
+        <f t="shared" ref="D37:F37" si="28">1/(D25*0.000001)</f>
         <v>4415.5958846646354</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>13958.682300390843</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>17226.528854435834</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" ref="G37" si="22">1/(G25*0.000001)</f>
+        <f t="shared" ref="G37" si="29">1/(G25*0.000001)</f>
         <v>370370.37037037039</v>
       </c>
       <c r="H37" s="8">
@@ -7552,15 +9022,15 @@
         <v>0.3471833351999104</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37:N37" si="23">$C$34/E26</f>
+        <f t="shared" ref="L37:N37" si="30">$C$34/E26</f>
         <v>1.0806665272258245</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1.3417590027700832</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>31</v>
       </c>
       <c r="O37" s="9">
@@ -7581,23 +9051,23 @@
         <v>3937.0078740157483</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:F38" si="24">1/(D29*0.000001)</f>
+        <f t="shared" ref="D38:F38" si="31">1/(D29*0.000001)</f>
         <v>48100.048100048101</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>79365.079365079364</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>240384.61538461538</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38" si="25">1/(G29*0.000001)</f>
+        <f t="shared" ref="G38" si="32">1/(G29*0.000001)</f>
         <v>357142.85714285716</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38" si="26">1/(H29*0.000001)</f>
+        <f t="shared" ref="H38" si="33">1/(H29*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="I38" t="s">
@@ -7612,15 +9082,15 @@
         <v>3.7962282635317171</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" ref="L38:N38" si="27">$C$34/E30</f>
+        <f t="shared" ref="L38:N38" si="34">$C$34/E30</f>
         <v>6.25</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>18.971848225214199</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>28.703703703703702</v>
       </c>
       <c r="O38" s="9">
@@ -7641,23 +9111,23 @@
         <v>12658.227848101267</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:F39" si="28">1/(D33*0.000001)</f>
+        <f t="shared" ref="D39:F39" si="35">1/(D33*0.000001)</f>
         <v>57273.768613974804</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>79365.079365079364</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>240384.61538461538</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" ref="G39" si="29">1/(G33*0.000001)</f>
+        <f t="shared" ref="G39" si="36">1/(G33*0.000001)</f>
         <v>357142.85714285716</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ref="H39" si="30">1/(H33*0.000001)</f>
+        <f t="shared" ref="H39" si="37">1/(H33*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="I39" t="s">
@@ -7672,15 +9142,15 @@
         <v>4.5387994143484631</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" ref="L39:N39" si="31">$C$34/E34</f>
+        <f t="shared" ref="L39:N39" si="38">$C$34/E34</f>
         <v>6.25</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>18.971848225214199</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>28.703703703703702</v>
       </c>
       <c r="O39" s="9">
@@ -7701,27 +9171,27 @@
     </row>
     <row r="58" spans="2:9">
       <c r="C58">
-        <f>C$21</f>
+        <f t="shared" ref="C58:H58" si="39">C$21</f>
         <v>0</v>
       </c>
       <c r="D58" t="str">
-        <f>D$21</f>
+        <f t="shared" si="39"/>
         <v>Arduino M0</v>
       </c>
       <c r="E58" t="str">
-        <f>E$21</f>
+        <f t="shared" si="39"/>
         <v>Arduino Due</v>
       </c>
       <c r="F58" t="str">
-        <f>F$21</f>
+        <f t="shared" si="39"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="G58" t="str">
-        <f>G$21</f>
+        <f t="shared" si="39"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H58" t="str">
-        <f>H$21</f>
+        <f t="shared" si="39"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -7867,7 +9337,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="str">
-        <f>B23</f>
+        <f t="shared" ref="B82:B94" si="40">B23</f>
         <v>N_FIR</v>
       </c>
       <c r="C82" t="s">
@@ -7892,108 +9362,108 @@
         <v>float</v>
       </c>
       <c r="B83">
-        <f>B24</f>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="C83" s="11">
-        <f>1000000/C24</f>
+        <f t="shared" ref="C83:G94" si="41">1000000/C24</f>
         <v>3215.4340836012861</v>
       </c>
       <c r="D83" s="11">
-        <f>1000000/D24</f>
+        <f t="shared" si="41"/>
         <v>8708.52564660803</v>
       </c>
       <c r="E83" s="11">
-        <f>1000000/E24</f>
+        <f t="shared" si="41"/>
         <v>28019.052956010088</v>
       </c>
       <c r="F83" s="11">
-        <f>1000000/F24</f>
+        <f t="shared" si="41"/>
         <v>34199.726402188782</v>
       </c>
       <c r="G83" s="11">
-        <f>1000000/G24</f>
+        <f t="shared" si="41"/>
         <v>769230.76923076925</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8">
       <c r="B84">
-        <f>B25</f>
+        <f t="shared" si="40"/>
         <v>32</v>
       </c>
       <c r="C84" s="11">
-        <f>1000000/C25</f>
+        <f t="shared" si="41"/>
         <v>1607.7170418006431</v>
       </c>
       <c r="D84" s="11">
-        <f>1000000/D25</f>
+        <f t="shared" si="41"/>
         <v>4415.5958846646354</v>
       </c>
       <c r="E84" s="11">
-        <f>1000000/E25</f>
+        <f t="shared" si="41"/>
         <v>13958.682300390843</v>
       </c>
       <c r="F84" s="11">
-        <f>1000000/F25</f>
+        <f t="shared" si="41"/>
         <v>17226.528854435834</v>
       </c>
       <c r="G84" s="11">
-        <f>1000000/G25</f>
+        <f t="shared" si="41"/>
         <v>370370.37037037034</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8">
       <c r="B85">
-        <f>B26</f>
+        <f t="shared" si="40"/>
         <v>64</v>
       </c>
       <c r="C85" s="11">
-        <f>1000000/C26</f>
+        <f t="shared" si="41"/>
         <v>787.40157480314963</v>
       </c>
       <c r="D85" s="11">
-        <f>1000000/D26</f>
+        <f t="shared" si="41"/>
         <v>2239.8924851607126</v>
       </c>
       <c r="E85" s="11">
-        <f>1000000/E26</f>
+        <f t="shared" si="41"/>
         <v>6972.0421111343512</v>
       </c>
       <c r="F85" s="11">
-        <f>1000000/F26</f>
+        <f t="shared" si="41"/>
         <v>8656.5096952908589</v>
       </c>
       <c r="G85" s="11">
-        <f>1000000/G26</f>
+        <f t="shared" si="41"/>
         <v>200000</v>
       </c>
       <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8">
       <c r="B86">
-        <f>B27</f>
+        <f t="shared" si="40"/>
         <v>128</v>
       </c>
       <c r="C86" s="11">
-        <f>1000000/C27</f>
+        <f t="shared" si="41"/>
         <v>396.51070578905632</v>
       </c>
       <c r="D86" s="11">
-        <f>1000000/D27</f>
+        <f t="shared" si="41"/>
         <v>1120.1469632815824</v>
       </c>
       <c r="E86" s="11">
-        <f>1000000/E27</f>
+        <f t="shared" si="41"/>
         <v>3485.1705991008257</v>
       </c>
       <c r="F86" s="11">
-        <f>1000000/F27</f>
+        <f t="shared" si="41"/>
         <v>4338.5830187860647</v>
       </c>
       <c r="G86" s="11">
-        <f>1000000/G27</f>
+        <f t="shared" si="41"/>
         <v>100000</v>
       </c>
       <c r="H86" s="11"/>
@@ -8004,108 +9474,108 @@
         <v>int32</v>
       </c>
       <c r="B87">
-        <f>B28</f>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="C87" s="11">
-        <f>1000000/C28</f>
+        <f t="shared" si="41"/>
         <v>7751.937984496124</v>
       </c>
       <c r="D87" s="11">
-        <f>1000000/D28</f>
+        <f t="shared" si="41"/>
         <v>92850.510677808736</v>
       </c>
       <c r="E87" s="11">
-        <f>1000000/E28</f>
+        <f t="shared" si="41"/>
         <v>154083.20493066256</v>
       </c>
       <c r="F87" s="11">
-        <f>1000000/F28</f>
+        <f t="shared" si="41"/>
         <v>462962.96296296292</v>
       </c>
       <c r="G87" s="11">
-        <f>1000000/G28</f>
+        <f t="shared" si="41"/>
         <v>714285.71428571432</v>
       </c>
       <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8">
       <c r="B88">
-        <f>B29</f>
+        <f t="shared" si="40"/>
         <v>32</v>
       </c>
       <c r="C88" s="11">
-        <f>1000000/C29</f>
+        <f t="shared" si="41"/>
         <v>3937.0078740157483</v>
       </c>
       <c r="D88" s="11">
-        <f>1000000/D29</f>
+        <f t="shared" si="41"/>
         <v>48100.048100048101</v>
       </c>
       <c r="E88" s="11">
-        <f>1000000/E29</f>
+        <f t="shared" si="41"/>
         <v>79365.079365079364</v>
       </c>
       <c r="F88" s="11">
-        <f>1000000/F29</f>
+        <f t="shared" si="41"/>
         <v>240384.61538461538</v>
       </c>
       <c r="G88" s="11">
-        <f>1000000/G29</f>
+        <f t="shared" si="41"/>
         <v>357142.85714285716</v>
       </c>
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8">
       <c r="B89">
-        <f>B30</f>
+        <f t="shared" si="40"/>
         <v>64</v>
       </c>
       <c r="C89" s="11">
-        <f>1000000/C30</f>
+        <f t="shared" si="41"/>
         <v>1988.0715705765408</v>
       </c>
       <c r="D89" s="11">
-        <f>1000000/D30</f>
+        <f t="shared" si="41"/>
         <v>24491.795248591723</v>
       </c>
       <c r="E89" s="11">
-        <f>1000000/E30</f>
+        <f t="shared" si="41"/>
         <v>40322.580645161288</v>
       </c>
       <c r="F89" s="11">
-        <f>1000000/F30</f>
+        <f t="shared" si="41"/>
         <v>122399.02080783354</v>
       </c>
       <c r="G89" s="11">
-        <f>1000000/G30</f>
+        <f t="shared" si="41"/>
         <v>185185.18518518517</v>
       </c>
       <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8">
       <c r="B90">
-        <f>B31</f>
+        <f t="shared" si="40"/>
         <v>128</v>
       </c>
       <c r="C90" s="11">
-        <f>1000000/C31</f>
+        <f t="shared" si="41"/>
         <v>998.00399201596804</v>
       </c>
       <c r="D90" s="11">
-        <f>1000000/D31</f>
+        <f t="shared" si="41"/>
         <v>12359.411692003461</v>
       </c>
       <c r="E90" s="11">
-        <f>1000000/E31</f>
+        <f t="shared" si="41"/>
         <v>20321.072952651899</v>
       </c>
       <c r="F90" s="11">
-        <f>1000000/F31</f>
+        <f t="shared" si="41"/>
         <v>61728.395061728399</v>
       </c>
       <c r="G90" s="11">
-        <f>1000000/G31</f>
+        <f t="shared" si="41"/>
         <v>93457.943925233645</v>
       </c>
       <c r="H90" s="11"/>
@@ -8116,108 +9586,108 @@
         <v>int16</v>
       </c>
       <c r="B91">
-        <f>B32</f>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="C91" s="11">
-        <f>1000000/C32</f>
+        <f t="shared" si="41"/>
         <v>24390.243902439026</v>
       </c>
       <c r="D91" s="11">
-        <f>1000000/D32</f>
+        <f t="shared" si="41"/>
         <v>109769.48408342482</v>
       </c>
       <c r="E91" s="11">
-        <f>1000000/E32</f>
+        <f t="shared" si="41"/>
         <v>154083.20493066256</v>
       </c>
       <c r="F91" s="11">
-        <f>1000000/F32</f>
+        <f t="shared" si="41"/>
         <v>462962.96296296292</v>
       </c>
       <c r="G91" s="11">
-        <f>1000000/G32</f>
+        <f t="shared" si="41"/>
         <v>714285.71428571432</v>
       </c>
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8">
       <c r="B92">
-        <f>B33</f>
+        <f t="shared" si="40"/>
         <v>32</v>
       </c>
       <c r="C92" s="11">
-        <f>1000000/C33</f>
+        <f t="shared" si="41"/>
         <v>12658.227848101265</v>
       </c>
       <c r="D92" s="11">
-        <f>1000000/D33</f>
+        <f t="shared" si="41"/>
         <v>57273.768613974797</v>
       </c>
       <c r="E92" s="11">
-        <f>1000000/E33</f>
+        <f t="shared" si="41"/>
         <v>79365.079365079364</v>
       </c>
       <c r="F92" s="11">
-        <f>1000000/F33</f>
+        <f t="shared" si="41"/>
         <v>240384.61538461538</v>
       </c>
       <c r="G92" s="11">
-        <f>1000000/G33</f>
+        <f t="shared" si="41"/>
         <v>357142.85714285716</v>
       </c>
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8">
       <c r="B93">
-        <f>B34</f>
+        <f t="shared" si="40"/>
         <v>64</v>
       </c>
       <c r="C93" s="11">
-        <f>1000000/C34</f>
+        <f t="shared" si="41"/>
         <v>6451.6129032258068</v>
       </c>
       <c r="D93" s="11">
-        <f>1000000/D34</f>
+        <f t="shared" si="41"/>
         <v>29282.576866764277</v>
       </c>
       <c r="E93" s="11">
-        <f>1000000/E34</f>
+        <f t="shared" si="41"/>
         <v>40322.580645161288</v>
       </c>
       <c r="F93" s="11">
-        <f>1000000/F34</f>
+        <f t="shared" si="41"/>
         <v>122399.02080783354</v>
       </c>
       <c r="G93" s="11">
-        <f>1000000/G34</f>
+        <f t="shared" si="41"/>
         <v>185185.18518518517</v>
       </c>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8">
       <c r="B94">
-        <f>B35</f>
+        <f t="shared" si="40"/>
         <v>128</v>
       </c>
       <c r="C94" s="11">
-        <f>1000000/C35</f>
+        <f t="shared" si="41"/>
         <v>3246.7532467532469</v>
       </c>
       <c r="D94" s="11">
-        <f>1000000/D35</f>
+        <f t="shared" si="41"/>
         <v>14803.849000740192</v>
       </c>
       <c r="E94" s="11">
-        <f>1000000/E35</f>
+        <f t="shared" si="41"/>
         <v>20321.072952651899</v>
       </c>
       <c r="F94" s="11">
-        <f>1000000/F35</f>
+        <f t="shared" si="41"/>
         <v>61728.395061728399</v>
       </c>
       <c r="G94" s="11">
-        <f>1000000/G35</f>
+        <f t="shared" si="41"/>
         <v>93457.943925233645</v>
       </c>
       <c r="H94" s="11"/>
@@ -8240,27 +9710,27 @@
     </row>
     <row r="99" spans="2:8">
       <c r="C99">
-        <f>C$21</f>
+        <f t="shared" ref="C99:H99" si="42">C$21</f>
         <v>0</v>
       </c>
       <c r="D99" t="str">
-        <f>D$21</f>
+        <f t="shared" si="42"/>
         <v>Arduino M0</v>
       </c>
       <c r="E99" t="str">
-        <f>E$21</f>
+        <f t="shared" si="42"/>
         <v>Arduino Due</v>
       </c>
       <c r="F99" t="str">
-        <f>F$21</f>
+        <f t="shared" si="42"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="G99" t="str">
-        <f>G$21</f>
+        <f t="shared" si="42"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H99" t="str">
-        <f>H$21</f>
+        <f t="shared" si="42"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -8274,7 +9744,7 @@
         <v>1.9843749999999998E-5</v>
       </c>
       <c r="D100">
-        <f t="shared" ref="D100" si="32">D26*0.000001/$B26</f>
+        <f t="shared" ref="D100" si="43">D26*0.000001/$B26</f>
         <v>6.9757812499999997E-6</v>
       </c>
       <c r="E100">
@@ -8304,7 +9774,7 @@
         <v>7.8281249999999988E-6</v>
       </c>
       <c r="D101">
-        <f t="shared" ref="D101" si="33">D31*0.000001/$B31</f>
+        <f t="shared" ref="D101" si="44">D31*0.000001/$B31</f>
         <v>6.3210937499999997E-7</v>
       </c>
       <c r="E101">
@@ -8334,7 +9804,7 @@
         <v>2.40625E-6</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102" si="34">D35*0.000001/$B35</f>
+        <f t="shared" ref="D102" si="45">D35*0.000001/$B35</f>
         <v>5.2773437499999991E-7</v>
       </c>
       <c r="E102">
@@ -8361,27 +9831,27 @@
     </row>
     <row r="105" spans="2:8">
       <c r="C105">
-        <f>C$21</f>
+        <f t="shared" ref="C105:H105" si="46">C$21</f>
         <v>0</v>
       </c>
       <c r="D105" t="str">
-        <f>D$21</f>
+        <f t="shared" si="46"/>
         <v>Arduino M0</v>
       </c>
       <c r="E105" t="str">
-        <f>E$21</f>
+        <f t="shared" si="46"/>
         <v>Arduino Due</v>
       </c>
       <c r="F105" t="str">
-        <f>F$21</f>
+        <f t="shared" si="46"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="G105" t="str">
-        <f>G$21</f>
+        <f t="shared" si="46"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H105" t="str">
-        <f>H$21</f>
+        <f t="shared" si="46"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -8391,27 +9861,27 @@
         <v>float</v>
       </c>
       <c r="C106" s="10">
-        <f>(1/$G$96)/C100</f>
+        <f t="shared" ref="C106:H108" si="47">(1/$G$96)/C100</f>
         <v>1.5748031496062995</v>
       </c>
       <c r="D106" s="10">
-        <f>(1/$G$96)/D100</f>
+        <f t="shared" si="47"/>
         <v>4.4797849703214245</v>
       </c>
       <c r="E106" s="10">
-        <f>(1/$G$96)/E100</f>
+        <f t="shared" si="47"/>
         <v>13.944084222268703</v>
       </c>
       <c r="F106" s="10">
-        <f>(1/$G$96)/F100</f>
+        <f t="shared" si="47"/>
         <v>17.313019390581719</v>
       </c>
       <c r="G106" s="10">
-        <f>(1/$G$96)/G100</f>
+        <f t="shared" si="47"/>
         <v>400.00000000000006</v>
       </c>
       <c r="H106" s="10">
-        <f>(1/$G$96)/H100</f>
+        <f t="shared" si="47"/>
         <v>239.21298926531713</v>
       </c>
     </row>
@@ -8421,27 +9891,27 @@
         <v>int32</v>
       </c>
       <c r="C107" s="10">
-        <f>(1/$G$96)/C101</f>
+        <f t="shared" si="47"/>
         <v>3.9920159680638729</v>
       </c>
       <c r="D107" s="10">
-        <f>(1/$G$96)/D101</f>
+        <f t="shared" si="47"/>
         <v>49.437646768013849</v>
       </c>
       <c r="E107" s="10">
-        <f>(1/$G$96)/E101</f>
+        <f t="shared" si="47"/>
         <v>81.284291810607598</v>
       </c>
       <c r="F107" s="10">
-        <f>(1/$G$96)/F101</f>
+        <f t="shared" si="47"/>
         <v>246.91358024691363</v>
       </c>
       <c r="G107" s="10">
-        <f>(1/$G$96)/G101</f>
+        <f t="shared" si="47"/>
         <v>373.8317757009346</v>
       </c>
       <c r="H107" s="10">
-        <f>(1/$G$96)/H101</f>
+        <f t="shared" si="47"/>
         <v>456.15235488653212</v>
       </c>
     </row>
@@ -8451,27 +9921,27 @@
         <v>int16</v>
       </c>
       <c r="C108" s="10">
-        <f>(1/$G$96)/C102</f>
+        <f t="shared" si="47"/>
         <v>12.987012987012987</v>
       </c>
       <c r="D108" s="10">
-        <f>(1/$G$96)/D102</f>
+        <f t="shared" si="47"/>
         <v>59.21539600296078</v>
       </c>
       <c r="E108" s="10">
-        <f>(1/$G$96)/E102</f>
+        <f t="shared" si="47"/>
         <v>81.284291810607598</v>
       </c>
       <c r="F108" s="10">
-        <f>(1/$G$96)/F102</f>
+        <f t="shared" si="47"/>
         <v>246.91358024691363</v>
       </c>
       <c r="G108" s="10">
-        <f>(1/$G$96)/G102</f>
+        <f t="shared" si="47"/>
         <v>373.8317757009346</v>
       </c>
       <c r="H108" s="10">
-        <f>(1/$G$96)/H102</f>
+        <f t="shared" si="47"/>
         <v>456.15235488653212</v>
       </c>
     </row>
@@ -8482,27 +9952,27 @@
     </row>
     <row r="111" spans="2:8">
       <c r="C111">
-        <f>C$21</f>
+        <f t="shared" ref="C111:H111" si="48">C$21</f>
         <v>0</v>
       </c>
       <c r="D111" t="str">
-        <f>D$21</f>
+        <f t="shared" si="48"/>
         <v>Arduino M0</v>
       </c>
       <c r="E111" t="str">
-        <f>E$21</f>
+        <f t="shared" si="48"/>
         <v>Arduino Due</v>
       </c>
       <c r="F111" t="str">
-        <f>F$21</f>
+        <f t="shared" si="48"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="G111" t="str">
-        <f>G$21</f>
+        <f t="shared" si="48"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H111" t="str">
-        <f>H$21</f>
+        <f t="shared" si="48"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -8512,27 +9982,27 @@
         <v>float</v>
       </c>
       <c r="C112" s="11">
-        <f>$G$96/C106</f>
+        <f t="shared" ref="C112:H114" si="49">$G$96/C106</f>
         <v>20319.999999999996</v>
       </c>
       <c r="D112" s="11">
-        <f>$G$96/D106</f>
+        <f t="shared" si="49"/>
         <v>7143.2</v>
       </c>
       <c r="E112" s="11">
-        <f>$G$96/E106</f>
+        <f t="shared" si="49"/>
         <v>2294.88</v>
       </c>
       <c r="F112" s="11">
-        <f>$G$96/F106</f>
+        <f t="shared" si="49"/>
         <v>1848.32</v>
       </c>
       <c r="G112" s="11">
-        <f>$G$96/G106</f>
+        <f t="shared" si="49"/>
         <v>79.999999999999986</v>
       </c>
       <c r="H112" s="11">
-        <f>$G$96/H106</f>
+        <f t="shared" si="49"/>
         <v>133.77199999999999</v>
       </c>
     </row>
@@ -8542,27 +10012,27 @@
         <v>int32</v>
       </c>
       <c r="C113" s="11">
-        <f>$G$96/C107</f>
+        <f t="shared" si="49"/>
         <v>8015.9999999999991</v>
       </c>
       <c r="D113" s="11">
-        <f>$G$96/D107</f>
+        <f t="shared" si="49"/>
         <v>647.28</v>
       </c>
       <c r="E113" s="11">
-        <f>$G$96/E107</f>
+        <f t="shared" si="49"/>
         <v>393.68</v>
       </c>
       <c r="F113" s="11">
-        <f>$G$96/F107</f>
+        <f t="shared" si="49"/>
         <v>129.59999999999997</v>
       </c>
       <c r="G113" s="11">
-        <f>$G$96/G107</f>
+        <f t="shared" si="49"/>
         <v>85.6</v>
       </c>
       <c r="H113" s="11">
-        <f>$G$96/H107</f>
+        <f t="shared" si="49"/>
         <v>70.152000000000001</v>
       </c>
     </row>
@@ -8572,27 +10042,27 @@
         <v>int16</v>
       </c>
       <c r="C114" s="11">
-        <f>$G$96/C108</f>
+        <f t="shared" si="49"/>
         <v>2464</v>
       </c>
       <c r="D114" s="11">
-        <f>$G$96/D108</f>
+        <f t="shared" si="49"/>
         <v>540.39999999999986</v>
       </c>
       <c r="E114" s="11">
-        <f>$G$96/E108</f>
+        <f t="shared" si="49"/>
         <v>393.68</v>
       </c>
       <c r="F114" s="11">
-        <f>$G$96/F108</f>
+        <f t="shared" si="49"/>
         <v>129.59999999999997</v>
       </c>
       <c r="G114" s="11">
-        <f>$G$96/G108</f>
+        <f t="shared" si="49"/>
         <v>85.6</v>
       </c>
       <c r="H114" s="11">
-        <f>$G$96/H108</f>
+        <f t="shared" si="49"/>
         <v>70.152000000000001</v>
       </c>
     </row>
@@ -8644,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8691,6 +10161,15 @@
       <c r="E9" t="s">
         <v>88</v>
       </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
     </row>
@@ -8707,6 +10186,18 @@
       <c r="E10" t="s">
         <v>63</v>
       </c>
+      <c r="G10" t="str">
+        <f>C10</f>
+        <v>float</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:I10" si="0">D10</f>
+        <v>int16</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>int32</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
     </row>
@@ -8737,6 +10228,18 @@
       <c r="E13">
         <v>129</v>
       </c>
+      <c r="G13" s="11">
+        <f>1000000/C13</f>
+        <v>3215.4340836012861</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" ref="H13:I13" si="1">1000000/D13</f>
+        <v>24390.243902439026</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
+        <v>7751.937984496124</v>
+      </c>
       <c r="K13"/>
       <c r="L13"/>
     </row>
@@ -8753,6 +10256,18 @@
       <c r="E14">
         <v>254</v>
       </c>
+      <c r="G14" s="11">
+        <f t="shared" ref="G14:G16" si="2">1000000/C14</f>
+        <v>1607.7170418006431</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" ref="H14:H16" si="3">1000000/D14</f>
+        <v>12658.227848101265</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" ref="I14:I16" si="4">1000000/E14</f>
+        <v>3937.0078740157483</v>
+      </c>
       <c r="K14"/>
       <c r="L14"/>
     </row>
@@ -8769,6 +10284,18 @@
       <c r="E15">
         <v>503</v>
       </c>
+      <c r="G15" s="11">
+        <f t="shared" si="2"/>
+        <v>787.40157480314963</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
+        <v>6451.6129032258068</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="4"/>
+        <v>1988.0715705765408</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
     </row>
@@ -8784,6 +10311,18 @@
       </c>
       <c r="E16">
         <v>1002</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="2"/>
+        <v>396.51070578905632</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="3"/>
+        <v>3246.7532467532469</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="4"/>
+        <v>998.00399201596804</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>

--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -1007,11 +1007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45434368"/>
-        <c:axId val="45441024"/>
+        <c:axId val="142080640"/>
+        <c:axId val="142087296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45434368"/>
+        <c:axId val="142080640"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1036,19 +1036,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45441024"/>
+        <c:crossAx val="142087296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45441024"/>
+        <c:axId val="142087296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1074,13 +1075,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45434368"/>
+        <c:crossAx val="142080640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1451,11 +1453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46501248"/>
-        <c:axId val="46503424"/>
+        <c:axId val="143115008"/>
+        <c:axId val="143117312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46501248"/>
+        <c:axId val="143115008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46503424"/>
+        <c:crossAx val="143117312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46503424"/>
+        <c:axId val="143117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46501248"/>
+        <c:crossAx val="143115008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1879,11 +1881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83393536"/>
-        <c:axId val="151900928"/>
+        <c:axId val="142906112"/>
+        <c:axId val="142908416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83393536"/>
+        <c:axId val="142906112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151900928"/>
+        <c:crossAx val="142908416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1920,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151900928"/>
+        <c:axId val="142908416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1951,7 +1953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83393536"/>
+        <c:crossAx val="142906112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2308,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43686528"/>
-        <c:axId val="70632192"/>
+        <c:axId val="142947072"/>
+        <c:axId val="142949376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43686528"/>
+        <c:axId val="142947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,7 +2343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70632192"/>
+        <c:crossAx val="142949376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2349,7 +2351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70632192"/>
+        <c:axId val="142949376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48000"/>
@@ -2381,7 +2383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43686528"/>
+        <c:crossAx val="142947072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8000"/>
@@ -2763,11 +2765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83543936"/>
-        <c:axId val="89531136"/>
+        <c:axId val="143001088"/>
+        <c:axId val="143011840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83543936"/>
+        <c:axId val="143001088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,7 +2798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89531136"/>
+        <c:crossAx val="143011840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2804,7 +2806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89531136"/>
+        <c:axId val="143011840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2836,7 +2838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83543936"/>
+        <c:crossAx val="143001088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3014,11 +3016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46627840"/>
-        <c:axId val="46630016"/>
+        <c:axId val="141850880"/>
+        <c:axId val="141877632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46627840"/>
+        <c:axId val="141850880"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3047,13 +3049,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="46630016"/>
+        <c:crossAx val="141877632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46630016"/>
+        <c:axId val="141877632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3083,7 +3085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46627840"/>
+        <c:crossAx val="141850880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3251,11 +3253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46650880"/>
-        <c:axId val="46652800"/>
+        <c:axId val="141972224"/>
+        <c:axId val="141974144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46650880"/>
+        <c:axId val="141972224"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3284,13 +3286,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46652800"/>
+        <c:crossAx val="141974144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46652800"/>
+        <c:axId val="141974144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3320,7 +3322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46650880"/>
+        <c:crossAx val="141972224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3431,7 +3433,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -3440,7 +3442,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -3494,7 +3496,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -3503,7 +3505,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -3557,7 +3559,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -3566,7 +3568,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -3608,11 +3610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46008192"/>
-        <c:axId val="46009728"/>
+        <c:axId val="142134272"/>
+        <c:axId val="142136064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46008192"/>
+        <c:axId val="142134272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46009728"/>
+        <c:crossAx val="142136064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3629,7 +3631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46009728"/>
+        <c:axId val="142136064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3653,19 +3655,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46008192"/>
+        <c:crossAx val="142134272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3729,6 +3733,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3757,7 +3762,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -3766,7 +3771,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -3823,7 +3828,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -3832,7 +3837,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -3893,7 +3898,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -3902,7 +3907,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -3949,11 +3954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46050304"/>
-        <c:axId val="46052096"/>
+        <c:axId val="142686848"/>
+        <c:axId val="142688640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46050304"/>
+        <c:axId val="142686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,7 +3967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46052096"/>
+        <c:crossAx val="142688640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3970,7 +3975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46052096"/>
+        <c:axId val="142688640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3994,19 +3999,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46050304"/>
+        <c:crossAx val="142686848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4073,6 +4080,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4113,7 +4121,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4122,7 +4130,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4176,7 +4184,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4185,7 +4193,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4239,7 +4247,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4248,7 +4256,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4290,11 +4298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46086784"/>
-        <c:axId val="46092672"/>
+        <c:axId val="142729216"/>
+        <c:axId val="142730752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46086784"/>
+        <c:axId val="142729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,7 +4311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46092672"/>
+        <c:crossAx val="142730752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4311,7 +4319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46092672"/>
+        <c:axId val="142730752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,7 +4356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46086784"/>
+        <c:crossAx val="142729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -4356,6 +4364,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4422,6 +4431,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4460,7 +4470,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4469,7 +4479,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4526,7 +4536,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4535,7 +4545,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4592,7 +4602,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4601,7 +4611,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4648,11 +4658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46123648"/>
-        <c:axId val="45814144"/>
+        <c:axId val="142744960"/>
+        <c:axId val="142783616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46123648"/>
+        <c:axId val="142744960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,7 +4671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="45814144"/>
+        <c:crossAx val="142783616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4669,7 +4679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45814144"/>
+        <c:axId val="142783616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4712,7 +4722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46123648"/>
+        <c:crossAx val="142744960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4795,6 +4805,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4835,7 +4846,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4844,7 +4855,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4898,7 +4909,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4907,7 +4918,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -4961,7 +4972,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -4970,7 +4981,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -5012,11 +5023,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45836544"/>
-        <c:axId val="45838336"/>
+        <c:axId val="142546816"/>
+        <c:axId val="142548352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45836544"/>
+        <c:axId val="142546816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45838336"/>
+        <c:crossAx val="142548352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5033,7 +5044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45838336"/>
+        <c:axId val="142548352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5070,7 +5081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45836544"/>
+        <c:crossAx val="142546816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5201,7 +5212,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -5210,7 +5221,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -5264,7 +5275,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -5273,7 +5284,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -5327,7 +5338,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Arduino M0</c:v>
@@ -5336,7 +5347,7 @@
                   <c:v>Arduino Due</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
@@ -5378,11 +5389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45877120"/>
-        <c:axId val="45878656"/>
+        <c:axId val="142587008"/>
+        <c:axId val="142588544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45877120"/>
+        <c:axId val="142587008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +5402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45878656"/>
+        <c:crossAx val="142588544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5399,7 +5410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45878656"/>
+        <c:axId val="142588544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5437,7 +5448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45877120"/>
+        <c:crossAx val="142587008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5754,11 +5765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45920256"/>
-        <c:axId val="45922176"/>
+        <c:axId val="142623488"/>
+        <c:axId val="142625408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45920256"/>
+        <c:axId val="142623488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5780,13 +5791,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45922176"/>
+        <c:crossAx val="142625408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5794,7 +5806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45922176"/>
+        <c:axId val="142625408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5817,13 +5829,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45920256"/>
+        <c:crossAx val="142623488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6140,11 +6153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45931904"/>
-        <c:axId val="45970944"/>
+        <c:axId val="143069568"/>
+        <c:axId val="143071488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45931904"/>
+        <c:axId val="143069568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6166,13 +6179,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45970944"/>
+        <c:crossAx val="143071488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6180,7 +6194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45970944"/>
+        <c:axId val="143071488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6204,13 +6218,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45931904"/>
+        <c:crossAx val="143069568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6338,13 +6353,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590552</xdr:colOff>
+      <xdr:colOff>590553</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -7310,8 +7325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7883,9 +7898,9 @@
       <c r="S19" s="4"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="C21">
-        <f>'Arduino Uno'!L6</f>
-        <v>0</v>
+      <c r="C21" t="str">
+        <f>'Arduino Uno'!B7</f>
+        <v>Arduino Uno</v>
       </c>
       <c r="D21" s="4" t="str">
         <f>'Arduino M0 Pro'!K6</f>
@@ -7897,7 +7912,7 @@
       </c>
       <c r="F21" t="str">
         <f>'Teensy 3.2'!C18</f>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="G21" t="str">
         <f>'NXP K66'!C6</f>
@@ -7931,9 +7946,9 @@
         <f>180/96</f>
         <v>1.875</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="str">
         <f>C21</f>
-        <v>0</v>
+        <v>Arduino Uno</v>
       </c>
       <c r="T21" t="str">
         <f>D21</f>
@@ -7949,7 +7964,7 @@
       </c>
       <c r="W21" t="str">
         <f t="shared" si="5"/>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="5"/>
@@ -9170,9 +9185,9 @@
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="C58">
+      <c r="C58" t="str">
         <f t="shared" ref="C58:H58" si="39">C$21</f>
-        <v>0</v>
+        <v>Arduino Uno</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="39"/>
@@ -9184,7 +9199,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="39"/>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="39"/>
@@ -9300,9 +9315,9 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="C80">
+      <c r="C80" t="str">
         <f>C21</f>
-        <v>0</v>
+        <v>Arduino Uno</v>
       </c>
       <c r="D80" t="str">
         <f>D21</f>
@@ -9314,7 +9329,7 @@
       </c>
       <c r="F80" t="str">
         <f>F21</f>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="G80" t="str">
         <f>G21</f>
@@ -9709,9 +9724,9 @@
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="C99">
+      <c r="C99" t="str">
         <f t="shared" ref="C99:H99" si="42">C$21</f>
-        <v>0</v>
+        <v>Arduino Uno</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="42"/>
@@ -9723,7 +9738,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="42"/>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="42"/>
@@ -9830,9 +9845,9 @@
       </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="C105">
+      <c r="C105" t="str">
         <f t="shared" ref="C105:H105" si="46">C$21</f>
-        <v>0</v>
+        <v>Arduino Uno</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="46"/>
@@ -9844,7 +9859,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="46"/>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="46"/>
@@ -9951,9 +9966,9 @@
       </c>
     </row>
     <row r="111" spans="2:8">
-      <c r="C111">
+      <c r="C111" t="str">
         <f t="shared" ref="C111:H111" si="48">C$21</f>
-        <v>0</v>
+        <v>Arduino Uno</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="48"/>
@@ -9965,7 +9980,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="48"/>
-        <v>Teensy 3.1</v>
+        <v>Teensy 3.2</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="48"/>
@@ -10114,7 +10129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -11242,7 +11257,7 @@
   <dimension ref="B2:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11380,7 +11395,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="C18" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:8">

--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -16,7 +16,7 @@
     <sheet name="NXP K66" sheetId="9" r:id="rId7"/>
     <sheet name="Python" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1007,11 +1007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142080640"/>
-        <c:axId val="142087296"/>
+        <c:axId val="191803776"/>
+        <c:axId val="191806080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142080640"/>
+        <c:axId val="191803776"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1036,20 +1036,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142087296"/>
+        <c:crossAx val="191806080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142087296"/>
+        <c:axId val="191806080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1075,14 +1074,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142080640"/>
+        <c:crossAx val="191803776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1152,15 +1150,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Performance,</a:t>
+              <a:t>FIR Filtering Performance,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Naïve C</a:t>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Naive FIR</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1168,12 +1168,10 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> is Better)</a:t>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Bigger is Better)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
@@ -1184,264 +1182,191 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21079662231946025"/>
+          <c:y val="0.21795166229221347"/>
+          <c:w val="0.64403785561582649"/>
+          <c:h val="0.60956364829396326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$Y$58:$AB$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$Y$61:$AB$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10160.010160015239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21645.351229957632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:f>Comparison!$B$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>float</c:v>
+                  <c:v>int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$Y$58:$AB$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:f>Comparison!$Y$60:$AB$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>5639.9596744324917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>19795.674375415139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>44253.636380814365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>54433.105395181738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$Y$58:$AB$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
+              <c:f>Comparison!$Y$59:$AB$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>311</c:v>
+                  <c:v>3549.4260376644552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>622</c:v>
+                  <c:v>5986.5081443669142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1270</c:v>
+                  <c:v>11768.778828946262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2522</c:v>
+                  <c:v>56568.542494923808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1451,42 +1376,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="143115008"/>
-        <c:axId val="143117312"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="199108864"/>
+        <c:axId val="199127040"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="143115008"/>
+        <c:axId val="199108864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Length (samples)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143117312"/>
+        <c:crossAx val="199127040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1494,9 +1398,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143117312"/>
+        <c:axId val="199127040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1512,35 +1417,34 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Duration (microseconds)</a:t>
+                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4282560706401765E-2"/>
+              <c:y val="0.16239610673665791"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143115008"/>
+        <c:crossAx val="199108864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85346158319805399"/>
-          <c:y val="0.40029335261880306"/>
-          <c:w val="0.13112415861312135"/>
-          <c:h val="0.2337048183371167"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1607,7 +1511,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1881,11 +1784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142906112"/>
-        <c:axId val="142908416"/>
+        <c:axId val="192669952"/>
+        <c:axId val="192672512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142906112"/>
+        <c:axId val="192669952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,14 +1810,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142908416"/>
+        <c:crossAx val="192672512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1922,9 +1824,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142908416"/>
+        <c:axId val="192672512"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1946,14 +1847,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142906112"/>
+        <c:crossAx val="192669952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,7 +1909,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filters per Second,</a:t>
+              <a:t>FIR Performance,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
@@ -2026,17 +1926,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Bigger </a:t>
+              <a:t>(Smaller</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>is Better)</a:t>
+              <a:t> is Better)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2109,21 +2008,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arduino Uno'!$G$13:$G$16</c:f>
+              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3215.4340836012861</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1607.7170418006431</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>787.40157480314963</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396.51070578905632</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,7 +2034,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Arduino Uno'!$H$10</c:f>
+              <c:f>'Arduino Uno'!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2194,21 +2093,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arduino Uno'!$H$13:$H$16</c:f>
+              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24390.243902439026</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12658.227848101265</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6451.6129032258068</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3246.7532467532469</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,7 +2119,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Arduino Uno'!$I$10</c:f>
+              <c:f>'Arduino Uno'!$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2279,21 +2178,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arduino Uno'!$I$13:$I$16</c:f>
+              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7751.937984496124</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3937.0078740157483</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1988.0715705765408</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998.00399201596804</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,11 +2209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142947072"/>
-        <c:axId val="142949376"/>
+        <c:axId val="193345792"/>
+        <c:axId val="193381120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142947072"/>
+        <c:axId val="193345792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,14 +2235,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142949376"/>
+        <c:crossAx val="193381120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2351,11 +2249,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142949376"/>
+        <c:axId val="193381120"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="48000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2371,22 +2268,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>FIR Filters per Second</a:t>
+                  <a:t>Duration (microseconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142947072"/>
+        <c:crossAx val="193345792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2440,6 +2335,434 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filters per Second,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Bigger </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$G$13:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3215.4340836012861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1607.7170418006431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>787.40157480314963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396.51070578905632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$H$13:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24390.243902439026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12658.227848101265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6451.6129032258068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3246.7532467532469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$I$13:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7751.937984496124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3937.0078740157483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988.0715705765408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998.00399201596804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="193894656"/>
+        <c:axId val="193905408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="193894656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193905408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="193905408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="48000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filters per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193894656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="8000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>FIR Performance,</a:t>
             </a:r>
             <a:r>
@@ -2467,7 +2790,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2765,11 +3087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143001088"/>
-        <c:axId val="143011840"/>
+        <c:axId val="194145280"/>
+        <c:axId val="194147840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143001088"/>
+        <c:axId val="194145280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,14 +3113,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143011840"/>
+        <c:crossAx val="194147840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2806,7 +3127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143011840"/>
+        <c:axId val="194147840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2831,14 +3152,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143001088"/>
+        <c:crossAx val="194145280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2869,7 +3189,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3016,11 +3336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141850880"/>
-        <c:axId val="141877632"/>
+        <c:axId val="194457600"/>
+        <c:axId val="194459520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141850880"/>
+        <c:axId val="194457600"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3049,13 +3369,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="141877632"/>
+        <c:crossAx val="194459520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141877632"/>
+        <c:axId val="194459520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3085,7 +3405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141850880"/>
+        <c:crossAx val="194457600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3106,7 +3426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3253,11 +3573,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141972224"/>
-        <c:axId val="141974144"/>
+        <c:axId val="194476288"/>
+        <c:axId val="194498944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141972224"/>
+        <c:axId val="194476288"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3286,13 +3606,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141974144"/>
+        <c:crossAx val="194498944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141974144"/>
+        <c:axId val="194498944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3322,7 +3642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141972224"/>
+        <c:crossAx val="194476288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3610,11 +3930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142134272"/>
-        <c:axId val="142136064"/>
+        <c:axId val="191836928"/>
+        <c:axId val="191838464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142134272"/>
+        <c:axId val="191836928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +3943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142136064"/>
+        <c:crossAx val="191838464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3631,7 +3951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142136064"/>
+        <c:axId val="191838464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3662,7 +3982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142134272"/>
+        <c:crossAx val="191836928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3954,11 +4274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142686848"/>
-        <c:axId val="142688640"/>
+        <c:axId val="191861120"/>
+        <c:axId val="191862656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142686848"/>
+        <c:axId val="191861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +4287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142688640"/>
+        <c:crossAx val="191862656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3975,7 +4295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142688640"/>
+        <c:axId val="191862656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4006,7 +4326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142686848"/>
+        <c:crossAx val="191861120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4298,11 +4618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142729216"/>
-        <c:axId val="142730752"/>
+        <c:axId val="191901696"/>
+        <c:axId val="191903232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142729216"/>
+        <c:axId val="191901696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,7 +4631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142730752"/>
+        <c:crossAx val="191903232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4319,7 +4639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142730752"/>
+        <c:axId val="191903232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142729216"/>
+        <c:crossAx val="191901696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -4658,11 +4978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142744960"/>
-        <c:axId val="142783616"/>
+        <c:axId val="191921536"/>
+        <c:axId val="191927424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142744960"/>
+        <c:axId val="191921536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +4991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="142783616"/>
+        <c:crossAx val="191927424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4679,7 +4999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142783616"/>
+        <c:axId val="191927424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4722,7 +5042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142744960"/>
+        <c:crossAx val="191921536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5023,11 +5343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142546816"/>
-        <c:axId val="142548352"/>
+        <c:axId val="192162816"/>
+        <c:axId val="192168704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142546816"/>
+        <c:axId val="192162816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5036,7 +5356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142548352"/>
+        <c:crossAx val="192168704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5044,7 +5364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142548352"/>
+        <c:axId val="192168704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5081,7 +5401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142546816"/>
+        <c:crossAx val="192162816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5389,11 +5709,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142587008"/>
-        <c:axId val="142588544"/>
+        <c:axId val="192199296"/>
+        <c:axId val="192414080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142587008"/>
+        <c:axId val="192199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142588544"/>
+        <c:crossAx val="192414080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5410,7 +5730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142588544"/>
+        <c:axId val="192414080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5448,7 +5768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142587008"/>
+        <c:crossAx val="192199296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5765,11 +6085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142623488"/>
-        <c:axId val="142625408"/>
+        <c:axId val="192448768"/>
+        <c:axId val="192467328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142623488"/>
+        <c:axId val="192448768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5791,14 +6111,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142625408"/>
+        <c:crossAx val="192467328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5806,7 +6125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142625408"/>
+        <c:axId val="192467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5829,14 +6148,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142623488"/>
+        <c:crossAx val="192448768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6153,11 +6471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143069568"/>
-        <c:axId val="143071488"/>
+        <c:axId val="192555264"/>
+        <c:axId val="192557440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143069568"/>
+        <c:axId val="192555264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,14 +6497,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143071488"/>
+        <c:crossAx val="192557440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6194,7 +6511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143071488"/>
+        <c:axId val="192557440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6218,14 +6535,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143069568"/>
+        <c:crossAx val="192555264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6537,6 +6853,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171452</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7323,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X114"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="E52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB84" sqref="AB84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9173,7 +9521,7 @@
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="13" customFormat="1">
+    <row r="57" spans="2:28" s="13" customFormat="1">
       <c r="B57" s="13" t="s">
         <v>44</v>
       </c>
@@ -9184,7 +9532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:28">
       <c r="C58" t="str">
         <f t="shared" ref="C58:H58" si="39">C$21</f>
         <v>Arduino Uno</v>
@@ -9209,8 +9557,24 @@
         <f t="shared" si="39"/>
         <v>Python, PC</v>
       </c>
-    </row>
-    <row r="59" spans="2:9">
+      <c r="Y58" t="str">
+        <f>C58</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" ref="Z58" si="40">D58</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="AA58" t="str">
+        <f>F58</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AB58" t="str">
+        <f>G58</f>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
       <c r="B59" t="str">
         <f>$A$24</f>
         <v>float</v>
@@ -9242,8 +9606,28 @@
       <c r="I59" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="2:9">
+      <c r="X59" t="str">
+        <f>B59</f>
+        <v>float</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" ref="Y59:Y61" si="41">C59</f>
+        <v>3549.4260376644552</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" ref="Z59:Z61" si="42">D59</f>
+        <v>5986.5081443669142</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" ref="AA59:AA61" si="43">F59</f>
+        <v>11768.778828946262</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" ref="AB59:AB61" si="44">G59</f>
+        <v>56568.542494923808</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
       <c r="B60" t="str">
         <f>$A$28</f>
         <v>int32</v>
@@ -9275,8 +9659,28 @@
       <c r="I60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="2:9">
+      <c r="X60" t="str">
+        <f t="shared" ref="X60:X61" si="45">B60</f>
+        <v>int32</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="41"/>
+        <v>5639.9596744324917</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="42"/>
+        <v>19795.674375415139</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="43"/>
+        <v>44253.636380814365</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="44"/>
+        <v>54433.105395181738</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
       <c r="B61" t="str">
         <f>$A$32</f>
         <v>int16</v>
@@ -9307,6 +9711,26 @@
       </c>
       <c r="I61" t="s">
         <v>45</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="45"/>
+        <v>int16</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="41"/>
+        <v>10160.010160015239</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="42"/>
+        <v>21645.351229957632</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="43"/>
+        <v>44253.636380814365</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="44"/>
+        <v>54433.105395181738</v>
       </c>
     </row>
     <row r="79" spans="2:7" s="12" customFormat="1">
@@ -9352,7 +9776,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="str">
-        <f t="shared" ref="B82:B94" si="40">B23</f>
+        <f t="shared" ref="B82:B94" si="46">B23</f>
         <v>N_FIR</v>
       </c>
       <c r="C82" t="s">
@@ -9377,108 +9801,108 @@
         <v>float</v>
       </c>
       <c r="B83">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="C83" s="11">
-        <f t="shared" ref="C83:G94" si="41">1000000/C24</f>
+        <f t="shared" ref="C83:G94" si="47">1000000/C24</f>
         <v>3215.4340836012861</v>
       </c>
       <c r="D83" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>8708.52564660803</v>
       </c>
       <c r="E83" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>28019.052956010088</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>34199.726402188782</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>769230.76923076925</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8">
       <c r="B84">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>32</v>
       </c>
       <c r="C84" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1607.7170418006431</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>4415.5958846646354</v>
       </c>
       <c r="E84" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>13958.682300390843</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>17226.528854435834</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>370370.37037037034</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8">
       <c r="B85">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>64</v>
       </c>
       <c r="C85" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>787.40157480314963</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2239.8924851607126</v>
       </c>
       <c r="E85" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>6972.0421111343512</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>8656.5096952908589</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>200000</v>
       </c>
       <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8">
       <c r="B86">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>128</v>
       </c>
       <c r="C86" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>396.51070578905632</v>
       </c>
       <c r="D86" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1120.1469632815824</v>
       </c>
       <c r="E86" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>3485.1705991008257</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>4338.5830187860647</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="H86" s="11"/>
@@ -9489,108 +9913,108 @@
         <v>int32</v>
       </c>
       <c r="B87">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="C87" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>7751.937984496124</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>92850.510677808736</v>
       </c>
       <c r="E87" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>154083.20493066256</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>462962.96296296292</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>714285.71428571432</v>
       </c>
       <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8">
       <c r="B88">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>32</v>
       </c>
       <c r="C88" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>3937.0078740157483</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>48100.048100048101</v>
       </c>
       <c r="E88" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>79365.079365079364</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>240384.61538461538</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>357142.85714285716</v>
       </c>
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8">
       <c r="B89">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>64</v>
       </c>
       <c r="C89" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1988.0715705765408</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>24491.795248591723</v>
       </c>
       <c r="E89" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>40322.580645161288</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>122399.02080783354</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>185185.18518518517</v>
       </c>
       <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8">
       <c r="B90">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>128</v>
       </c>
       <c r="C90" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>998.00399201596804</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>12359.411692003461</v>
       </c>
       <c r="E90" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>20321.072952651899</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>61728.395061728399</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>93457.943925233645</v>
       </c>
       <c r="H90" s="11"/>
@@ -9601,108 +10025,108 @@
         <v>int16</v>
       </c>
       <c r="B91">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="C91" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>24390.243902439026</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>109769.48408342482</v>
       </c>
       <c r="E91" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>154083.20493066256</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>462962.96296296292</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>714285.71428571432</v>
       </c>
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8">
       <c r="B92">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>32</v>
       </c>
       <c r="C92" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>12658.227848101265</v>
       </c>
       <c r="D92" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>57273.768613974797</v>
       </c>
       <c r="E92" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>79365.079365079364</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>240384.61538461538</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>357142.85714285716</v>
       </c>
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8">
       <c r="B93">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>64</v>
       </c>
       <c r="C93" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>6451.6129032258068</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>29282.576866764277</v>
       </c>
       <c r="E93" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>40322.580645161288</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>122399.02080783354</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>185185.18518518517</v>
       </c>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8">
       <c r="B94">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>128</v>
       </c>
       <c r="C94" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>3246.7532467532469</v>
       </c>
       <c r="D94" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>14803.849000740192</v>
       </c>
       <c r="E94" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>20321.072952651899</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>61728.395061728399</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>93457.943925233645</v>
       </c>
       <c r="H94" s="11"/>
@@ -9725,27 +10149,27 @@
     </row>
     <row r="99" spans="2:8">
       <c r="C99" t="str">
-        <f t="shared" ref="C99:H99" si="42">C$21</f>
+        <f t="shared" ref="C99:H99" si="48">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>Arduino M0</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>Arduino Due</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -9759,7 +10183,7 @@
         <v>1.9843749999999998E-5</v>
       </c>
       <c r="D100">
-        <f t="shared" ref="D100" si="43">D26*0.000001/$B26</f>
+        <f t="shared" ref="D100" si="49">D26*0.000001/$B26</f>
         <v>6.9757812499999997E-6</v>
       </c>
       <c r="E100">
@@ -9789,7 +10213,7 @@
         <v>7.8281249999999988E-6</v>
       </c>
       <c r="D101">
-        <f t="shared" ref="D101" si="44">D31*0.000001/$B31</f>
+        <f t="shared" ref="D101" si="50">D31*0.000001/$B31</f>
         <v>6.3210937499999997E-7</v>
       </c>
       <c r="E101">
@@ -9819,7 +10243,7 @@
         <v>2.40625E-6</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102" si="45">D35*0.000001/$B35</f>
+        <f t="shared" ref="D102" si="51">D35*0.000001/$B35</f>
         <v>5.2773437499999991E-7</v>
       </c>
       <c r="E102">
@@ -9846,27 +10270,27 @@
     </row>
     <row r="105" spans="2:8">
       <c r="C105" t="str">
-        <f t="shared" ref="C105:H105" si="46">C$21</f>
+        <f t="shared" ref="C105:H105" si="52">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>Arduino M0</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>Arduino Due</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -9876,27 +10300,27 @@
         <v>float</v>
       </c>
       <c r="C106" s="10">
-        <f t="shared" ref="C106:H108" si="47">(1/$G$96)/C100</f>
+        <f t="shared" ref="C106:H108" si="53">(1/$G$96)/C100</f>
         <v>1.5748031496062995</v>
       </c>
       <c r="D106" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.4797849703214245</v>
       </c>
       <c r="E106" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>13.944084222268703</v>
       </c>
       <c r="F106" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>17.313019390581719</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>400.00000000000006</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>239.21298926531713</v>
       </c>
     </row>
@@ -9906,27 +10330,27 @@
         <v>int32</v>
       </c>
       <c r="C107" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>3.9920159680638729</v>
       </c>
       <c r="D107" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>49.437646768013849</v>
       </c>
       <c r="E107" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>81.284291810607598</v>
       </c>
       <c r="F107" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>246.91358024691363</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>373.8317757009346</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>456.15235488653212</v>
       </c>
     </row>
@@ -9936,27 +10360,27 @@
         <v>int16</v>
       </c>
       <c r="C108" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>12.987012987012987</v>
       </c>
       <c r="D108" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>59.21539600296078</v>
       </c>
       <c r="E108" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>81.284291810607598</v>
       </c>
       <c r="F108" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>246.91358024691363</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>373.8317757009346</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>456.15235488653212</v>
       </c>
     </row>
@@ -9967,27 +10391,27 @@
     </row>
     <row r="111" spans="2:8">
       <c r="C111" t="str">
-        <f t="shared" ref="C111:H111" si="48">C$21</f>
+        <f t="shared" ref="C111:H111" si="54">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>Arduino M0</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>Arduino Due</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>Python, PC</v>
       </c>
     </row>
@@ -9997,27 +10421,27 @@
         <v>float</v>
       </c>
       <c r="C112" s="11">
-        <f t="shared" ref="C112:H114" si="49">$G$96/C106</f>
+        <f t="shared" ref="C112:H114" si="55">$G$96/C106</f>
         <v>20319.999999999996</v>
       </c>
       <c r="D112" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>7143.2</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2294.88</v>
       </c>
       <c r="F112" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>1848.32</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>79.999999999999986</v>
       </c>
       <c r="H112" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>133.77199999999999</v>
       </c>
     </row>
@@ -10027,27 +10451,27 @@
         <v>int32</v>
       </c>
       <c r="C113" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>8015.9999999999991</v>
       </c>
       <c r="D113" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>647.28</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>393.68</v>
       </c>
       <c r="F113" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>129.59999999999997</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>85.6</v>
       </c>
       <c r="H113" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>70.152000000000001</v>
       </c>
     </row>
@@ -10057,27 +10481,27 @@
         <v>int16</v>
       </c>
       <c r="C114" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2464</v>
       </c>
       <c r="D114" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>540.39999999999986</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>393.68</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>129.59999999999997</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>85.6</v>
       </c>
       <c r="H114" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>70.152000000000001</v>
       </c>
     </row>

--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>Float</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Python, PC</t>
   </si>
   <si>
-    <t>Uno/PC</t>
-  </si>
-  <si>
     <t>i5, M540, 2.53 GHz</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   <si>
     <t>usec/FIR</t>
   </si>
+  <si>
+    <t>Uno/Maple</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +391,182 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -714,11 +889,100 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Comparison!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparison!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>610.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1220.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -783,7 +1047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$E$5:$E$10</c:f>
+              <c:f>Comparison!$F$5:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -812,10 +1076,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$F$1</c:f>
+              <c:f>Comparison!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -875,7 +1139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$F$5:$F$10</c:f>
+              <c:f>Comparison!$G$5:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -904,10 +1168,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$G$1</c:f>
+              <c:f>Comparison!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -972,7 +1236,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$G$5:$G$10</c:f>
+              <c:f>Comparison!$H$5:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1007,11 +1271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191803776"/>
-        <c:axId val="191806080"/>
+        <c:axId val="143625600"/>
+        <c:axId val="143628160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191803776"/>
+        <c:axId val="143625600"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1036,19 +1300,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191806080"/>
+        <c:crossAx val="143628160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191806080"/>
+        <c:axId val="143628160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1074,13 +1339,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191803776"/>
+        <c:crossAx val="143625600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1095,8 +1361,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.71284895813064553"/>
           <c:y val="0.24340369081892446"/>
-          <c:w val="0.21322160743420587"/>
-          <c:h val="0.49900641650022681"/>
+          <c:w val="0.1887206313743654"/>
+          <c:h val="0.46440861222539109"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1214,7 +1480,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$Y$58:$AB$58</c:f>
+              <c:f>Comparison!$AA$58:$AD$58</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1234,7 +1500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$Y$61:$AB$61</c:f>
+              <c:f>Comparison!$AA$61:$AD$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1271,7 +1537,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$Y$58:$AB$58</c:f>
+              <c:f>Comparison!$AA$58:$AD$58</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1291,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$Y$60:$AB$60</c:f>
+              <c:f>Comparison!$AA$60:$AD$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1328,7 +1594,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$Y$58:$AB$58</c:f>
+              <c:f>Comparison!$AA$58:$AD$58</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1348,7 +1614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$Y$59:$AB$59</c:f>
+              <c:f>Comparison!$AA$59:$AD$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1377,11 +1643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199108864"/>
-        <c:axId val="199127040"/>
+        <c:axId val="143799424"/>
+        <c:axId val="143800960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199108864"/>
+        <c:axId val="143799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199127040"/>
+        <c:crossAx val="143800960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1398,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199127040"/>
+        <c:axId val="143800960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -1436,7 +1702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199108864"/>
+        <c:crossAx val="143799424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -1784,11 +2050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192669952"/>
-        <c:axId val="192672512"/>
+        <c:axId val="143963648"/>
+        <c:axId val="143978496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192669952"/>
+        <c:axId val="143963648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +2082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192672512"/>
+        <c:crossAx val="143978496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1824,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192672512"/>
+        <c:axId val="143978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192669952"/>
+        <c:crossAx val="143963648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2209,11 +2475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193345792"/>
-        <c:axId val="193381120"/>
+        <c:axId val="143877632"/>
+        <c:axId val="143884288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193345792"/>
+        <c:axId val="143877632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193381120"/>
+        <c:crossAx val="143884288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2249,7 +2515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193381120"/>
+        <c:axId val="143884288"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2279,7 +2545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193345792"/>
+        <c:crossAx val="143877632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2635,11 +2901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193894656"/>
-        <c:axId val="193905408"/>
+        <c:axId val="144057856"/>
+        <c:axId val="144068608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193894656"/>
+        <c:axId val="144057856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193905408"/>
+        <c:crossAx val="144068608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2675,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193905408"/>
+        <c:axId val="144068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48000"/>
@@ -2706,7 +2972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193894656"/>
+        <c:crossAx val="144057856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8000"/>
@@ -3087,11 +3353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194145280"/>
-        <c:axId val="194147840"/>
+        <c:axId val="144095488"/>
+        <c:axId val="144102144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194145280"/>
+        <c:axId val="144095488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194147840"/>
+        <c:crossAx val="144102144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3127,7 +3393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194147840"/>
+        <c:axId val="144102144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3158,7 +3424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194145280"/>
+        <c:crossAx val="144095488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,11 +3602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194457600"/>
-        <c:axId val="194459520"/>
+        <c:axId val="142965760"/>
+        <c:axId val="142992512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194457600"/>
+        <c:axId val="142965760"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3369,13 +3635,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="194459520"/>
+        <c:crossAx val="142992512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194459520"/>
+        <c:axId val="142992512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3405,7 +3671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194457600"/>
+        <c:crossAx val="142965760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3573,11 +3839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194476288"/>
-        <c:axId val="194498944"/>
+        <c:axId val="142517760"/>
+        <c:axId val="142519680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194476288"/>
+        <c:axId val="142517760"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3606,13 +3872,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194498944"/>
+        <c:crossAx val="142519680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194498944"/>
+        <c:axId val="142519680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3642,7 +3908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194476288"/>
+        <c:crossAx val="142517760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3749,9 +4015,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$21:$G$21</c:f>
+              <c:f>Comparison!$C$21:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -3759,12 +4025,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -3772,23 +4041,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$34:$G$34</c:f>
+              <c:f>Comparison!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34.15</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>24.8</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4" formatCode="General">
                   <c:v>8.17</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3812,9 +4084,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$21:$G$21</c:f>
+              <c:f>Comparison!$C$21:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -3822,12 +4094,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -3835,23 +4110,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$30:$G$30</c:f>
+              <c:f>Comparison!$C$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40.83</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>20.91</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>24.8</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4" formatCode="General">
                   <c:v>8.17</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3875,9 +4153,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$21:$G$21</c:f>
+              <c:f>Comparison!$C$21:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -3885,12 +4163,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -3898,23 +4179,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$26:$G$26</c:f>
+              <c:f>Comparison!$C$26:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>446.45</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>153.84</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>143.43</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4" formatCode="General">
                   <c:v>115.52</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3930,11 +4214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="191836928"/>
-        <c:axId val="191838464"/>
+        <c:axId val="143327232"/>
+        <c:axId val="143328768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191836928"/>
+        <c:axId val="143327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3943,7 +4227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191838464"/>
+        <c:crossAx val="143328768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3951,7 +4235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191838464"/>
+        <c:axId val="143328768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3982,7 +4266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191836928"/>
+        <c:crossAx val="143327232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4078,9 +4362,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$21:$H$21</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -4088,15 +4372,18 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4104,23 +4391,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$34:$G$34</c:f>
+              <c:f>Comparison!$C$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34.15</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>24.8</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4" formatCode="General">
                   <c:v>8.17</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -4144,9 +4434,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$21:$H$21</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -4154,15 +4444,18 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4170,23 +4463,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$30:$G$30</c:f>
+              <c:f>Comparison!$C$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40.83</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>20.91</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>24.8</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4" formatCode="General">
                   <c:v>8.17</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -4214,9 +4510,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$21:$H$21</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -4224,15 +4520,18 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4240,23 +4539,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$26:$G$26</c:f>
+              <c:f>Comparison!$C$26:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>446.45</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
+                  <c:v>153.84</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>143.43</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="4" formatCode="General">
                   <c:v>115.52</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4274,11 +4576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191861120"/>
-        <c:axId val="191862656"/>
+        <c:axId val="143363456"/>
+        <c:axId val="143369344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191861120"/>
+        <c:axId val="143363456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,7 +4589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191862656"/>
+        <c:crossAx val="143369344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4295,7 +4597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191862656"/>
+        <c:axId val="143369344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4326,7 +4628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191861120"/>
+        <c:crossAx val="143363456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4437,9 +4739,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$G$58</c:f>
+              <c:f>Comparison!$C$58:$H$58</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -4447,12 +4749,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -4460,10 +4765,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$61:$G$61</c:f>
+              <c:f>Comparison!$C$61:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10160.010160015239</c:v>
                 </c:pt>
@@ -4471,12 +4776,15 @@
                   <c:v>21645.351229957632</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>25565.499628245681</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>25400.025400038103</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44253.636380814365</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>54433.105395181738</c:v>
                 </c:pt>
               </c:numCache>
@@ -4500,9 +4808,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$G$58</c:f>
+              <c:f>Comparison!$C$58:$H$58</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -4510,12 +4818,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -4523,10 +4834,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$60:$G$60</c:f>
+              <c:f>Comparison!$C$60:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5639.9596744324917</c:v>
                 </c:pt>
@@ -4534,12 +4845,15 @@
                   <c:v>19795.674375415139</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>27661.961651868794</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>25400.025400038103</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44253.636380814365</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>54433.105395181738</c:v>
                 </c:pt>
               </c:numCache>
@@ -4563,9 +4877,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$G$58</c:f>
+              <c:f>Comparison!$C$58:$H$58</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -4573,12 +4887,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -4586,10 +4903,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$59:$G$59</c:f>
+              <c:f>Comparison!$C$59:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3549.4260376644552</c:v>
                 </c:pt>
@@ -4597,12 +4914,15 @@
                   <c:v>5986.5081443669142</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10198.24299408514</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10561.849922156138</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>11768.778828946262</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>56568.542494923808</c:v>
                 </c:pt>
               </c:numCache>
@@ -4618,11 +4938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="191901696"/>
-        <c:axId val="191903232"/>
+        <c:axId val="143404032"/>
+        <c:axId val="143414016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191901696"/>
+        <c:axId val="143404032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,7 +4951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191903232"/>
+        <c:crossAx val="143414016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4639,7 +4959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191903232"/>
+        <c:axId val="143414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,7 +4996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191901696"/>
+        <c:crossAx val="143404032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -4786,7 +5106,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$58:$D$58,Comparison!$E$58:$I$58)</c:f>
+              <c:f>(Comparison!$C$58:$D$58,Comparison!$F$58:$J$58)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4812,7 +5132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$J$39:$K$39,Comparison!$L$39:$N$39)</c:f>
+              <c:f>(Comparison!$K$39:$L$39,Comparison!$N$39:$P$39)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4852,7 +5172,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$58:$D$58,Comparison!$E$58:$I$58)</c:f>
+              <c:f>(Comparison!$C$58:$D$58,Comparison!$F$58:$J$58)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4878,7 +5198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$J$38:$K$38,Comparison!$L$38:$N$38)</c:f>
+              <c:f>(Comparison!$K$38:$L$38,Comparison!$N$38:$P$38)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4918,7 +5238,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$58:$D$58,Comparison!$E$58:$I$58)</c:f>
+              <c:f>(Comparison!$C$58:$D$58,Comparison!$F$58:$J$58)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4944,7 +5264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$J$37:$K$37,Comparison!$L$37:$N$37)</c:f>
+              <c:f>(Comparison!$K$37:$L$37,Comparison!$N$37:$P$37)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4978,11 +5298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191921536"/>
-        <c:axId val="191927424"/>
+        <c:axId val="143428224"/>
+        <c:axId val="143524224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191921536"/>
+        <c:axId val="143428224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,7 +5311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="191927424"/>
+        <c:crossAx val="143524224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4999,7 +5319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191927424"/>
+        <c:axId val="143524224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5042,7 +5362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191921536"/>
+        <c:crossAx val="143428224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5162,9 +5482,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$80:$G$80</c:f>
+              <c:f>Comparison!$C$80:$H$80</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5172,12 +5492,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5185,10 +5508,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$94:$G$94</c:f>
+              <c:f>Comparison!$C$94:$H$94</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3246.7532467532469</c:v>
                 </c:pt>
@@ -5196,12 +5519,15 @@
                   <c:v>14803.849000740192</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20605.8108386565</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20321.072952651899</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>61728.395061728399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>93457.943925233645</c:v>
                 </c:pt>
               </c:numCache>
@@ -5225,9 +5551,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$80:$G$80</c:f>
+              <c:f>Comparison!$C$80:$H$80</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5235,12 +5561,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5248,10 +5577,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$90:$G$90</c:f>
+              <c:f>Comparison!$C$90:$H$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>998.00399201596804</c:v>
                 </c:pt>
@@ -5259,12 +5588,15 @@
                   <c:v>12359.411692003461</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>24160.425223483933</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20321.072952651899</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>61728.395061728399</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>93457.943925233645</c:v>
                 </c:pt>
               </c:numCache>
@@ -5288,9 +5620,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$80:$G$80</c:f>
+              <c:f>Comparison!$C$80:$H$80</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5298,12 +5630,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5311,10 +5646,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$86:$G$86</c:f>
+              <c:f>Comparison!$C$86:$H$86</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>396.51070578905632</c:v>
                 </c:pt>
@@ -5322,12 +5657,15 @@
                   <c:v>1120.1469632815824</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3265.7326671238693</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3485.1705991008257</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4338.5830187860647</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -5343,11 +5681,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192162816"/>
-        <c:axId val="192168704"/>
+        <c:axId val="143558912"/>
+        <c:axId val="143560704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192162816"/>
+        <c:axId val="143558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5356,7 +5694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192168704"/>
+        <c:crossAx val="143560704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5364,7 +5702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192168704"/>
+        <c:axId val="143560704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5401,7 +5739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192162816"/>
+        <c:crossAx val="143558912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5528,9 +5866,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$111:$G$111</c:f>
+              <c:f>Comparison!$C$111:$H$111</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5538,12 +5876,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5551,10 +5892,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$114:$G$114</c:f>
+              <c:f>Comparison!$C$114:$H$114</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2464</c:v>
                 </c:pt>
@@ -5562,12 +5903,15 @@
                   <c:v>540.39999999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>388.23999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>393.68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>129.59999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>85.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5591,9 +5935,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$111:$G$111</c:f>
+              <c:f>Comparison!$C$111:$H$111</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5601,12 +5945,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5614,10 +5961,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$113:$G$113</c:f>
+              <c:f>Comparison!$C$113:$H$113</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8015.9999999999991</c:v>
                 </c:pt>
@@ -5625,12 +5972,15 @@
                   <c:v>647.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>331.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>393.68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>129.59999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>85.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -5654,9 +6004,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$111:$G$111</c:f>
+              <c:f>Comparison!$C$111:$H$111</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5664,12 +6014,15 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Arduino Due</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5677,10 +6030,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$112:$G$112</c:f>
+              <c:f>Comparison!$C$112:$H$112</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20319.999999999996</c:v>
                 </c:pt>
@@ -5688,12 +6041,15 @@
                   <c:v>7143.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2461.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2294.88</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1848.32</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>79.999999999999986</c:v>
                 </c:pt>
               </c:numCache>
@@ -5709,11 +6065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192199296"/>
-        <c:axId val="192414080"/>
+        <c:axId val="143992704"/>
+        <c:axId val="143994240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192199296"/>
+        <c:axId val="143992704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +6078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192414080"/>
+        <c:crossAx val="143994240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5730,7 +6086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192414080"/>
+        <c:axId val="143994240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5768,7 +6124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192199296"/>
+        <c:crossAx val="143992704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6085,11 +6441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192448768"/>
-        <c:axId val="192467328"/>
+        <c:axId val="143660928"/>
+        <c:axId val="143662464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192448768"/>
+        <c:axId val="143660928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6111,13 +6467,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192467328"/>
+        <c:crossAx val="143662464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6125,7 +6482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192467328"/>
+        <c:axId val="143662464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,13 +6505,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192448768"/>
+        <c:crossAx val="143660928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6471,11 +6829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192555264"/>
-        <c:axId val="192557440"/>
+        <c:axId val="143692928"/>
+        <c:axId val="143694848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192555264"/>
+        <c:axId val="143692928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,13 +6855,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192557440"/>
+        <c:crossAx val="143694848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6511,7 +6870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192557440"/>
+        <c:axId val="143694848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6535,13 +6894,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192555264"/>
+        <c:crossAx val="143692928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6576,13 +6936,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6612,7 +6972,7 @@
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
@@ -6636,14 +6996,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -6674,7 +7034,7 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6700,13 +7060,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -6732,14 +7092,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -6764,14 +7124,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6796,16 +7156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6828,13 +7188,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
@@ -6860,13 +7220,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>476252</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>171452</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -7671,27 +8031,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AD114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB84" sqref="AB84"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
+    <col min="6" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="17" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="19" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:17">
       <c r="C1" t="str">
         <f>'Arduino Uno'!B7</f>
         <v>Arduino Uno</v>
@@ -7701,20 +8061,24 @@
         <v>Arduino M0</v>
       </c>
       <c r="E1" t="str">
+        <f>Maple!B1</f>
+        <v>Maple</v>
+      </c>
+      <c r="F1" t="str">
         <f>'Arduino Due'!C6</f>
         <v>Arduino Due</v>
       </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:17">
       <c r="C2" t="str">
         <f>'Arduino Uno'!$C$10</f>
         <v>float</v>
@@ -7724,30 +8088,35 @@
         <v>Float</v>
       </c>
       <c r="E2" t="str">
+        <f>Maple!D8</f>
+        <v>float</v>
+      </c>
+      <c r="F2" t="str">
         <f>'Arduino Due'!D8</f>
         <v>float</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="J3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="15"/>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="K3" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -7769,26 +8138,39 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="str">
+        <f>C1</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:Q4" si="0">D1</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>Maple</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arduino Due</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>NXP K66</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>Python, PC</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5">
         <f>'Arduino M0 Pro'!B12</f>
         <v>16</v>
@@ -7802,47 +8184,55 @@
         <v>114.83</v>
       </c>
       <c r="E5">
+        <f>Maple!D11</f>
+        <v>39.39</v>
+      </c>
+      <c r="F5">
         <f>'Arduino Due'!D11</f>
         <v>35.69</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f>'Teensy 3.2'!C7</f>
         <v>29.24</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <f>'NXP K66'!C11</f>
         <v>1.3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <f>Python!D11</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J5">
-        <f>C5/C5</f>
+      <c r="K5" s="4">
+        <f>$C5/C5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="10">
-        <f>C5/D5</f>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:Q8" si="1">$C5/D5</f>
         <v>2.7083514760950971</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:M8" si="0">$C5/E5</f>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8954049251078953</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
         <v>8.7139254693191379</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
         <v>10.636114911080712</v>
       </c>
-      <c r="N5" s="4">
-        <f>C5/G5</f>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
         <v>239.23076923076923</v>
       </c>
-      <c r="O5" s="4">
-        <f>$C5/H5</f>
+      <c r="Q5" s="4">
+        <f t="shared" si="1"/>
         <v>56.499227904441817</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:17">
       <c r="B6">
         <f>'Arduino M0 Pro'!B13</f>
         <v>32</v>
@@ -7856,47 +8246,55 @@
         <v>226.47</v>
       </c>
       <c r="E6">
+        <f>Maple!D12</f>
+        <v>77.59</v>
+      </c>
+      <c r="F6">
         <f>'Arduino Due'!D12</f>
         <v>71.64</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>'Teensy 3.2'!C8</f>
         <v>58.05</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <f>'NXP K66'!C12</f>
         <v>2.7</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <f>Python!D12</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J6">
-        <f>C6/C6</f>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:L8" si="2">$C6/C6</f>
         <v>1</v>
       </c>
-      <c r="K6" s="10">
-        <f>C6/D6</f>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
         <v>2.7465006402614032</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="0"/>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0164969712591834</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
         <v>8.6823003908431051</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="0"/>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
         <v>10.714900947459087</v>
       </c>
-      <c r="N6" s="4">
-        <f t="shared" ref="N6:N8" si="1">C6/G6</f>
+      <c r="P6" s="4">
+        <f t="shared" si="1"/>
         <v>230.37037037037035</v>
       </c>
-      <c r="O6" s="4">
-        <f>$C6/H6</f>
+      <c r="Q6" s="4">
+        <f t="shared" si="1"/>
         <v>109.26178033463616</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:17">
       <c r="B7">
         <f>'Arduino M0 Pro'!B14</f>
         <v>64</v>
@@ -7910,47 +8308,55 @@
         <v>446.45</v>
       </c>
       <c r="E7">
+        <f>Maple!D13</f>
+        <v>153.84</v>
+      </c>
+      <c r="F7">
         <f>'Arduino Due'!D13</f>
         <v>143.43</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>'Teensy 3.2'!C9</f>
         <v>115.52</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <f>'NXP K66'!C13</f>
         <v>5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <f>Python!D13</f>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J7">
-        <f>C7/C7</f>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="10">
-        <f>C7/D7</f>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
         <v>2.8446634561541049</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="0"/>
-        <v>8.8544934811406257</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>10.993767313019392</v>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>8.2553302132085289</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
+        <v>8.8544934811406257</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>10.993767313019392</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="O7" s="4">
-        <f>$C7/H7</f>
+      <c r="Q7" s="4">
+        <f t="shared" si="1"/>
         <v>151.90024818347638</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:17">
       <c r="B8">
         <f>'Arduino M0 Pro'!B15</f>
         <v>128</v>
@@ -7964,47 +8370,55 @@
         <v>892.74</v>
       </c>
       <c r="E8">
+        <f>Maple!D14</f>
+        <v>306.20999999999998</v>
+      </c>
+      <c r="F8">
         <f>'Arduino Due'!D14</f>
         <v>286.93</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>'Teensy 3.2'!C10</f>
         <v>230.49</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f>'NXP K66'!C14</f>
         <v>10</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <f>Python!D14</f>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J8">
-        <f>C8/C8</f>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="10">
-        <f>C8/D8</f>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
         <v>2.8250106413961511</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="0"/>
-        <v>8.789600250932283</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="0"/>
-        <v>10.941906373378455</v>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>8.2361777864863992</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="1"/>
+        <v>8.789600250932283</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>10.941906373378455</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="1"/>
         <v>252.2</v>
       </c>
-      <c r="O8" s="4">
-        <f>$C8/H8</f>
+      <c r="Q8" s="4">
+        <f t="shared" si="1"/>
         <v>287.60405975595847</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:17">
       <c r="B9">
         <f>'Arduino M0 Pro'!B16</f>
         <v>256</v>
@@ -8014,28 +8428,33 @@
         <v>1783.68</v>
       </c>
       <c r="E9">
+        <f>Maple!D15</f>
+        <v>610.84</v>
+      </c>
+      <c r="F9">
         <f>'Arduino Due'!D15</f>
         <v>573.83000000000004</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f>'Teensy 3.2'!C11</f>
         <v>460.29</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <f>'NXP K66'!C15</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <f>Python!D15</f>
         <v>10.97575</v>
       </c>
-      <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10">
         <f>'Arduino M0 Pro'!B17</f>
         <v>512</v>
@@ -8045,69 +8464,74 @@
         <v>3567.42</v>
       </c>
       <c r="E10">
+        <f>Maple!D16</f>
+        <v>1220.43</v>
+      </c>
+      <c r="F10">
         <f>'Arduino Due'!D16</f>
         <v>1147.53</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f>'Teensy 3.2'!C12</f>
         <v>919.99</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f>'NXP K66'!C16</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <f>Python!D16</f>
         <v>18.0565</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="G11" s="10"/>
+    <row r="11" spans="2:17">
       <c r="H11" s="10"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
         <v>77</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>78</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>80</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+    </row>
+    <row r="15" spans="2:17">
       <c r="C15">
         <v>6000</v>
       </c>
@@ -8115,106 +8539,120 @@
         <f>1/C15*1000000</f>
         <v>166.66666666666666</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15">
+      <c r="E15" s="4"/>
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
         <v>16</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>48</v>
       </c>
-      <c r="L15">
+      <c r="M15">
+        <v>72</v>
+      </c>
+      <c r="N15">
         <v>84</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>96</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>180</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>2530</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:17">
       <c r="C16">
         <v>8000</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:D19" si="2">1/C16*1000000</f>
+        <f t="shared" ref="D16:D19" si="3">1/C16*1000000</f>
         <v>125</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16:O16" si="3">J15/$J15</f>
+      <c r="E16" s="4"/>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:Q16" si="4">K15/$K15</f>
         <v>1</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" si="3"/>
+      <c r="L16" s="4">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L16" s="4">
-        <f t="shared" si="3"/>
+      <c r="M16" s="4">
+        <f t="shared" ref="M16" si="5">M15/$K15</f>
+        <v>4.5</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="3"/>
+      <c r="O16" s="4">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N16" s="4">
-        <f t="shared" si="3"/>
+      <c r="P16" s="4">
+        <f t="shared" si="4"/>
         <v>11.25</v>
       </c>
-      <c r="O16" s="4">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="4"/>
         <v>158.125</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="C17">
         <v>11025</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.702947845804985</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="14">
-        <f>J8/J16</f>
+      <c r="E17" s="4"/>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="14">
+        <f>K8/K16</f>
         <v>1</v>
       </c>
-      <c r="K17" s="14">
-        <f t="shared" ref="K17:O17" si="4">K8/K16</f>
+      <c r="L17" s="14">
+        <f t="shared" ref="L17:Q17" si="6">L8/L16</f>
         <v>0.94167021379871707</v>
       </c>
-      <c r="L17" s="14">
-        <f t="shared" si="4"/>
+      <c r="M17" s="14">
+        <f t="shared" ref="M17" si="7">M8/M16</f>
+        <v>1.830261730330311</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="6"/>
         <v>1.6742095716061491</v>
       </c>
-      <c r="M17" s="14">
-        <f t="shared" si="4"/>
+      <c r="O17" s="14">
+        <f t="shared" si="6"/>
         <v>1.8236510622297424</v>
       </c>
-      <c r="N17" s="14">
-        <f t="shared" si="4"/>
+      <c r="P17" s="14">
+        <f t="shared" si="6"/>
         <v>22.417777777777776</v>
       </c>
-      <c r="O17" s="14">
-        <f t="shared" si="4"/>
+      <c r="Q17" s="14">
+        <f t="shared" si="6"/>
         <v>1.8188399035949943</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="C18">
         <v>22050</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.351473922902493</v>
       </c>
       <c r="E18" s="4"/>
@@ -8222,17 +8660,18 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="C19">
         <v>44100</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.675736961451246</v>
       </c>
       <c r="E19" s="4"/>
@@ -8240,12 +8679,13 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="C21" t="str">
         <f>'Arduino Uno'!B7</f>
         <v>Arduino Uno</v>
@@ -8254,94 +8694,92 @@
         <f>'Arduino M0 Pro'!K6</f>
         <v>Arduino M0</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="4" t="str">
+        <f>Maple!C6</f>
+        <v>Maple</v>
+      </c>
+      <c r="F21" t="str">
         <f>'Arduino Due'!C6</f>
         <v>Arduino Due</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f>'Teensy 3.2'!C18</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f>'NXP K66'!C6</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H21" t="str">
-        <f>H1</f>
+      <c r="I21" t="str">
+        <f>I1</f>
         <v>Python, PC</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f>48/16</f>
         <v>3</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <f>84/16</f>
         <v>5.25</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <f>96/16</f>
         <v>6</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <f>180/16</f>
         <v>11.25</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <f>2530/16</f>
         <v>158.125</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <f>180/96</f>
         <v>1.875</v>
       </c>
-      <c r="S21" t="str">
+      <c r="U21" t="str">
         <f>C21</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="T21" t="str">
+      <c r="V21" t="str">
         <f>D21</f>
         <v>Arduino M0</v>
       </c>
-      <c r="U21" t="e">
+      <c r="W21" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V21" t="str">
-        <f t="shared" ref="V21:X21" si="5">E21</f>
+      <c r="X21" t="str">
+        <f t="shared" ref="X21:Z21" si="8">F21</f>
         <v>Arduino Due</v>
       </c>
-      <c r="W21" t="str">
-        <f t="shared" si="5"/>
+      <c r="Y21" t="str">
+        <f t="shared" si="8"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="X21" t="str">
-        <f t="shared" si="5"/>
+      <c r="Z21" t="str">
+        <f t="shared" si="8"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="C22">
-        <f>'Arduino Uno'!L7</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f>'Arduino M0 Pro'!K7</f>
-        <v>Inline, using types.h</v>
-      </c>
-      <c r="F22" t="str">
+    <row r="22" spans="1:26">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" t="str">
         <f>'Teensy 3.2'!C19</f>
         <v>96 MHz, Optimized</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f>'NXP K66'!C7</f>
         <v>Inline, using types.h</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f>Python!C7</f>
         <v>i5, M540, 2.53 GHz</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:26">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -8363,32 +8801,32 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>21</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" t="s">
         <v>35</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>40</v>
       </c>
-      <c r="N23" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>18</v>
-      </c>
-      <c r="T23" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
         <v>18</v>
@@ -8402,8 +8840,14 @@
       <c r="X23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="str">
         <f>'Arduino Uno'!C10</f>
         <v>float</v>
@@ -8420,332 +8864,364 @@
         <f>'Arduino M0 Pro'!K12</f>
         <v>114.83</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
+        <f>Maple!D11</f>
+        <v>39.39</v>
+      </c>
+      <c r="F24">
         <f>'Arduino Due'!D11</f>
         <v>35.69</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f>'Teensy 3.2'!C7</f>
         <v>29.24</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <f>'NXP K66'!C11</f>
         <v>1.3</v>
       </c>
-      <c r="H24" s="10">
-        <f>H5</f>
+      <c r="I24" s="10">
+        <f>I5</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J24">
-        <f t="shared" ref="J24:J35" si="6">C24/C24</f>
+      <c r="K24">
+        <f>$C24/C24</f>
         <v>1</v>
       </c>
-      <c r="K24" s="6">
-        <f t="shared" ref="K24:K35" si="7">C24/D24</f>
+      <c r="L24">
+        <f t="shared" ref="L24:O35" si="9">$C24/D24</f>
         <v>2.7083514760950971</v>
       </c>
-      <c r="L24" s="6">
-        <f>$C24/E24</f>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>7.8954049251078953</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
         <v>8.7139254693191379</v>
       </c>
-      <c r="M24" s="6">
-        <f>$C24/F24</f>
+      <c r="O24">
+        <f t="shared" ref="O24:O35" si="10">$C24/G24</f>
         <v>10.636114911080712</v>
       </c>
-      <c r="N24" s="6">
-        <f t="shared" ref="N24:N35" si="8">C24/G24</f>
+      <c r="P24">
+        <f t="shared" ref="P24:Q35" si="11">$C24/H24</f>
         <v>239.23076923076923</v>
       </c>
-      <c r="O24" s="6">
-        <f>$C24/H24</f>
+      <c r="Q24" s="6">
+        <f>$C24/I24</f>
         <v>56.499227904441817</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6">
-        <f>F24/G24</f>
-        <v>22.492307692307691</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6">
-        <f t="shared" ref="S24:T27" si="9">C24/C32</f>
+        <f>G24/H24</f>
+        <v>22.492307692307691</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6">
+        <f>C24/C32</f>
         <v>7.5853658536585362</v>
       </c>
-      <c r="T24" s="6">
-        <f t="shared" si="9"/>
+      <c r="V24" s="6">
+        <f>D24/D32</f>
         <v>12.604829857299672</v>
       </c>
-      <c r="U24" s="6" t="e">
+      <c r="W24" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V24" s="6">
-        <f t="shared" ref="V24:X24" si="10">E24/E32</f>
+      <c r="X24" s="6">
+        <f t="shared" ref="X24:Z24" si="12">F24/F32</f>
         <v>5.499229583975346</v>
       </c>
-      <c r="W24" s="6">
-        <f t="shared" si="10"/>
+      <c r="Y24" s="6">
+        <f t="shared" si="12"/>
         <v>13.537037037037035</v>
       </c>
-      <c r="X24" s="6">
-        <f t="shared" si="10"/>
+      <c r="Z24" s="6">
+        <f t="shared" si="12"/>
         <v>0.92857142857142871</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:26">
       <c r="B25">
         <f>'Arduino Uno'!B14</f>
         <v>32</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:C27" si="11">C6</f>
+        <f t="shared" ref="C25:C27" si="13">C6</f>
         <v>622</v>
       </c>
       <c r="D25" s="4">
         <f>'Arduino M0 Pro'!K13</f>
         <v>226.47</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
+        <f>Maple!D12</f>
+        <v>77.59</v>
+      </c>
+      <c r="F25">
         <f>'Arduino Due'!D12</f>
         <v>71.64</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f>'Teensy 3.2'!C8</f>
         <v>58.05</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="10">
         <f>'NXP K66'!C12</f>
         <v>2.7</v>
       </c>
-      <c r="H25" s="10">
-        <f t="shared" ref="H25:H27" si="12">H6</f>
+      <c r="I25" s="10">
+        <f t="shared" ref="I25:I27" si="14">I6</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
+      <c r="K25">
+        <f t="shared" ref="K25:L35" si="15">$C25/C25</f>
         <v>1</v>
       </c>
-      <c r="K25" s="6">
-        <f t="shared" si="7"/>
+      <c r="L25">
+        <f t="shared" si="9"/>
         <v>2.7465006402614032</v>
       </c>
-      <c r="L25" s="6">
-        <f t="shared" ref="L25:L35" si="13">$C25/E25</f>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>8.0164969712591834</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
         <v>8.6823003908431051</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" ref="M25:M35" si="14">$C25/F25</f>
+      <c r="O25">
+        <f t="shared" si="10"/>
         <v>10.714900947459087</v>
       </c>
-      <c r="N25" s="6">
-        <f t="shared" si="8"/>
+      <c r="P25">
+        <f t="shared" si="11"/>
         <v>230.37037037037035</v>
       </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25:O35" si="15">$C25/H25</f>
+      <c r="Q25" s="6">
+        <f t="shared" ref="Q25:Q35" si="16">$C25/I25</f>
         <v>109.26178033463616</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6">
-        <f t="shared" ref="Q25:Q35" si="16">F25/G25</f>
-        <v>21.499999999999996</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S25:S35" si="17">G25/H25</f>
+        <v>21.499999999999996</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6">
+        <f>C25/C33</f>
         <v>7.8734177215189876</v>
       </c>
-      <c r="T25" s="6">
-        <f t="shared" si="9"/>
+      <c r="V25" s="6">
+        <f>D25/D33</f>
         <v>12.970790378006873</v>
       </c>
-      <c r="U25" s="6" t="e">
+      <c r="W25" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V25" s="6">
-        <f t="shared" ref="V25:V27" si="17">E25/E33</f>
+      <c r="X25" s="6">
+        <f t="shared" ref="X25:X27" si="18">F25/F33</f>
         <v>5.6857142857142859</v>
       </c>
-      <c r="W25" s="6">
-        <f t="shared" ref="W25:X27" si="18">F25/F33</f>
+      <c r="Y25" s="6">
+        <f t="shared" ref="Y25:Z27" si="19">G25/G33</f>
         <v>13.954326923076922</v>
       </c>
-      <c r="X25" s="6">
-        <f t="shared" si="18"/>
+      <c r="Z25" s="6">
+        <f t="shared" si="19"/>
         <v>0.96428571428571441</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:26">
       <c r="B26">
         <f>'Arduino Uno'!B15</f>
         <v>64</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1270</v>
       </c>
       <c r="D26" s="4">
         <f>'Arduino M0 Pro'!K14</f>
         <v>446.45</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
+        <f>Maple!D13</f>
+        <v>153.84</v>
+      </c>
+      <c r="F26">
         <f>'Arduino Due'!D13</f>
         <v>143.43</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f>'Teensy 3.2'!C9</f>
         <v>115.52</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f>'NXP K66'!C13</f>
         <v>5</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="12"/>
+      <c r="I26" s="10">
+        <f t="shared" si="14"/>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="6"/>
+      <c r="K26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" si="7"/>
+      <c r="L26">
+        <f t="shared" si="9"/>
         <v>2.8446634561541049</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" si="13"/>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>8.2553302132085289</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
         <v>8.8544934811406257</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" si="14"/>
+      <c r="O26">
+        <f t="shared" si="10"/>
         <v>10.993767313019392</v>
       </c>
-      <c r="N26" s="6">
-        <f t="shared" si="8"/>
+      <c r="P26">
+        <f t="shared" si="11"/>
         <v>254</v>
       </c>
-      <c r="O26" s="6">
-        <f t="shared" si="15"/>
-        <v>151.90024818347638</v>
-      </c>
-      <c r="P26" s="6"/>
       <c r="Q26" s="6">
         <f t="shared" si="16"/>
-        <v>23.103999999999999</v>
+        <v>151.90024818347638</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
+        <v>23.103999999999999</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6">
+        <f>C26/C34</f>
         <v>8.193548387096774</v>
       </c>
-      <c r="T26" s="6">
-        <f t="shared" si="9"/>
+      <c r="V26" s="6">
+        <f>D26/D34</f>
         <v>13.07320644216691</v>
       </c>
-      <c r="U26" s="6" t="e">
+      <c r="W26" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V26" s="6">
-        <f t="shared" si="17"/>
-        <v>5.7834677419354836</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="18"/>
-        <v>14.13953488372093</v>
-      </c>
       <c r="X26" s="6">
         <f t="shared" si="18"/>
+        <v>5.7834677419354836</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="19"/>
+        <v>14.13953488372093</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="19"/>
         <v>0.92592592592592582</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:26">
       <c r="B27">
         <f>'Arduino Uno'!B16</f>
         <v>128</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2522</v>
       </c>
       <c r="D27" s="4">
         <f>'Arduino M0 Pro'!K15</f>
         <v>892.74</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
+        <f>Maple!D14</f>
+        <v>306.20999999999998</v>
+      </c>
+      <c r="F27">
         <f>'Arduino Due'!D14</f>
         <v>286.93</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f>'Teensy 3.2'!C10</f>
         <v>230.49</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <f>'NXP K66'!C14</f>
         <v>10</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="12"/>
+      <c r="I27" s="10">
+        <f t="shared" si="14"/>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="6"/>
+      <c r="K27">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" si="7"/>
+      <c r="L27">
+        <f t="shared" si="9"/>
         <v>2.8250106413961511</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="13"/>
+      <c r="M27">
+        <f t="shared" si="9"/>
+        <v>8.2361777864863992</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
         <v>8.789600250932283</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="14"/>
+      <c r="O27">
+        <f t="shared" si="10"/>
         <v>10.941906373378455</v>
       </c>
-      <c r="N27" s="6">
-        <f t="shared" si="8"/>
+      <c r="P27">
+        <f t="shared" si="11"/>
         <v>252.2</v>
       </c>
-      <c r="O27" s="6">
-        <f t="shared" si="15"/>
-        <v>287.60405975595847</v>
-      </c>
-      <c r="P27" s="6"/>
       <c r="Q27" s="6">
         <f t="shared" si="16"/>
-        <v>23.048999999999999</v>
+        <v>287.60405975595847</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
+        <v>23.048999999999999</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6">
+        <f>C27/C35</f>
         <v>8.1883116883116891</v>
       </c>
-      <c r="T27" s="6">
-        <f t="shared" si="9"/>
+      <c r="V27" s="6">
+        <f>D27/D35</f>
         <v>13.215988156920799</v>
       </c>
-      <c r="U27" s="6" t="e">
+      <c r="W27" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V27" s="6">
-        <f t="shared" si="17"/>
-        <v>5.83072546230441</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="18"/>
-        <v>14.22777777777778</v>
-      </c>
       <c r="X27" s="6">
         <f t="shared" si="18"/>
+        <v>5.83072546230441</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="19"/>
+        <v>14.22777777777778</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="19"/>
         <v>0.93457943925233655</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <f>B24</f>
@@ -8759,78 +9235,86 @@
         <f>'Arduino M0 Pro'!M12</f>
         <v>10.77</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
+        <f>Maple!E11</f>
+        <v>5.55</v>
+      </c>
+      <c r="F28">
         <f>'Arduino Due'!E11</f>
         <v>6.49</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f>'Teensy 3.2'!D7</f>
         <v>2.16</v>
       </c>
-      <c r="G28" s="10">
-        <f>G32</f>
+      <c r="H28" s="10">
+        <f>H32</f>
         <v>1.4</v>
       </c>
-      <c r="H28" s="10">
-        <f>H24</f>
+      <c r="I28" s="10">
+        <f>I24</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="6"/>
+      <c r="K28">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K28" s="6">
-        <f t="shared" si="7"/>
+      <c r="L28">
+        <f t="shared" si="9"/>
         <v>11.977715877437326</v>
       </c>
-      <c r="L28" s="6">
-        <f t="shared" si="13"/>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>23.243243243243246</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
         <v>19.876733436055471</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="14"/>
+      <c r="O28">
+        <f t="shared" si="10"/>
         <v>59.722222222222221</v>
       </c>
-      <c r="N28" s="6">
-        <f t="shared" si="8"/>
+      <c r="P28">
+        <f t="shared" si="11"/>
         <v>92.142857142857153</v>
       </c>
-      <c r="O28" s="6">
-        <f t="shared" si="15"/>
-        <v>23.435371060041785</v>
-      </c>
-      <c r="P28" s="6"/>
       <c r="Q28" s="6">
         <f t="shared" si="16"/>
-        <v>1.5428571428571431</v>
+        <v>23.435371060041785</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6">
-        <f t="shared" ref="S28:T31" si="19">C28/C32</f>
+        <f t="shared" si="17"/>
+        <v>1.5428571428571431</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6">
+        <f>C28/C32</f>
         <v>3.1463414634146343</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" si="19"/>
+      <c r="V28" s="6">
+        <f>D28/D32</f>
         <v>1.1822173435784853</v>
       </c>
-      <c r="U28" s="6" t="e">
+      <c r="W28" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V28" s="6">
-        <f t="shared" ref="V28:X28" si="20">E28/E32</f>
+      <c r="X28" s="6">
+        <f t="shared" ref="X28:Z28" si="20">F28/F32</f>
         <v>1</v>
       </c>
-      <c r="W28" s="6">
+      <c r="Y28" s="6">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="X28" s="6">
+      <c r="Z28" s="6">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:26">
       <c r="B29">
         <f t="shared" ref="B29:B35" si="21">B25</f>
         <v>32</v>
@@ -8843,78 +9327,86 @@
         <f>'Arduino M0 Pro'!M13</f>
         <v>20.79</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
+        <f>Maple!E12</f>
+        <v>10.66</v>
+      </c>
+      <c r="F29">
         <f>'Arduino Due'!E12</f>
         <v>12.6</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f>'Teensy 3.2'!D8</f>
         <v>4.16</v>
       </c>
-      <c r="G29" s="10">
-        <f t="shared" ref="G29:G31" si="22">G33</f>
+      <c r="H29" s="10">
+        <f t="shared" ref="H29:H31" si="22">H33</f>
         <v>2.8</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" ref="H29:H31" si="23">H25</f>
+      <c r="I29" s="10">
+        <f t="shared" ref="I29:I31" si="23">I25</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="6"/>
+      <c r="K29">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" si="7"/>
+      <c r="L29">
+        <f t="shared" si="9"/>
         <v>12.217412217412218</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" si="13"/>
+      <c r="M29">
+        <f t="shared" si="9"/>
+        <v>23.827392120075046</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
         <v>20.158730158730158</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="14"/>
+      <c r="O29">
+        <f t="shared" si="10"/>
         <v>61.057692307692307</v>
       </c>
-      <c r="N29" s="6">
-        <f t="shared" si="8"/>
+      <c r="P29">
+        <f t="shared" si="11"/>
         <v>90.714285714285722</v>
       </c>
-      <c r="O29" s="6">
-        <f t="shared" si="15"/>
-        <v>44.618154670414121</v>
-      </c>
-      <c r="P29" s="6"/>
       <c r="Q29" s="6">
         <f t="shared" si="16"/>
-        <v>1.4857142857142858</v>
+        <v>44.618154670414121</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6">
+        <f>C29/C33</f>
         <v>3.2151898734177213</v>
       </c>
-      <c r="T29" s="6">
-        <f t="shared" si="19"/>
+      <c r="V29" s="6">
+        <f>D29/D33</f>
         <v>1.1907216494845361</v>
       </c>
-      <c r="U29" s="6" t="e">
+      <c r="W29" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V29" s="6">
-        <f t="shared" ref="V29:V31" si="24">E29/E33</f>
+      <c r="X29" s="6">
+        <f t="shared" ref="X29:X31" si="24">F29/F33</f>
         <v>1</v>
       </c>
-      <c r="W29" s="6">
-        <f t="shared" ref="W29:X31" si="25">F29/F33</f>
+      <c r="Y29" s="6">
+        <f t="shared" ref="Y29:Z31" si="25">G29/G33</f>
         <v>1</v>
       </c>
-      <c r="X29" s="6">
+      <c r="Z29" s="6">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:26">
       <c r="B30">
         <f t="shared" si="21"/>
         <v>64</v>
@@ -8927,78 +9419,86 @@
         <f>'Arduino M0 Pro'!M14</f>
         <v>40.83</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
+        <f>Maple!E13</f>
+        <v>20.91</v>
+      </c>
+      <c r="F30">
         <f>'Arduino Due'!E13</f>
         <v>24.8</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f>'Teensy 3.2'!D9</f>
         <v>8.17</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="22"/>
         <v>5.4</v>
       </c>
-      <c r="H30" s="10">
+      <c r="I30" s="10">
         <f t="shared" si="23"/>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="6"/>
+      <c r="K30">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" si="7"/>
+      <c r="L30">
+        <f t="shared" si="9"/>
         <v>12.319373010041637</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="13"/>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>24.055475848876135</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
         <v>20.282258064516128</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="14"/>
+      <c r="O30">
+        <f t="shared" si="10"/>
         <v>61.566707466340269</v>
       </c>
-      <c r="N30" s="6">
-        <f t="shared" si="8"/>
+      <c r="P30">
+        <f t="shared" si="11"/>
         <v>93.148148148148138</v>
       </c>
-      <c r="O30" s="6">
-        <f t="shared" si="15"/>
-        <v>60.162066800227258</v>
-      </c>
-      <c r="P30" s="6"/>
       <c r="Q30" s="6">
         <f t="shared" si="16"/>
-        <v>1.5129629629629628</v>
+        <v>60.162066800227258</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
+        <v>1.5129629629629628</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6">
+        <f>C30/C34</f>
         <v>3.2451612903225806</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="19"/>
+      <c r="V30" s="6">
+        <f>D30/D34</f>
         <v>1.1956076134699853</v>
       </c>
-      <c r="U30" s="6" t="e">
+      <c r="W30" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V30" s="6">
+      <c r="X30" s="6">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="W30" s="6">
+      <c r="Y30" s="6">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="X30" s="6">
+      <c r="Z30" s="6">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:26">
       <c r="B31">
         <f t="shared" si="21"/>
         <v>128</v>
@@ -9011,80 +9511,88 @@
         <f>'Arduino M0 Pro'!M15</f>
         <v>80.91</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
+        <f>Maple!E14</f>
+        <v>41.39</v>
+      </c>
+      <c r="F31">
         <f>'Arduino Due'!E14</f>
         <v>49.21</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f>'Teensy 3.2'!D10</f>
         <v>16.2</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <f t="shared" si="22"/>
         <v>10.7</v>
       </c>
-      <c r="H31" s="10">
+      <c r="I31" s="10">
         <f t="shared" si="23"/>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="6"/>
+      <c r="K31">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="7"/>
+      <c r="L31">
+        <f t="shared" si="9"/>
         <v>12.384130515387469</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="13"/>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>24.2087460739309</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
         <v>20.361715098557202</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="14"/>
+      <c r="O31">
+        <f t="shared" si="10"/>
         <v>61.851851851851855</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" si="8"/>
+      <c r="P31">
+        <f t="shared" si="11"/>
         <v>93.644859813084125</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" si="15"/>
-        <v>114.26616489907629</v>
-      </c>
-      <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <f t="shared" si="16"/>
-        <v>1.514018691588785</v>
+        <v>114.26616489907629</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
+        <v>1.514018691588785</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6">
+        <f>C31/C35</f>
         <v>3.2532467532467533</v>
       </c>
-      <c r="T31" s="6">
-        <f t="shared" si="19"/>
+      <c r="V31" s="6">
+        <f>D31/D35</f>
         <v>1.197779422649889</v>
       </c>
-      <c r="U31" s="6" t="e">
+      <c r="W31" s="6" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V31" s="6">
+      <c r="X31" s="6">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="W31" s="6">
+      <c r="Y31" s="6">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="X31" s="6">
+      <c r="Z31" s="6">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <f t="shared" si="21"/>
@@ -9098,58 +9606,66 @@
         <f>'Arduino M0 Pro'!L12</f>
         <v>9.11</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
+        <f>Maple!F11</f>
+        <v>6.45</v>
+      </c>
+      <c r="F32">
         <f>'Arduino Due'!F11</f>
         <v>6.49</v>
       </c>
-      <c r="F32">
-        <f>F28</f>
+      <c r="G32">
+        <f>G28</f>
         <v>2.16</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f>'NXP K66'!E11</f>
         <v>1.4</v>
       </c>
-      <c r="H32" s="10">
-        <f>H24</f>
+      <c r="I32" s="10">
+        <f>I24</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="6"/>
+      <c r="K32">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K32" s="6">
-        <f t="shared" si="7"/>
+      <c r="L32">
+        <f t="shared" si="9"/>
         <v>4.5005488474204176</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" si="13"/>
+      <c r="M32">
+        <f t="shared" si="9"/>
+        <v>6.3565891472868215</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
         <v>6.3174114021571643</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="14"/>
+      <c r="O32">
+        <f t="shared" si="10"/>
         <v>18.981481481481481</v>
       </c>
-      <c r="N32" s="6">
-        <f t="shared" si="8"/>
+      <c r="P32">
+        <f t="shared" si="11"/>
         <v>29.285714285714288</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" si="15"/>
-        <v>7.4484512671450629</v>
-      </c>
-      <c r="P32" s="6"/>
       <c r="Q32" s="6">
         <f t="shared" si="16"/>
+        <v>7.4484512671450629</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6">
+        <f t="shared" si="17"/>
         <v>1.5428571428571431</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="B33">
         <f t="shared" si="21"/>
         <v>32</v>
@@ -9162,58 +9678,66 @@
         <f>'Arduino M0 Pro'!L13</f>
         <v>17.46</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
+        <f>Maple!F12</f>
+        <v>12.47</v>
+      </c>
+      <c r="F33">
         <f>'Arduino Due'!F12</f>
         <v>12.6</v>
       </c>
-      <c r="F33">
-        <f t="shared" ref="F33:F35" si="26">F29</f>
+      <c r="G33">
+        <f t="shared" ref="G33:G35" si="26">G29</f>
         <v>4.16</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <f>'NXP K66'!E12</f>
         <v>2.8</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" ref="H33:H35" si="27">H25</f>
+      <c r="I33" s="10">
+        <f t="shared" ref="I33:I35" si="27">I25</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="6"/>
+      <c r="K33">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" si="7"/>
+      <c r="L33">
+        <f t="shared" si="9"/>
         <v>4.5246277205040091</v>
       </c>
-      <c r="L33" s="6">
-        <f t="shared" si="13"/>
+      <c r="M33">
+        <f t="shared" si="9"/>
+        <v>6.3352044907778664</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
         <v>6.2698412698412698</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="14"/>
+      <c r="O33">
+        <f t="shared" si="10"/>
         <v>18.990384615384613</v>
       </c>
-      <c r="N33" s="6">
-        <f t="shared" si="8"/>
+      <c r="P33">
+        <f t="shared" si="11"/>
         <v>28.214285714285715</v>
       </c>
-      <c r="O33" s="6">
-        <f t="shared" si="15"/>
-        <v>13.877300074656361</v>
-      </c>
-      <c r="P33" s="6"/>
       <c r="Q33" s="6">
         <f t="shared" si="16"/>
+        <v>13.877300074656361</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
+        <f t="shared" si="17"/>
         <v>1.4857142857142858</v>
       </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="B34">
         <f>B30</f>
         <v>64</v>
@@ -9226,58 +9750,66 @@
         <f>'Arduino M0 Pro'!L14</f>
         <v>34.15</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
+        <f>Maple!F13</f>
+        <v>24.48</v>
+      </c>
+      <c r="F34">
         <f>'Arduino Due'!F13</f>
         <v>24.8</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="26"/>
         <v>8.17</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <f>'NXP K66'!E13</f>
         <v>5.4</v>
       </c>
-      <c r="H34" s="10">
+      <c r="I34" s="10">
         <f t="shared" si="27"/>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="6"/>
+      <c r="K34">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" si="7"/>
+      <c r="L34">
+        <f t="shared" si="9"/>
         <v>4.5387994143484631</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="13"/>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>6.3316993464052285</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="14"/>
+      <c r="O34">
+        <f t="shared" si="10"/>
         <v>18.971848225214199</v>
       </c>
-      <c r="N34" s="6">
-        <f t="shared" si="8"/>
+      <c r="P34">
+        <f t="shared" si="11"/>
         <v>28.703703703703702</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" si="15"/>
-        <v>18.539006668062076</v>
-      </c>
-      <c r="P34" s="6"/>
       <c r="Q34" s="6">
         <f t="shared" si="16"/>
+        <v>18.539006668062076</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
+        <f t="shared" si="17"/>
         <v>1.5129629629629628</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="B35">
         <f t="shared" si="21"/>
         <v>128</v>
@@ -9290,58 +9822,66 @@
         <f>'Arduino M0 Pro'!L15</f>
         <v>67.55</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
+        <f>Maple!F14</f>
+        <v>48.53</v>
+      </c>
+      <c r="F35">
         <f>'Arduino Due'!F14</f>
         <v>49.21</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="26"/>
         <v>16.2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <f>'NXP K66'!E14</f>
         <v>10.7</v>
       </c>
-      <c r="H35" s="10">
+      <c r="I35" s="10">
         <f t="shared" si="27"/>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="6"/>
+      <c r="K35">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" si="7"/>
+      <c r="L35">
+        <f t="shared" si="9"/>
         <v>4.5595854922279795</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="13"/>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>6.3465897383062018</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
         <v>6.2588904694167855</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="14"/>
+      <c r="O35">
+        <f t="shared" si="10"/>
         <v>19.012345679012345</v>
       </c>
-      <c r="N35" s="6">
-        <f t="shared" si="8"/>
+      <c r="P35">
+        <f t="shared" si="11"/>
         <v>28.785046728971963</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" si="15"/>
-        <v>35.12373132626297</v>
-      </c>
-      <c r="P35" s="6"/>
       <c r="Q35" s="6">
         <f t="shared" si="16"/>
+        <v>35.12373132626297</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6">
+        <f t="shared" si="17"/>
         <v>1.514018691588785</v>
       </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="str">
         <f>A24</f>
         <v>float</v>
@@ -9354,54 +9894,62 @@
         <v>1607.7170418006433</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" ref="D37:F37" si="28">1/(D25*0.000001)</f>
+        <f t="shared" ref="D37:G37" si="28">1/(D25*0.000001)</f>
         <v>4415.5958846646354</v>
       </c>
       <c r="E37" s="8">
+        <f t="shared" ref="E37" si="29">1/(E25*0.000001)</f>
+        <v>12888.258796236629</v>
+      </c>
+      <c r="F37" s="8">
         <f t="shared" si="28"/>
         <v>13958.682300390843</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <f t="shared" si="28"/>
         <v>17226.528854435834</v>
       </c>
-      <c r="G37" s="8">
-        <f t="shared" ref="G37" si="29">1/(G25*0.000001)</f>
+      <c r="H37" s="8">
+        <f t="shared" ref="H37" si="30">1/(H25*0.000001)</f>
         <v>370370.37037037039</v>
       </c>
-      <c r="H37" s="8">
-        <f>1/(H25*0.000001)</f>
+      <c r="I37" s="8">
+        <f>1/(I25*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="9">
+      <c r="K37" s="9">
         <f>$C$34/C26</f>
         <v>0.12204724409448819</v>
       </c>
-      <c r="K37" s="9">
+      <c r="L37" s="9">
         <f>$C$34/D26</f>
         <v>0.3471833351999104</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" ref="L37:N37" si="30">$C$34/E26</f>
+      <c r="M37" s="9">
+        <f>$C$34/E26</f>
+        <v>1.0075403016120645</v>
+      </c>
+      <c r="N37" s="9">
+        <f t="shared" ref="N37:P37" si="31">$C$34/F26</f>
         <v>1.0806665272258245</v>
       </c>
-      <c r="M37" s="9">
-        <f t="shared" si="30"/>
+      <c r="O37" s="9">
+        <f t="shared" ref="O37" si="32">$C$34/G26</f>
         <v>1.3417590027700832</v>
       </c>
-      <c r="N37" s="9">
-        <f t="shared" si="30"/>
+      <c r="P37" s="9">
+        <f t="shared" ref="P37:Q37" si="33">$C$34/H26</f>
         <v>31</v>
       </c>
-      <c r="O37" s="9">
-        <f>$C$35/H27</f>
+      <c r="Q37" s="9">
+        <f>$C$35/I27</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:24">
       <c r="A38" t="str">
         <f>A28</f>
         <v>int32</v>
@@ -9414,54 +9962,62 @@
         <v>3937.0078740157483</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:F38" si="31">1/(D29*0.000001)</f>
+        <f t="shared" ref="D38:G38" si="34">1/(D29*0.000001)</f>
         <v>48100.048100048101</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="E38" si="35">1/(E29*0.000001)</f>
+        <v>93808.630393996253</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="34"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="F38" s="8">
-        <f t="shared" si="31"/>
+      <c r="G38" s="8">
+        <f t="shared" si="34"/>
         <v>240384.61538461538</v>
       </c>
-      <c r="G38" s="8">
-        <f t="shared" ref="G38" si="32">1/(G29*0.000001)</f>
+      <c r="H38" s="8">
+        <f t="shared" ref="H38" si="36">1/(H29*0.000001)</f>
         <v>357142.85714285716</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" ref="H38" si="33">1/(H29*0.000001)</f>
+      <c r="I38" s="8">
+        <f t="shared" ref="I38" si="37">1/(I29*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="9">
+      <c r="K38" s="9">
         <f>$C$34/C30</f>
         <v>0.30815109343936381</v>
       </c>
-      <c r="K38" s="9">
+      <c r="L38" s="9">
         <f>$C$34/D30</f>
         <v>3.7962282635317171</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" ref="L38:N38" si="34">$C$34/E30</f>
+      <c r="M38" s="9">
+        <f>$C$34/E30</f>
+        <v>7.4127211860353901</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" ref="N38:P38" si="38">$C$34/F30</f>
         <v>6.25</v>
       </c>
-      <c r="M38" s="9">
-        <f t="shared" si="34"/>
+      <c r="O38" s="9">
+        <f t="shared" ref="O38" si="39">$C$34/G30</f>
         <v>18.971848225214199</v>
       </c>
-      <c r="N38" s="9">
-        <f t="shared" si="34"/>
+      <c r="P38" s="9">
+        <f t="shared" ref="P38:Q38" si="40">$C$34/H30</f>
         <v>28.703703703703702</v>
       </c>
-      <c r="O38" s="9">
-        <f>O37</f>
+      <c r="Q38" s="9">
+        <f>Q37</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:24">
       <c r="A39" t="str">
         <f>A32</f>
         <v>int16</v>
@@ -9474,271 +10030,295 @@
         <v>12658.227848101267</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:F39" si="35">1/(D33*0.000001)</f>
+        <f t="shared" ref="D39:G39" si="41">1/(D33*0.000001)</f>
         <v>57273.768613974804</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="E39" si="42">1/(E33*0.000001)</f>
+        <v>80192.46190858059</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="41"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="F39" s="8">
-        <f t="shared" si="35"/>
+      <c r="G39" s="8">
+        <f t="shared" si="41"/>
         <v>240384.61538461538</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" ref="G39" si="36">1/(G33*0.000001)</f>
+      <c r="H39" s="8">
+        <f t="shared" ref="H39" si="43">1/(H33*0.000001)</f>
         <v>357142.85714285716</v>
       </c>
-      <c r="H39" s="8">
-        <f t="shared" ref="H39" si="37">1/(H33*0.000001)</f>
+      <c r="I39" s="8">
+        <f t="shared" ref="I39" si="44">1/(I33*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="9">
+      <c r="K39" s="9">
         <f>$C$34/C34</f>
         <v>1</v>
       </c>
-      <c r="K39" s="9">
+      <c r="L39" s="9">
         <f>$C$34/D34</f>
         <v>4.5387994143484631</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" ref="L39:N39" si="38">$C$34/E34</f>
+      <c r="M39" s="9">
+        <f>$C$34/E34</f>
+        <v>6.3316993464052285</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" ref="N39:P39" si="45">$C$34/F34</f>
         <v>6.25</v>
       </c>
-      <c r="M39" s="9">
-        <f t="shared" si="38"/>
+      <c r="O39" s="9">
+        <f t="shared" ref="O39" si="46">$C$34/G34</f>
         <v>18.971848225214199</v>
       </c>
-      <c r="N39" s="9">
-        <f t="shared" si="38"/>
+      <c r="P39" s="9">
+        <f t="shared" ref="P39:Q39" si="47">$C$34/H34</f>
         <v>28.703703703703702</v>
       </c>
-      <c r="O39" s="9">
-        <f>O38</f>
+      <c r="Q39" s="9">
+        <f>Q38</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="57" spans="2:28" s="13" customFormat="1">
+    <row r="57" spans="2:30" s="13" customFormat="1">
       <c r="B57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="13">
+      <c r="G57" s="13">
         <v>250</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="J57" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:28">
+    <row r="58" spans="2:30">
       <c r="C58" t="str">
-        <f t="shared" ref="C58:H58" si="39">C$21</f>
+        <f t="shared" ref="C58:I58" si="48">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>Arduino M0</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
+        <v>Maple</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="48"/>
         <v>Arduino Due</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="39"/>
+      <c r="G58" t="str">
+        <f t="shared" si="48"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="39"/>
+      <c r="H58" t="str">
+        <f t="shared" si="48"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="39"/>
+      <c r="I58" t="str">
+        <f t="shared" si="48"/>
         <v>Python, PC</v>
       </c>
-      <c r="Y58" t="str">
+      <c r="AA58" t="str">
         <f>C58</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="Z58" t="str">
-        <f t="shared" ref="Z58" si="40">D58</f>
+      <c r="AB58" t="str">
+        <f t="shared" ref="AB58" si="49">D58</f>
         <v>Arduino M0</v>
       </c>
-      <c r="AA58" t="str">
-        <f>F58</f>
+      <c r="AC58" t="str">
+        <f>G58</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="AB58" t="str">
-        <f>G58</f>
+      <c r="AD58" t="str">
+        <f>H58</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="59" spans="2:28">
+    <row r="59" spans="2:30">
       <c r="B59" t="str">
         <f>$A$24</f>
         <v>float</v>
       </c>
       <c r="C59" s="8">
-        <f>SQRT($F$57/((C26*0.000001)/$B26))</f>
+        <f>SQRT($G$57/((C26*0.000001)/$B26))</f>
         <v>3549.4260376644552</v>
       </c>
       <c r="D59" s="8">
-        <f>SQRT($F$57/((D26*0.000001)/$B26))</f>
+        <f>SQRT($G$57/((D26*0.000001)/$B26))</f>
         <v>5986.5081443669142</v>
       </c>
       <c r="E59" s="8">
-        <f>SQRT($F$57/((E26*0.000001)/$B26))</f>
+        <f>SQRT($G$57/((E26*0.000001)/$B26))</f>
+        <v>10198.24299408514</v>
+      </c>
+      <c r="F59" s="8">
+        <f>SQRT($G$57/((F26*0.000001)/$B26))</f>
         <v>10561.849922156138</v>
       </c>
-      <c r="F59" s="8">
-        <f>SQRT($F$57/((F26*0.000001)/$B26))</f>
+      <c r="G59" s="8">
+        <f>SQRT($G$57/((G26*0.000001)/$B26))</f>
         <v>11768.778828946262</v>
       </c>
-      <c r="G59" s="8">
-        <f>SQRT($F$57/((G26*0.000001)/$B26))</f>
+      <c r="H59" s="8">
+        <f>SQRT($G$57/((H26*0.000001)/$B26))</f>
         <v>56568.542494923808</v>
       </c>
-      <c r="H59" s="8">
-        <f>SQRT($F$57/((H9*0.000001)/$B9))</f>
+      <c r="I59" s="8">
+        <f>SQRT($G$57/((I9*0.000001)/$B9))</f>
         <v>76361.22447565374</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>45</v>
       </c>
-      <c r="X59" t="str">
+      <c r="Z59" t="str">
         <f>B59</f>
         <v>float</v>
       </c>
-      <c r="Y59">
-        <f t="shared" ref="Y59:Y61" si="41">C59</f>
+      <c r="AA59">
+        <f t="shared" ref="AA59:AA61" si="50">C59</f>
         <v>3549.4260376644552</v>
       </c>
-      <c r="Z59">
-        <f t="shared" ref="Z59:Z61" si="42">D59</f>
+      <c r="AB59">
+        <f t="shared" ref="AB59:AB61" si="51">D59</f>
         <v>5986.5081443669142</v>
       </c>
-      <c r="AA59">
-        <f t="shared" ref="AA59:AA61" si="43">F59</f>
+      <c r="AC59">
+        <f t="shared" ref="AC59:AC61" si="52">G59</f>
         <v>11768.778828946262</v>
       </c>
-      <c r="AB59">
-        <f t="shared" ref="AB59:AB61" si="44">G59</f>
+      <c r="AD59">
+        <f t="shared" ref="AD59:AD61" si="53">H59</f>
         <v>56568.542494923808</v>
       </c>
     </row>
-    <row r="60" spans="2:28">
+    <row r="60" spans="2:30">
       <c r="B60" t="str">
         <f>$A$28</f>
         <v>int32</v>
       </c>
       <c r="C60" s="8">
-        <f>SQRT($F$57/((C30*0.000001)/$B30))</f>
+        <f>SQRT($G$57/((C30*0.000001)/$B30))</f>
         <v>5639.9596744324917</v>
       </c>
       <c r="D60" s="8">
-        <f>SQRT($F$57/((D30*0.000001)/$B30))</f>
+        <f>SQRT($G$57/((D30*0.000001)/$B30))</f>
         <v>19795.674375415139</v>
       </c>
       <c r="E60" s="8">
-        <f>SQRT($F$57/((E30*0.000001)/$B30))</f>
+        <f>SQRT($G$57/((E30*0.000001)/$B30))</f>
+        <v>27661.961651868794</v>
+      </c>
+      <c r="F60" s="8">
+        <f>SQRT($G$57/((F30*0.000001)/$B30))</f>
         <v>25400.025400038103</v>
       </c>
-      <c r="F60" s="8">
-        <f>SQRT($F$57/((F30*0.000001)/$B30))</f>
+      <c r="G60" s="8">
+        <f>SQRT($G$57/((G30*0.000001)/$B30))</f>
         <v>44253.636380814365</v>
       </c>
-      <c r="G60" s="8">
-        <f>SQRT($F$57/((G30*0.000001)/$B30))</f>
+      <c r="H60" s="8">
+        <f>SQRT($G$57/((H30*0.000001)/$B30))</f>
         <v>54433.105395181738</v>
       </c>
-      <c r="H60" s="8">
-        <f>H59</f>
+      <c r="I60" s="8">
+        <f>I59</f>
         <v>76361.22447565374</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>45</v>
       </c>
-      <c r="X60" t="str">
-        <f t="shared" ref="X60:X61" si="45">B60</f>
+      <c r="Z60" t="str">
+        <f t="shared" ref="Z60:Z61" si="54">B60</f>
         <v>int32</v>
       </c>
-      <c r="Y60">
-        <f t="shared" si="41"/>
+      <c r="AA60">
+        <f t="shared" si="50"/>
         <v>5639.9596744324917</v>
       </c>
-      <c r="Z60">
-        <f t="shared" si="42"/>
+      <c r="AB60">
+        <f t="shared" si="51"/>
         <v>19795.674375415139</v>
       </c>
-      <c r="AA60">
-        <f t="shared" si="43"/>
+      <c r="AC60">
+        <f t="shared" si="52"/>
         <v>44253.636380814365</v>
       </c>
-      <c r="AB60">
-        <f t="shared" si="44"/>
+      <c r="AD60">
+        <f t="shared" si="53"/>
         <v>54433.105395181738</v>
       </c>
     </row>
-    <row r="61" spans="2:28">
+    <row r="61" spans="2:30">
       <c r="B61" t="str">
         <f>$A$32</f>
         <v>int16</v>
       </c>
       <c r="C61" s="8">
-        <f>SQRT($F$57/((C34*0.000001)/$B34))</f>
+        <f>SQRT($G$57/((C34*0.000001)/$B34))</f>
         <v>10160.010160015239</v>
       </c>
       <c r="D61" s="8">
-        <f>SQRT($F$57/((D34*0.000001)/$B34))</f>
+        <f>SQRT($G$57/((D34*0.000001)/$B34))</f>
         <v>21645.351229957632</v>
       </c>
       <c r="E61" s="8">
-        <f>SQRT($F$57/((E34*0.000001)/$B34))</f>
+        <f>SQRT($G$57/((E34*0.000001)/$B34))</f>
+        <v>25565.499628245681</v>
+      </c>
+      <c r="F61" s="8">
+        <f>SQRT($G$57/((F34*0.000001)/$B34))</f>
         <v>25400.025400038103</v>
       </c>
-      <c r="F61" s="8">
-        <f>SQRT($F$57/((F34*0.000001)/$B34))</f>
+      <c r="G61" s="8">
+        <f>SQRT($G$57/((G34*0.000001)/$B34))</f>
         <v>44253.636380814365</v>
       </c>
-      <c r="G61" s="8">
-        <f>SQRT($F$57/((G34*0.000001)/$B34))</f>
+      <c r="H61" s="8">
+        <f>SQRT($G$57/((H34*0.000001)/$B34))</f>
         <v>54433.105395181738</v>
       </c>
-      <c r="H61" s="8">
-        <f>H60</f>
+      <c r="I61" s="8">
+        <f>I60</f>
         <v>76361.22447565374</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>45</v>
       </c>
-      <c r="X61" t="str">
-        <f t="shared" si="45"/>
+      <c r="Z61" t="str">
+        <f t="shared" si="54"/>
         <v>int16</v>
       </c>
-      <c r="Y61">
-        <f t="shared" si="41"/>
+      <c r="AA61">
+        <f t="shared" si="50"/>
         <v>10160.010160015239</v>
       </c>
-      <c r="Z61">
-        <f t="shared" si="42"/>
+      <c r="AB61">
+        <f t="shared" si="51"/>
         <v>21645.351229957632</v>
       </c>
-      <c r="AA61">
-        <f t="shared" si="43"/>
+      <c r="AC61">
+        <f t="shared" si="52"/>
         <v>44253.636380814365</v>
       </c>
-      <c r="AB61">
-        <f t="shared" si="44"/>
+      <c r="AD61">
+        <f t="shared" si="53"/>
         <v>54433.105395181738</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="12" customFormat="1">
+    <row r="79" spans="2:8" s="12" customFormat="1">
       <c r="B79" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
       <c r="C80" t="str">
         <f>C21</f>
         <v>Arduino Uno</v>
@@ -9749,431 +10329,490 @@
       </c>
       <c r="E80" t="str">
         <f>E21</f>
-        <v>Arduino Due</v>
+        <v>Maple</v>
       </c>
       <c r="F80" t="str">
         <f>F21</f>
-        <v>Teensy 3.2</v>
+        <v>Arduino Due</v>
       </c>
       <c r="G80" t="str">
         <f>G21</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="H80" t="str">
+        <f>H21</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="D81" t="str">
+    <row r="81" spans="1:9">
+      <c r="D81">
         <f>D22</f>
-        <v>Inline, using types.h</v>
-      </c>
-      <c r="F81" t="str">
-        <f>F22</f>
-        <v>96 MHz, Optimized</v>
+        <v>0</v>
       </c>
       <c r="G81" t="str">
         <f>G22</f>
+        <v>96 MHz, Optimized</v>
+      </c>
+      <c r="H81" t="str">
+        <f>H22</f>
         <v>Inline, using types.h</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="B82" t="str">
-        <f t="shared" ref="B82:B94" si="46">B23</f>
+        <f t="shared" ref="B82:B94" si="55">B23</f>
         <v>N_FIR</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="str">
         <f>A24</f>
         <v>float</v>
       </c>
       <c r="B83">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="C83" s="11">
-        <f t="shared" ref="C83:G94" si="47">1000000/C24</f>
+        <f t="shared" ref="C83:H94" si="56">1000000/C24</f>
         <v>3215.4340836012861</v>
       </c>
       <c r="D83" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>8708.52564660803</v>
       </c>
       <c r="E83" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E83" si="57">1000000/E24</f>
+        <v>25387.154100025386</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" si="56"/>
         <v>28019.052956010088</v>
       </c>
-      <c r="F83" s="11">
-        <f t="shared" si="47"/>
+      <c r="G83" s="11">
+        <f t="shared" si="56"/>
         <v>34199.726402188782</v>
       </c>
-      <c r="G83" s="11">
-        <f t="shared" si="47"/>
+      <c r="H83" s="11">
+        <f t="shared" si="56"/>
         <v>769230.76923076925</v>
       </c>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>32</v>
       </c>
       <c r="C84" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>1607.7170418006431</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>4415.5958846646354</v>
       </c>
       <c r="E84" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E84" si="58">1000000/E25</f>
+        <v>12888.258796236629</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="56"/>
         <v>13958.682300390843</v>
       </c>
-      <c r="F84" s="11">
-        <f t="shared" si="47"/>
+      <c r="G84" s="11">
+        <f t="shared" si="56"/>
         <v>17226.528854435834</v>
       </c>
-      <c r="G84" s="11">
-        <f t="shared" si="47"/>
+      <c r="H84" s="11">
+        <f t="shared" si="56"/>
         <v>370370.37037037034</v>
       </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>64</v>
       </c>
       <c r="C85" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>787.40157480314963</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>2239.8924851607126</v>
       </c>
       <c r="E85" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E85" si="59">1000000/E26</f>
+        <v>6500.2600104004159</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="56"/>
         <v>6972.0421111343512</v>
       </c>
-      <c r="F85" s="11">
-        <f t="shared" si="47"/>
+      <c r="G85" s="11">
+        <f t="shared" si="56"/>
         <v>8656.5096952908589</v>
       </c>
-      <c r="G85" s="11">
-        <f t="shared" si="47"/>
+      <c r="H85" s="11">
+        <f t="shared" si="56"/>
         <v>200000</v>
       </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>128</v>
       </c>
       <c r="C86" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>396.51070578905632</v>
       </c>
       <c r="D86" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>1120.1469632815824</v>
       </c>
       <c r="E86" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E86" si="60">1000000/E27</f>
+        <v>3265.7326671238693</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="56"/>
         <v>3485.1705991008257</v>
       </c>
-      <c r="F86" s="11">
-        <f t="shared" si="47"/>
+      <c r="G86" s="11">
+        <f t="shared" si="56"/>
         <v>4338.5830187860647</v>
       </c>
-      <c r="G86" s="11">
-        <f t="shared" si="47"/>
+      <c r="H86" s="11">
+        <f t="shared" si="56"/>
         <v>100000</v>
       </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="str">
         <f>A28</f>
         <v>int32</v>
       </c>
       <c r="B87">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="C87" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>7751.937984496124</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>92850.510677808736</v>
       </c>
       <c r="E87" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E87" si="61">1000000/E28</f>
+        <v>180180.18018018018</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="56"/>
         <v>154083.20493066256</v>
       </c>
-      <c r="F87" s="11">
-        <f t="shared" si="47"/>
+      <c r="G87" s="11">
+        <f t="shared" si="56"/>
         <v>462962.96296296292</v>
       </c>
-      <c r="G87" s="11">
-        <f t="shared" si="47"/>
+      <c r="H87" s="11">
+        <f t="shared" si="56"/>
         <v>714285.71428571432</v>
       </c>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>32</v>
       </c>
       <c r="C88" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>3937.0078740157483</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>48100.048100048101</v>
       </c>
       <c r="E88" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E88" si="62">1000000/E29</f>
+        <v>93808.630393996253</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" si="56"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="F88" s="11">
-        <f t="shared" si="47"/>
+      <c r="G88" s="11">
+        <f t="shared" si="56"/>
         <v>240384.61538461538</v>
       </c>
-      <c r="G88" s="11">
-        <f t="shared" si="47"/>
+      <c r="H88" s="11">
+        <f t="shared" si="56"/>
         <v>357142.85714285716</v>
       </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>64</v>
       </c>
       <c r="C89" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>1988.0715705765408</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>24491.795248591723</v>
       </c>
       <c r="E89" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E89" si="63">1000000/E30</f>
+        <v>47824.007651841224</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="56"/>
         <v>40322.580645161288</v>
       </c>
-      <c r="F89" s="11">
-        <f t="shared" si="47"/>
+      <c r="G89" s="11">
+        <f t="shared" si="56"/>
         <v>122399.02080783354</v>
       </c>
-      <c r="G89" s="11">
-        <f t="shared" si="47"/>
+      <c r="H89" s="11">
+        <f t="shared" si="56"/>
         <v>185185.18518518517</v>
       </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>128</v>
       </c>
       <c r="C90" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>998.00399201596804</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>12359.411692003461</v>
       </c>
       <c r="E90" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E90" si="64">1000000/E31</f>
+        <v>24160.425223483933</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="56"/>
         <v>20321.072952651899</v>
       </c>
-      <c r="F90" s="11">
-        <f t="shared" si="47"/>
+      <c r="G90" s="11">
+        <f t="shared" si="56"/>
         <v>61728.395061728399</v>
       </c>
-      <c r="G90" s="11">
-        <f t="shared" si="47"/>
+      <c r="H90" s="11">
+        <f t="shared" si="56"/>
         <v>93457.943925233645</v>
       </c>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="str">
         <f>A32</f>
         <v>int16</v>
       </c>
       <c r="B91">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="C91" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>24390.243902439026</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>109769.48408342482</v>
       </c>
       <c r="E91" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E91" si="65">1000000/E32</f>
+        <v>155038.75968992247</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="56"/>
         <v>154083.20493066256</v>
       </c>
-      <c r="F91" s="11">
-        <f t="shared" si="47"/>
+      <c r="G91" s="11">
+        <f t="shared" si="56"/>
         <v>462962.96296296292</v>
       </c>
-      <c r="G91" s="11">
-        <f t="shared" si="47"/>
+      <c r="H91" s="11">
+        <f t="shared" si="56"/>
         <v>714285.71428571432</v>
       </c>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>32</v>
       </c>
       <c r="C92" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>12658.227848101265</v>
       </c>
       <c r="D92" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>57273.768613974797</v>
       </c>
       <c r="E92" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E92" si="66">1000000/E33</f>
+        <v>80192.46190858059</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="56"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="F92" s="11">
-        <f t="shared" si="47"/>
+      <c r="G92" s="11">
+        <f t="shared" si="56"/>
         <v>240384.61538461538</v>
       </c>
-      <c r="G92" s="11">
-        <f t="shared" si="47"/>
+      <c r="H92" s="11">
+        <f t="shared" si="56"/>
         <v>357142.85714285716</v>
       </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>64</v>
       </c>
       <c r="C93" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>6451.6129032258068</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>29282.576866764277</v>
       </c>
       <c r="E93" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E93" si="67">1000000/E34</f>
+        <v>40849.67320261438</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="56"/>
         <v>40322.580645161288</v>
       </c>
-      <c r="F93" s="11">
-        <f t="shared" si="47"/>
+      <c r="G93" s="11">
+        <f t="shared" si="56"/>
         <v>122399.02080783354</v>
       </c>
-      <c r="G93" s="11">
-        <f t="shared" si="47"/>
+      <c r="H93" s="11">
+        <f t="shared" si="56"/>
         <v>185185.18518518517</v>
       </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>128</v>
       </c>
       <c r="C94" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>3246.7532467532469</v>
       </c>
       <c r="D94" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>14803.849000740192</v>
       </c>
       <c r="E94" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="E94" si="68">1000000/E35</f>
+        <v>20605.8108386565</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" si="56"/>
         <v>20321.072952651899</v>
       </c>
-      <c r="F94" s="11">
-        <f t="shared" si="47"/>
+      <c r="G94" s="11">
+        <f t="shared" si="56"/>
         <v>61728.395061728399</v>
       </c>
-      <c r="G94" s="11">
-        <f t="shared" si="47"/>
+      <c r="H94" s="11">
+        <f t="shared" si="56"/>
         <v>93457.943925233645</v>
       </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="96" spans="1:8" s="13" customFormat="1">
+      <c r="I94" s="11"/>
+    </row>
+    <row r="96" spans="1:9" s="13" customFormat="1">
       <c r="B96" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" s="13">
+        <v>32000</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" t="s">
         <v>72</v>
       </c>
-      <c r="G96" s="13">
-        <v>32000</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
+    </row>
+    <row r="99" spans="2:9">
       <c r="C99" t="str">
-        <f t="shared" ref="C99:H99" si="48">C$21</f>
+        <f t="shared" ref="C99:I99" si="69">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>Arduino M0</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
+        <v>Maple</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="69"/>
         <v>Arduino Due</v>
       </c>
-      <c r="F99" t="str">
-        <f t="shared" si="48"/>
+      <c r="G99" t="str">
+        <f t="shared" si="69"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="G99" t="str">
-        <f t="shared" si="48"/>
+      <c r="H99" t="str">
+        <f t="shared" si="69"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H99" t="str">
-        <f t="shared" si="48"/>
+      <c r="I99" t="str">
+        <f t="shared" si="69"/>
         <v>Python, PC</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f>$A$24</f>
         <v>float</v>
@@ -10183,27 +10822,31 @@
         <v>1.9843749999999998E-5</v>
       </c>
       <c r="D100">
-        <f t="shared" ref="D100" si="49">D26*0.000001/$B26</f>
+        <f t="shared" ref="D100:E100" si="70">D26*0.000001/$B26</f>
         <v>6.9757812499999997E-6</v>
       </c>
       <c r="E100">
-        <f>E26*0.000001/$B26</f>
-        <v>2.24109375E-6</v>
+        <f t="shared" si="70"/>
+        <v>2.4037500000000001E-6</v>
       </c>
       <c r="F100">
         <f>F26*0.000001/$B26</f>
-        <v>1.8049999999999999E-6</v>
+        <v>2.24109375E-6</v>
       </c>
       <c r="G100">
         <f>G26*0.000001/$B26</f>
-        <v>7.8124999999999993E-8</v>
+        <v>1.8049999999999999E-6</v>
       </c>
       <c r="H100">
         <f>H26*0.000001/$B26</f>
+        <v>7.8124999999999993E-8</v>
+      </c>
+      <c r="I100">
+        <f>I26*0.000001/$B26</f>
         <v>1.3063671874999999E-7</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f>$A$28</f>
         <v>int32</v>
@@ -10213,27 +10856,31 @@
         <v>7.8281249999999988E-6</v>
       </c>
       <c r="D101">
-        <f t="shared" ref="D101" si="50">D31*0.000001/$B31</f>
+        <f t="shared" ref="D101:E101" si="71">D31*0.000001/$B31</f>
         <v>6.3210937499999997E-7</v>
       </c>
       <c r="E101">
-        <f>E31*0.000001/$B31</f>
-        <v>3.8445312499999999E-7</v>
+        <f t="shared" si="71"/>
+        <v>3.2335937500000001E-7</v>
       </c>
       <c r="F101">
         <f>F31*0.000001/$B31</f>
-        <v>1.2656249999999998E-7</v>
+        <v>3.8445312499999999E-7</v>
       </c>
       <c r="G101">
         <f>G31*0.000001/$B31</f>
-        <v>8.3593749999999994E-8</v>
+        <v>1.2656249999999998E-7</v>
       </c>
       <c r="H101">
         <f>H31*0.000001/$B31</f>
+        <v>8.3593749999999994E-8</v>
+      </c>
+      <c r="I101">
+        <f>I31*0.000001/$B31</f>
         <v>6.8507812500000002E-8</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f>$A$32</f>
         <v>int16</v>
@@ -10243,274 +10890,310 @@
         <v>2.40625E-6</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102" si="51">D35*0.000001/$B35</f>
+        <f t="shared" ref="D102:E102" si="72">D35*0.000001/$B35</f>
         <v>5.2773437499999991E-7</v>
       </c>
       <c r="E102">
-        <f>E35*0.000001/$B35</f>
-        <v>3.8445312499999999E-7</v>
+        <f t="shared" si="72"/>
+        <v>3.7914062499999998E-7</v>
       </c>
       <c r="F102">
         <f>F35*0.000001/$B35</f>
-        <v>1.2656249999999998E-7</v>
+        <v>3.8445312499999999E-7</v>
       </c>
       <c r="G102">
         <f>G35*0.000001/$B35</f>
-        <v>8.3593749999999994E-8</v>
+        <v>1.2656249999999998E-7</v>
       </c>
       <c r="H102">
         <f>H35*0.000001/$B35</f>
+        <v>8.3593749999999994E-8</v>
+      </c>
+      <c r="I102">
+        <f>I35*0.000001/$B35</f>
         <v>6.8507812500000002E-8</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:9">
       <c r="B104" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="C105" t="str">
-        <f t="shared" ref="C105:H105" si="52">C$21</f>
+        <f t="shared" ref="C105:I105" si="73">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
         <v>Arduino M0</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="73"/>
+        <v>Maple</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="73"/>
         <v>Arduino Due</v>
       </c>
-      <c r="F105" t="str">
-        <f t="shared" si="52"/>
+      <c r="G105" t="str">
+        <f t="shared" si="73"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="G105" t="str">
-        <f t="shared" si="52"/>
+      <c r="H105" t="str">
+        <f t="shared" si="73"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H105" t="str">
-        <f t="shared" si="52"/>
+      <c r="I105" t="str">
+        <f t="shared" si="73"/>
         <v>Python, PC</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f>$A$24</f>
         <v>float</v>
       </c>
       <c r="C106" s="10">
-        <f t="shared" ref="C106:H108" si="53">(1/$G$96)/C100</f>
+        <f t="shared" ref="C106:I108" si="74">(1/$H$96)/C100</f>
         <v>1.5748031496062995</v>
       </c>
       <c r="D106" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>4.4797849703214245</v>
       </c>
       <c r="E106" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="E106" si="75">(1/$H$96)/E100</f>
+        <v>13.000520020800831</v>
+      </c>
+      <c r="F106" s="10">
+        <f t="shared" si="74"/>
         <v>13.944084222268703</v>
       </c>
-      <c r="F106" s="10">
-        <f t="shared" si="53"/>
+      <c r="G106" s="10">
+        <f t="shared" si="74"/>
         <v>17.313019390581719</v>
       </c>
-      <c r="G106" s="10">
-        <f t="shared" si="53"/>
+      <c r="H106" s="10">
+        <f t="shared" si="74"/>
         <v>400.00000000000006</v>
       </c>
-      <c r="H106" s="10">
-        <f t="shared" si="53"/>
+      <c r="I106" s="10">
+        <f t="shared" si="74"/>
         <v>239.21298926531713</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f>$A$28</f>
         <v>int32</v>
       </c>
       <c r="C107" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>3.9920159680638729</v>
       </c>
       <c r="D107" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>49.437646768013849</v>
       </c>
       <c r="E107" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="E107" si="76">(1/$H$96)/E101</f>
+        <v>96.641700893935734</v>
+      </c>
+      <c r="F107" s="10">
+        <f t="shared" si="74"/>
         <v>81.284291810607598</v>
       </c>
-      <c r="F107" s="10">
-        <f t="shared" si="53"/>
+      <c r="G107" s="10">
+        <f t="shared" si="74"/>
         <v>246.91358024691363</v>
       </c>
-      <c r="G107" s="10">
-        <f t="shared" si="53"/>
+      <c r="H107" s="10">
+        <f t="shared" si="74"/>
         <v>373.8317757009346</v>
       </c>
-      <c r="H107" s="10">
-        <f t="shared" si="53"/>
+      <c r="I107" s="10">
+        <f t="shared" si="74"/>
         <v>456.15235488653212</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f>$A$32</f>
         <v>int16</v>
       </c>
       <c r="C108" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>12.987012987012987</v>
       </c>
       <c r="D108" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>59.21539600296078</v>
       </c>
       <c r="E108" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="E108" si="77">(1/$H$96)/E102</f>
+        <v>82.42324335462601</v>
+      </c>
+      <c r="F108" s="10">
+        <f t="shared" si="74"/>
         <v>81.284291810607598</v>
       </c>
-      <c r="F108" s="10">
-        <f t="shared" si="53"/>
+      <c r="G108" s="10">
+        <f t="shared" si="74"/>
         <v>246.91358024691363</v>
       </c>
-      <c r="G108" s="10">
-        <f t="shared" si="53"/>
+      <c r="H108" s="10">
+        <f t="shared" si="74"/>
         <v>373.8317757009346</v>
       </c>
-      <c r="H108" s="10">
-        <f t="shared" si="53"/>
+      <c r="I108" s="10">
+        <f t="shared" si="74"/>
         <v>456.15235488653212</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:9">
       <c r="B110" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="C111" t="str">
-        <f t="shared" ref="C111:H111" si="54">C$21</f>
+        <f t="shared" ref="C111:I111" si="78">C$21</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>Arduino M0</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
+        <v>Maple</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="78"/>
         <v>Arduino Due</v>
       </c>
-      <c r="F111" t="str">
-        <f t="shared" si="54"/>
+      <c r="G111" t="str">
+        <f t="shared" si="78"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="G111" t="str">
-        <f t="shared" si="54"/>
+      <c r="H111" t="str">
+        <f t="shared" si="78"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H111" t="str">
-        <f t="shared" si="54"/>
+      <c r="I111" t="str">
+        <f t="shared" si="78"/>
         <v>Python, PC</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:9">
       <c r="B112" t="str">
         <f>$A$24</f>
         <v>float</v>
       </c>
       <c r="C112" s="11">
-        <f t="shared" ref="C112:H114" si="55">$G$96/C106</f>
+        <f t="shared" ref="C112:I114" si="79">$H$96/C106</f>
         <v>20319.999999999996</v>
       </c>
       <c r="D112" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>7143.2</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="E112" si="80">$H$96/E106</f>
+        <v>2461.44</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="79"/>
         <v>2294.88</v>
       </c>
-      <c r="F112" s="11">
-        <f t="shared" si="55"/>
+      <c r="G112" s="11">
+        <f t="shared" si="79"/>
         <v>1848.32</v>
       </c>
-      <c r="G112" s="11">
-        <f t="shared" si="55"/>
+      <c r="H112" s="11">
+        <f t="shared" si="79"/>
         <v>79.999999999999986</v>
       </c>
-      <c r="H112" s="11">
-        <f t="shared" si="55"/>
+      <c r="I112" s="11">
+        <f t="shared" si="79"/>
         <v>133.77199999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f>$A$28</f>
         <v>int32</v>
       </c>
       <c r="C113" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>8015.9999999999991</v>
       </c>
       <c r="D113" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>647.28</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="E113" si="81">$H$96/E107</f>
+        <v>331.12</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="79"/>
         <v>393.68</v>
       </c>
-      <c r="F113" s="11">
-        <f t="shared" si="55"/>
+      <c r="G113" s="11">
+        <f t="shared" si="79"/>
         <v>129.59999999999997</v>
       </c>
-      <c r="G113" s="11">
-        <f t="shared" si="55"/>
+      <c r="H113" s="11">
+        <f t="shared" si="79"/>
         <v>85.6</v>
       </c>
-      <c r="H113" s="11">
-        <f t="shared" si="55"/>
+      <c r="I113" s="11">
+        <f t="shared" si="79"/>
         <v>70.152000000000001</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:9">
       <c r="B114" t="str">
         <f>$A$32</f>
         <v>int16</v>
       </c>
       <c r="C114" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>2464</v>
       </c>
       <c r="D114" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>540.39999999999986</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="E114" si="82">$H$96/E108</f>
+        <v>388.23999999999995</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="79"/>
         <v>393.68</v>
       </c>
-      <c r="F114" s="11">
-        <f t="shared" si="55"/>
+      <c r="G114" s="11">
+        <f t="shared" si="79"/>
         <v>129.59999999999997</v>
       </c>
-      <c r="G114" s="11">
-        <f t="shared" si="55"/>
+      <c r="H114" s="11">
+        <f t="shared" si="79"/>
         <v>85.6</v>
       </c>
-      <c r="H114" s="11">
-        <f t="shared" si="55"/>
+      <c r="I114" s="11">
+        <f t="shared" si="79"/>
         <v>70.152000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C24:H35">
+  <conditionalFormatting sqref="C24:I35">
     <cfRule type="cellIs" dxfId="9" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
@@ -10527,7 +11210,7 @@
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:H39 C59:H61">
+  <conditionalFormatting sqref="C37:I39 C59:I61">
     <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
@@ -10592,22 +11275,22 @@
     </row>
     <row r="9" spans="2:12">
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -10620,10 +11303,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="str">
         <f>C10</f>
@@ -10930,10 +11613,10 @@
     </row>
     <row r="6" spans="2:15">
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -10958,10 +11641,10 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -11296,14 +11979,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>24</v>
@@ -11330,153 +12018,131 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>13.66</v>
-      </c>
-      <c r="D9">
-        <v>9.26</v>
-      </c>
-      <c r="E9">
-        <v>1.86</v>
-      </c>
-      <c r="F9">
-        <v>1.85</v>
-      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>28.03</v>
-      </c>
       <c r="D10">
-        <v>19</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="E10">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="F10">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>56.67</v>
-      </c>
       <c r="D11">
-        <v>38.44</v>
+        <v>39.39</v>
       </c>
       <c r="E11">
-        <v>6.04</v>
+        <v>5.55</v>
       </c>
       <c r="F11">
-        <v>6.04</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12">
         <v>32</v>
       </c>
-      <c r="C12">
-        <v>113.85</v>
-      </c>
       <c r="D12">
-        <v>77.28</v>
+        <v>77.59</v>
       </c>
       <c r="E12">
-        <v>11.61</v>
+        <v>10.66</v>
       </c>
       <c r="F12">
-        <v>11.61</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13">
         <v>64</v>
       </c>
-      <c r="C13">
-        <v>228.12</v>
-      </c>
       <c r="D13">
-        <v>154.91999999999999</v>
+        <v>153.84</v>
       </c>
       <c r="E13">
-        <v>22.76</v>
+        <v>20.91</v>
       </c>
       <c r="F13">
-        <v>22.76</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14">
         <v>128</v>
       </c>
-      <c r="C14">
-        <v>456.55</v>
-      </c>
       <c r="D14">
-        <v>310.14999999999998</v>
+        <v>306.20999999999998</v>
       </c>
       <c r="E14">
-        <v>45.06</v>
+        <v>41.39</v>
       </c>
       <c r="F14">
-        <v>45.06</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15">
         <v>256</v>
       </c>
-      <c r="C15">
-        <v>913.3</v>
-      </c>
       <c r="D15">
-        <v>620.58000000000004</v>
+        <v>610.84</v>
       </c>
       <c r="E15">
-        <v>89.65</v>
+        <v>82.36</v>
       </c>
       <c r="F15">
-        <v>89.65</v>
+        <v>96.64</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16">
         <v>512</v>
       </c>
-      <c r="C16">
-        <v>1826.73</v>
-      </c>
       <c r="D16">
-        <v>1241.3699999999999</v>
+        <v>1220.43</v>
       </c>
       <c r="E16">
-        <v>178.85</v>
+        <v>164.31</v>
       </c>
       <c r="F16">
-        <v>178.84</v>
+        <v>192.83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="D17">
+        <v>2438.84</v>
+      </c>
+      <c r="E17">
+        <v>328.2</v>
+      </c>
+      <c r="F17">
+        <v>385.45</v>
       </c>
     </row>
   </sheetData>
@@ -11688,12 +12354,12 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -11703,13 +12369,13 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -11723,7 +12389,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -11814,12 +12480,12 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -12487,22 +13153,22 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -12515,10 +13181,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -12674,7 +13340,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="str">
         <f>C7</f>
@@ -12689,10 +13355,10 @@
         <v>48</v>
       </c>
       <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:11">

--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="9735" windowHeight="4785" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pretty Comparison" sheetId="10" r:id="rId1"/>
-    <sheet name="Comparison" sheetId="3" r:id="rId2"/>
-    <sheet name="Arduino Uno" sheetId="4" r:id="rId3"/>
-    <sheet name="Arduino M0 Pro" sheetId="1" r:id="rId4"/>
-    <sheet name="Maple" sheetId="5" r:id="rId5"/>
-    <sheet name="Arduino Due" sheetId="6" r:id="rId6"/>
-    <sheet name="Teensy 3.2" sheetId="7" r:id="rId7"/>
-    <sheet name="NXP K66" sheetId="9" r:id="rId8"/>
-    <sheet name="Python" sheetId="8" r:id="rId9"/>
+    <sheet name="Systems" sheetId="11" r:id="rId1"/>
+    <sheet name="Pretty Comparison" sheetId="10" r:id="rId2"/>
+    <sheet name="Comparison" sheetId="3" r:id="rId3"/>
+    <sheet name="Arduino Uno" sheetId="4" r:id="rId4"/>
+    <sheet name="Arduino M0 Pro" sheetId="1" r:id="rId5"/>
+    <sheet name="Maple" sheetId="5" r:id="rId6"/>
+    <sheet name="Arduino Due" sheetId="6" r:id="rId7"/>
+    <sheet name="Teensy 3.2" sheetId="7" r:id="rId8"/>
+    <sheet name="NXP K66" sheetId="9" r:id="rId9"/>
+    <sheet name="Python" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>Float</t>
   </si>
@@ -321,10 +323,124 @@
     <t>Res (Hz)</t>
   </si>
   <si>
-    <t>Best Sample Rate for FIR (Naïve C Implementation)</t>
+    <t>Max Sample Rate (Hz) with FIR at Given Resolution (Bigger is Better)</t>
   </si>
   <si>
-    <t>Max Sample Rate (Hz) with FIR at Given Resolution (Bigger is Better)</t>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>96 MHz</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>8-bit</t>
+  </si>
+  <si>
+    <t>32-bit</t>
+  </si>
+  <si>
+    <t>M0 PRO</t>
+  </si>
+  <si>
+    <t>32 KB</t>
+  </si>
+  <si>
+    <t>2 KB</t>
+  </si>
+  <si>
+    <t>20 KB</t>
+  </si>
+  <si>
+    <t>96 KB</t>
+  </si>
+  <si>
+    <t>64 KB</t>
+  </si>
+  <si>
+    <t>256 KB</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>MK20DX256</t>
+  </si>
+  <si>
+    <t>SAM3X8E</t>
+  </si>
+  <si>
+    <t>SAMD21G18</t>
+  </si>
+  <si>
+    <t>MEGA328P</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>MK66FN2M0</t>
+  </si>
+  <si>
+    <t>STM32F103</t>
+  </si>
+  <si>
+    <t>FPU</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M0+</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M3</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M4</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M4F</t>
+  </si>
+  <si>
+    <t>FIR Performance (Naïve C)</t>
+  </si>
+  <si>
+    <t>LeafLabs</t>
+  </si>
+  <si>
+    <t>PJRC</t>
   </si>
 </sst>
 </file>
@@ -337,7 +453,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,8 +494,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +519,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +601,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -479,19 +621,57 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,33 +683,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,27 +702,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -630,6 +772,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -661,6 +824,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Naive C, Int32</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1058,21 +1243,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86311680"/>
-        <c:axId val="86313216"/>
+        <c:axId val="148710144"/>
+        <c:axId val="148712064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86311680"/>
+        <c:axId val="148710144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length (N Taps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86313216"/>
+        <c:crossAx val="148712064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86313216"/>
+        <c:axId val="148712064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1088,18 +1291,45 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete FIR Filter (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86311680"/>
+        <c:crossAx val="148710144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79078827508263083"/>
+          <c:y val="0.23035897969900113"/>
+          <c:w val="0.1927217397546461"/>
+          <c:h val="0.47198460786466323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1166,7 +1396,373 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21079662231946025"/>
+          <c:y val="0.21795166229221347"/>
+          <c:w val="0.64403785561582649"/>
+          <c:h val="0.60956364829396326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$61:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10160.010160015239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21645.351229957632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25565.499628245681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400.025400038103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$60:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5639.9596744324917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19795.674375415139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27661.961651868794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400.025400038103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$59:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3549.4260376644552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5986.5081443669142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10198.24299408514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10561.849922156138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11768.778828946262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56568.542494923808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="149178240"/>
+        <c:axId val="149179776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="149178240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149179776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149179776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4282560706401765E-2"/>
+              <c:y val="0.16239610673665791"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149178240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filtering Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Naive FIR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Bigger is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1393,11 +1989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146674816"/>
-        <c:axId val="146676352"/>
+        <c:axId val="149423232"/>
+        <c:axId val="149424768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146674816"/>
+        <c:axId val="149423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +2002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="146676352"/>
+        <c:crossAx val="149424768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +2010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146676352"/>
+        <c:axId val="149424768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1457,7 +2053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146674816"/>
+        <c:crossAx val="149423232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,7 +2084,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1540,7 +2136,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1776,11 +2371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146701696"/>
-        <c:axId val="146723968"/>
+        <c:axId val="149463808"/>
+        <c:axId val="149465344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146701696"/>
+        <c:axId val="149463808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +2384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146723968"/>
+        <c:crossAx val="149465344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1797,7 +2392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146723968"/>
+        <c:axId val="149465344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +2429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146701696"/>
+        <c:crossAx val="149463808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1865,7 +2460,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2160,11 +2755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146349056"/>
-        <c:axId val="146350848"/>
+        <c:axId val="149819776"/>
+        <c:axId val="149821312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146349056"/>
+        <c:axId val="149819776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146350848"/>
+        <c:crossAx val="149821312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2181,7 +2776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146350848"/>
+        <c:axId val="149821312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2219,7 +2814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146349056"/>
+        <c:crossAx val="149819776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,394 +2829,6 @@
           <c:y val="0.36044254884806071"/>
           <c:w val="8.5931224698607603E-2"/>
           <c:h val="0.25115157480314959"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filtering Speed, Arduino Uno</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller is Better)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12221453287197231"/>
-          <c:y val="1.7121452438425121E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15304642013303429"/>
-          <c:y val="0.20566470668727532"/>
-          <c:w val="0.58638958365498428"/>
-          <c:h val="0.63668884591299479"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$32:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$28:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$24:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="146418304"/>
-        <c:axId val="146420480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="146418304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Filter Length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146420480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="146420480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to Complete (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146418304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.76728958880139997"/>
-          <c:y val="0.36325385788790032"/>
-          <c:w val="0.16016510911914555"/>
-          <c:h val="0.28498826101991276"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2924,11 +3131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146454400"/>
-        <c:axId val="146477056"/>
+        <c:axId val="149553536"/>
+        <c:axId val="149555072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146454400"/>
+        <c:axId val="149553536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +3163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146477056"/>
+        <c:crossAx val="149555072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2964,9 +3171,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146477056"/>
+        <c:axId val="149555072"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2994,7 +3200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146454400"/>
+        <c:crossAx val="149553536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3026,6 +3232,393 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filtering Speed, Arduino Uno</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller is Better)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12221453287197231"/>
+          <c:y val="1.7121452438425121E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15304642013303429"/>
+          <c:y val="0.20566470668727532"/>
+          <c:w val="0.58638958365498428"/>
+          <c:h val="0.63668884591299479"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="149590016"/>
+        <c:axId val="149591936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="149590016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149591936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149591936"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149590016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76728958880139997"/>
+          <c:y val="0.36325385788790032"/>
+          <c:w val="0.16016510911914555"/>
+          <c:h val="0.28498826101991276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3276,11 +3869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146503552"/>
-        <c:axId val="146505088"/>
+        <c:axId val="149630976"/>
+        <c:axId val="149632512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146503552"/>
+        <c:axId val="149630976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,7 +3882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146505088"/>
+        <c:crossAx val="149632512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3297,7 +3890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146505088"/>
+        <c:axId val="149632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -3335,7 +3928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146503552"/>
+        <c:crossAx val="149630976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -3343,434 +3936,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Performance,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Naïve C</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="146922880"/>
-        <c:axId val="146920960"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="146922880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Length (samples)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146920960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="146920960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Duration (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146922880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85346158319805399"/>
-          <c:y val="0.40029335261880306"/>
-          <c:w val="0.13112415861312135"/>
-          <c:h val="0.2337048183371167"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3837,7 +4002,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4111,11 +4275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146839808"/>
-        <c:axId val="146842368"/>
+        <c:axId val="149713280"/>
+        <c:axId val="149715584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146839808"/>
+        <c:axId val="149713280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,14 +4301,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146842368"/>
+        <c:crossAx val="149715584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4152,9 +4315,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146842368"/>
+        <c:axId val="149715584"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4176,14 +4338,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146839808"/>
+        <c:crossAx val="149713280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4215,6 +4376,432 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="150225280"/>
+        <c:axId val="150227584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="150225280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150227584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150227584"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150225280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4539,11 +5126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146946304"/>
-        <c:axId val="146961152"/>
+        <c:axId val="149947136"/>
+        <c:axId val="149949056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146946304"/>
+        <c:axId val="149947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,7 +5158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146961152"/>
+        <c:crossAx val="149949056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4579,7 +5166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146961152"/>
+        <c:axId val="149949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48000"/>
@@ -4610,7 +5197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146946304"/>
+        <c:crossAx val="149947136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8000"/>
@@ -4642,7 +5229,201 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FIRs Per Second (Naive C,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> N=128)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12359.411692003461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24160.425223483933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20321.072952651899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67340.06734006734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107526.8817204301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="148745600"/>
+        <c:axId val="148751488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148745600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148751488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148751488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148745600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4991,11 +5772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146992128"/>
-        <c:axId val="146994688"/>
+        <c:axId val="150004864"/>
+        <c:axId val="150007168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146992128"/>
+        <c:axId val="150004864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146994688"/>
+        <c:crossAx val="150007168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5031,7 +5812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146994688"/>
+        <c:axId val="150007168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5062,7 +5843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146992128"/>
+        <c:crossAx val="150004864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5093,199 +5874,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Duration</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of FIR (Naive C, Int32)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80.91</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="85884928"/>
-        <c:axId val="85886464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="85884928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85886464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85886464"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85884928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5432,11 +6021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147070976"/>
-        <c:axId val="147072896"/>
+        <c:axId val="148461440"/>
+        <c:axId val="148488192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147070976"/>
+        <c:axId val="148461440"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -5465,13 +6054,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="147072896"/>
+        <c:crossAx val="148488192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147072896"/>
+        <c:axId val="148488192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5501,7 +6090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147070976"/>
+        <c:crossAx val="148461440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5522,7 +6111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5669,11 +6258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147093760"/>
-        <c:axId val="147104128"/>
+        <c:axId val="150679936"/>
+        <c:axId val="150681856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147093760"/>
+        <c:axId val="150679936"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -5702,13 +6291,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147104128"/>
+        <c:crossAx val="150681856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147104128"/>
+        <c:axId val="150681856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5738,7 +6327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147093760"/>
+        <c:crossAx val="150679936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5805,31 +6394,26 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$39</c:f>
+              <c:f>'Pretty Comparison'!$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int32</c:v>
+                  <c:v>Float32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5866,27 +6450,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
+              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>396.51070578905632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12359.411692003461</c:v>
+                  <c:v>1120.1469632815824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24160.425223483933</c:v>
+                  <c:v>3265.7326671238693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20321.072952651899</c:v>
+                  <c:v>3485.1705991008257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67340.06734006734</c:v>
+                  <c:v>3990.9007462984396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107526.8817204301</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5901,11 +6485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44600320"/>
-        <c:axId val="44610304"/>
+        <c:axId val="148776448"/>
+        <c:axId val="148777984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44600320"/>
+        <c:axId val="148776448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +6498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44610304"/>
+        <c:crossAx val="148777984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5922,7 +6506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44610304"/>
+        <c:axId val="148777984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +6517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44600320"/>
+        <c:crossAx val="148776448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5976,36 +6560,222 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIRs Per Second (Naive C,</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter Time</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N=128)</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>, Naive C, N=128</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>(Smaller is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11104754886575054"/>
+          <c:y val="0.21648123439175887"/>
+          <c:w val="0.77527368004476038"/>
+          <c:h val="0.67731145511786739"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$46</c:f>
+              <c:f>'Pretty Comparison'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6021,6 +6791,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -6031,7 +6802,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6057,27 +6828,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
+              <c:f>'Pretty Comparison'!$D$22:$I$22</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>396.51070578905632</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.1469632815824</c:v>
+                  <c:v>892.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3265.7326671238693</c:v>
+                  <c:v>306.20999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3485.1705991008257</c:v>
+                  <c:v>286.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3990.9007462984396</c:v>
+                  <c:v>250.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6092,11 +6863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86356736"/>
-        <c:axId val="86358272"/>
+        <c:axId val="148830080"/>
+        <c:axId val="148831616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86356736"/>
+        <c:axId val="148830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6105,7 +6876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86358272"/>
+        <c:crossAx val="148831616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6113,25 +6884,43 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86358272"/>
+        <c:axId val="148831616"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86356736"/>
+        <c:crossAx val="148830080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6147,6 +6936,234 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Time, Naive C, N=128</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>(Smaller is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11104754886575054"/>
+          <c:y val="0.21648123439175887"/>
+          <c:w val="0.77527368004476038"/>
+          <c:h val="0.67731145511786739"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="148930944"/>
+        <c:axId val="148932480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148930944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148932480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148932480"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148930944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6420,11 +7437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150210816"/>
-        <c:axId val="150532096"/>
+        <c:axId val="149365120"/>
+        <c:axId val="149366656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150210816"/>
+        <c:axId val="149365120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +7450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150532096"/>
+        <c:crossAx val="149366656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6441,7 +7458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150532096"/>
+        <c:axId val="149366656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -6479,7 +7496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150210816"/>
+        <c:crossAx val="149365120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6501,7 +7518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7118,11 +8135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146579840"/>
-        <c:axId val="146582144"/>
+        <c:axId val="148998784"/>
+        <c:axId val="149013632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146579840"/>
+        <c:axId val="148998784"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -7147,20 +8164,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146582144"/>
+        <c:crossAx val="149013632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146582144"/>
+        <c:axId val="149013632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7186,14 +8202,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146579840"/>
+        <c:crossAx val="148998784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -7238,7 +8253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7523,11 +8538,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144454400"/>
-        <c:axId val="144455936"/>
+        <c:axId val="149035648"/>
+        <c:axId val="149045632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144454400"/>
+        <c:axId val="149035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7536,7 +8551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144455936"/>
+        <c:crossAx val="149045632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7544,7 +8559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144455936"/>
+        <c:axId val="149045632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7568,21 +8583,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144454400"/>
+        <c:crossAx val="149035648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7597,7 +8610,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7646,7 +8659,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7885,11 +8897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144486784"/>
-        <c:axId val="144488320"/>
+        <c:axId val="149063936"/>
+        <c:axId val="149073920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144486784"/>
+        <c:axId val="149063936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7898,7 +8910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144488320"/>
+        <c:crossAx val="149073920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7906,7 +8918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144488320"/>
+        <c:axId val="149073920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7930,390 +8942,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144486784"/>
+        <c:crossAx val="149063936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filtering Performance,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Naive FIR</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(Bigger is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21079662231946025"/>
-          <c:y val="0.21795166229221347"/>
-          <c:w val="0.64403785561582649"/>
-          <c:h val="0.60956364829396326"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$B$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$61:$H$61</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10160.010160015239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21645.351229957632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25565.499628245681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25400.025400038103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54433.105395181738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$B$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$60:$H$60</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5639.9596744324917</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19795.674375415139</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27661.961651868794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25400.025400038103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54433.105395181738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$B$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$59:$H$59</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3549.4260376644552</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5986.5081443669142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10198.24299408514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10561.849922156138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11768.778828946262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56568.542494923808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="146636800"/>
-        <c:axId val="146638336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="146636800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146638336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="146638336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.4282560706401765E-2"/>
-              <c:y val="0.16239610673665791"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146636800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8333,15 +8974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>447674</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8355,36 +8996,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8414,7 +9025,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8446,6 +9057,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
@@ -8454,20 +9095,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400048</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8480,6 +9121,85 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="828675" y="10891836"/>
+          <a:ext cx="5838825" cy="3167063"/>
+          <a:chOff x="828675" y="10891836"/>
+          <a:chExt cx="5838825" cy="3167063"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="10" name="Chart 9"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="828675" y="10891836"/>
+          <a:ext cx="5838825" cy="3167063"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Straight Connector 2"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1647825" y="12134850"/>
+            <a:ext cx="4181475" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9584,1459 +10304,2947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="15.75">
+      <c r="B4" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75">
+      <c r="B5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75">
+      <c r="B6" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75">
+      <c r="B7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75">
+      <c r="B8" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75">
+      <c r="B9" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75">
+      <c r="B10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75">
+      <c r="B11" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L25" sqref="K25:L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="str">
+        <f>C6</f>
+        <v>Python on PC</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="str">
+        <f>C7</f>
+        <v>i5, M540, 2.53 GHz</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>12.5</v>
+      </c>
+      <c r="D9" s="10">
+        <f>AVERAGE(F9:H9)</f>
+        <v>5.698666666666667</v>
+      </c>
+      <c r="F9">
+        <v>5.5460000000000003</v>
+      </c>
+      <c r="G9">
+        <v>5.47</v>
+      </c>
+      <c r="H9">
+        <v>6.08</v>
+      </c>
+      <c r="K9">
+        <f>D9/B9</f>
+        <v>1.4246666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>21.9</v>
+      </c>
+      <c r="D10" s="10">
+        <f>AVERAGE(F10:I10)</f>
+        <v>5.5945</v>
+      </c>
+      <c r="F10">
+        <v>5.6680000000000001</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6.55</v>
+      </c>
+      <c r="I10">
+        <v>5.16</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K21" si="0">D10/B10</f>
+        <v>0.6993125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>37.4</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" ref="D11:D21" si="1">AVERAGE(F11:I11)</f>
+        <v>5.5045000000000002</v>
+      </c>
+      <c r="F11">
+        <v>5.7679999999999998</v>
+      </c>
+      <c r="G11">
+        <v>5.3</v>
+      </c>
+      <c r="H11">
+        <v>6.1</v>
+      </c>
+      <c r="I11">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.34403125000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="1"/>
+        <v>5.6927500000000002</v>
+      </c>
+      <c r="F12">
+        <v>5.9109999999999996</v>
+      </c>
+      <c r="G12">
+        <v>6.41</v>
+      </c>
+      <c r="H12">
+        <v>5.15</v>
+      </c>
+      <c r="I12">
+        <v>5.3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.17789843750000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>90.2</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="1"/>
+        <v>8.3607499999999995</v>
+      </c>
+      <c r="F13">
+        <v>10.183</v>
+      </c>
+      <c r="G13">
+        <v>8.9</v>
+      </c>
+      <c r="H13">
+        <v>7.02</v>
+      </c>
+      <c r="I13">
+        <v>7.34</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.13063671874999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>222.9</v>
+      </c>
+      <c r="D14" s="10">
+        <f>AVERAGE(H14:I14,F14)</f>
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="F14">
+        <v>8.1969999999999992</v>
+      </c>
+      <c r="G14">
+        <v>18.11</v>
+      </c>
+      <c r="H14">
+        <v>8.27</v>
+      </c>
+      <c r="I14">
+        <v>9.84</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>6.8507812500000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>423.3</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="1"/>
+        <v>10.97575</v>
+      </c>
+      <c r="F15">
+        <v>11.093</v>
+      </c>
+      <c r="G15">
+        <v>10.33</v>
+      </c>
+      <c r="H15">
+        <v>11.87</v>
+      </c>
+      <c r="I15">
+        <v>10.61</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>4.2874023437499999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16">
+        <v>829.2</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="1"/>
+        <v>18.0565</v>
+      </c>
+      <c r="F16">
+        <v>20.045999999999999</v>
+      </c>
+      <c r="G16">
+        <v>17.88</v>
+      </c>
+      <c r="H16">
+        <v>16.25</v>
+      </c>
+      <c r="I16">
+        <v>18.05</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>3.52666015625E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>27.3535</v>
+      </c>
+      <c r="F17">
+        <v>29.384</v>
+      </c>
+      <c r="G17">
+        <v>26.82</v>
+      </c>
+      <c r="H17">
+        <v>27.16</v>
+      </c>
+      <c r="I17">
+        <v>26.05</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>2.671240234375E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>2048</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="1"/>
+        <v>48.593333333333334</v>
+      </c>
+      <c r="G18">
+        <v>47</v>
+      </c>
+      <c r="H18">
+        <v>49.97</v>
+      </c>
+      <c r="I18">
+        <v>48.81</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2.3727213541666667E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>4096</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="1"/>
+        <v>99.42</v>
+      </c>
+      <c r="G19">
+        <v>94.1</v>
+      </c>
+      <c r="H19">
+        <v>91.43</v>
+      </c>
+      <c r="I19">
+        <v>112.73</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.42724609375E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>8192</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="1"/>
+        <v>201.51333333333332</v>
+      </c>
+      <c r="G20">
+        <v>229.32</v>
+      </c>
+      <c r="H20">
+        <v>181.94</v>
+      </c>
+      <c r="I20">
+        <v>193.28</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.4598795572916665E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>16384</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="1"/>
+        <v>366.99333333333334</v>
+      </c>
+      <c r="G21">
+        <v>377.01</v>
+      </c>
+      <c r="H21">
+        <v>342.47</v>
+      </c>
+      <c r="I21">
+        <v>381.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>2.2399495442708334E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:S23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:19">
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>9.11</v>
+      </c>
+      <c r="G5">
+        <v>6.45</v>
+      </c>
+      <c r="H5">
+        <v>6.49</v>
+      </c>
+      <c r="I5">
+        <v>1.99</v>
+      </c>
+      <c r="J5">
+        <v>1.4</v>
+      </c>
+      <c r="N5">
+        <f>E5/$D5</f>
+        <v>2.5625</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:S5" si="0">F5/$D5</f>
+        <v>0.56937499999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.40312500000000001</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0.40562500000000001</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.124375</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>17.46</v>
+      </c>
+      <c r="G6">
+        <v>12.47</v>
+      </c>
+      <c r="H6">
+        <v>12.6</v>
+      </c>
+      <c r="I6">
+        <v>3.82</v>
+      </c>
+      <c r="J6">
+        <v>2.8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N23" si="1">E6/$D6</f>
+        <v>2.46875</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O23" si="2">F6/$D6</f>
+        <v>0.54562500000000003</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P23" si="3">G6/$D6</f>
+        <v>0.38968750000000002</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q23" si="4">H6/$D6</f>
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R23" si="5">I6/$D6</f>
+        <v>0.119375</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S23" si="6">J6/$D6</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>155</v>
+      </c>
+      <c r="F7">
+        <v>34.15</v>
+      </c>
+      <c r="G7">
+        <v>24.48</v>
+      </c>
+      <c r="H7">
+        <v>24.8</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
+      </c>
+      <c r="J7">
+        <v>5.4</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>2.421875</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0.53359374999999998</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>8.4375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8">
+        <v>308</v>
+      </c>
+      <c r="F8">
+        <v>67.55</v>
+      </c>
+      <c r="G8">
+        <v>48.53</v>
+      </c>
+      <c r="H8">
+        <v>49.21</v>
+      </c>
+      <c r="I8">
+        <v>14.85</v>
+      </c>
+      <c r="J8">
+        <v>10.7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>2.40625</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0.52773437499999998</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0.37914062500000001</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0.38445312500000001</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>0.116015625</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>8.3593749999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>612</v>
+      </c>
+      <c r="F9">
+        <v>134.35</v>
+      </c>
+      <c r="G9">
+        <v>96.64</v>
+      </c>
+      <c r="H9">
+        <v>98.05</v>
+      </c>
+      <c r="I9">
+        <v>29.55</v>
+      </c>
+      <c r="J9">
+        <v>21.3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>2.390625</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.52480468749999998</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0.3775</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0.38300781249999999</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>0.1154296875</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>8.3203125000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>129</v>
+      </c>
+      <c r="F12">
+        <v>10.77</v>
+      </c>
+      <c r="G12">
+        <v>5.55</v>
+      </c>
+      <c r="H12">
+        <v>6.49</v>
+      </c>
+      <c r="I12">
+        <v>1.99</v>
+      </c>
+      <c r="J12">
+        <v>1.2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>8.0625</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0.67312499999999997</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0.34687499999999999</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0.40562500000000001</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>0.124375</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>254</v>
+      </c>
+      <c r="F13">
+        <v>20.79</v>
+      </c>
+      <c r="G13">
+        <v>10.66</v>
+      </c>
+      <c r="H13">
+        <v>12.6</v>
+      </c>
+      <c r="I13">
+        <v>3.82</v>
+      </c>
+      <c r="J13">
+        <v>2.4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>7.9375</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0.64968749999999997</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0.333125</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>0.119375</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>503</v>
+      </c>
+      <c r="F14">
+        <v>40.83</v>
+      </c>
+      <c r="G14">
+        <v>20.91</v>
+      </c>
+      <c r="H14">
+        <v>24.8</v>
+      </c>
+      <c r="I14">
+        <v>7.5</v>
+      </c>
+      <c r="J14">
+        <v>4.7</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>7.859375</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0.63796874999999997</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0.32671875</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>7.3437500000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>80.91</v>
+      </c>
+      <c r="G15">
+        <v>41.39</v>
+      </c>
+      <c r="H15">
+        <v>49.21</v>
+      </c>
+      <c r="I15">
+        <v>14.85</v>
+      </c>
+      <c r="J15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7.8125</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0.63210937499999997</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0.323359375</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0.38445312500000001</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>0.116015625</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>7.2656250000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>161.06</v>
+      </c>
+      <c r="G16">
+        <v>82.36</v>
+      </c>
+      <c r="H16">
+        <v>98.05</v>
+      </c>
+      <c r="I16">
+        <v>29.55</v>
+      </c>
+      <c r="J16">
+        <v>18.5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0.62914062500000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0.32171875</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0.38300781249999999</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>0.1154296875</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>7.2265625E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>311</v>
+      </c>
+      <c r="F19">
+        <v>114.83</v>
+      </c>
+      <c r="G19">
+        <v>39.39</v>
+      </c>
+      <c r="H19">
+        <v>35.69</v>
+      </c>
+      <c r="I19">
+        <v>30.53</v>
+      </c>
+      <c r="J19">
+        <v>1.3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>19.4375</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>7.1768749999999999</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>2.461875</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>2.2306249999999999</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>1.9081250000000001</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>622</v>
+      </c>
+      <c r="F20">
+        <v>226.47</v>
+      </c>
+      <c r="G20">
+        <v>77.59</v>
+      </c>
+      <c r="H20">
+        <v>71.64</v>
+      </c>
+      <c r="I20">
+        <v>62.01</v>
+      </c>
+      <c r="J20">
+        <v>2.7</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>19.4375</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>7.0771875</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>2.4246875000000001</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>2.23875</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>1.9378124999999999</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>8.4375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>1270</v>
+      </c>
+      <c r="F21">
+        <v>446.45</v>
+      </c>
+      <c r="G21">
+        <v>153.84</v>
+      </c>
+      <c r="H21">
+        <v>143.43</v>
+      </c>
+      <c r="I21">
+        <v>124.89</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>19.84375</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>6.9757812499999998</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>2.4037500000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>2.2410937500000001</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>1.95140625</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>128</v>
+      </c>
+      <c r="E22">
+        <v>2522</v>
+      </c>
+      <c r="F22">
+        <v>892.74</v>
+      </c>
+      <c r="G22">
+        <v>306.20999999999998</v>
+      </c>
+      <c r="H22">
+        <v>286.93</v>
+      </c>
+      <c r="I22">
+        <v>250.57</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>19.703125</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>6.9745312500000001</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>2.3922656249999998</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>2.2416406250000001</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>1.9575781249999999</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="F23">
+        <v>1783.68</v>
+      </c>
+      <c r="G23">
+        <v>610.84</v>
+      </c>
+      <c r="H23">
+        <v>573.83000000000004</v>
+      </c>
+      <c r="I23">
+        <v>501.85</v>
+      </c>
+      <c r="J23">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>6.9675000000000002</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>2.3860937500000001</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>2.2415234375000002</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>1.9603515625000001</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>7.7734374999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="9" width="12.5703125" style="16" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75">
-      <c r="B2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="28" t="str">
         <f>'Arduino Uno'!$B$2</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E4" s="19" t="str">
+      <c r="E4" s="28" t="str">
         <f>'Arduino M0 Pro'!$C$6</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="28" t="str">
         <f>Maple!$B$1</f>
         <v>Maple</v>
       </c>
-      <c r="G4" s="19" t="str">
+      <c r="G4" s="28" t="str">
         <f>'Arduino Due'!$C$6</f>
         <v>Arduino Due</v>
       </c>
-      <c r="H4" s="19" t="str">
+      <c r="H4" s="28" t="str">
         <f>'Teensy 3.2'!$C$18</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I4" s="19" t="str">
+      <c r="I4" s="28" t="str">
         <f>'NXP K66'!$C$6</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="29">
         <f>'Arduino Uno'!$B13</f>
         <v>16</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="30">
         <f>'Arduino Uno'!D13</f>
         <v>41</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="30">
         <f>'Arduino M0 Pro'!L12</f>
         <v>9.11</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="30">
         <f>Maple!F11</f>
         <v>6.45</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="30">
         <f>'Arduino Due'!F11</f>
         <v>6.49</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="30">
         <f>'Teensy 3.2'!E23</f>
         <v>1.99</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="30">
         <f>'NXP K66'!E11</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="29">
         <f>'Arduino Uno'!$B14</f>
         <v>32</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="30">
         <f>'Arduino Uno'!D14</f>
         <v>79</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="30">
         <f>'Arduino M0 Pro'!L13</f>
         <v>17.46</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="30">
         <f>Maple!F12</f>
         <v>12.47</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="30">
         <f>'Arduino Due'!F12</f>
         <v>12.6</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="30">
         <f>'Teensy 3.2'!E24</f>
         <v>3.82</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="30">
         <f>'NXP K66'!E12</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="29">
         <f>'Arduino Uno'!$B15</f>
         <v>64</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="30">
         <f>'Arduino Uno'!D15</f>
         <v>155</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="30">
         <f>'Arduino M0 Pro'!L14</f>
         <v>34.15</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="30">
         <f>Maple!F13</f>
         <v>24.48</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="30">
         <f>'Arduino Due'!F13</f>
         <v>24.8</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="30">
         <f>'Teensy 3.2'!E25</f>
         <v>7.5</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="30">
         <f>'NXP K66'!E13</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="29">
         <f>'Arduino Uno'!$B16</f>
         <v>128</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="30">
         <f>'Arduino Uno'!D16</f>
         <v>308</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="30">
         <f>'Arduino M0 Pro'!L15</f>
         <v>67.55</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="30">
         <f>Maple!F14</f>
         <v>48.53</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="30">
         <f>'Arduino Due'!F14</f>
         <v>49.21</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="30">
         <f>'Teensy 3.2'!E26</f>
         <v>14.85</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="30">
         <f>'NXP K66'!E14</f>
         <v>10.7</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="29">
         <f>'Arduino Uno'!$B17</f>
         <v>256</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="30">
         <f>'Arduino Uno'!D17</f>
         <v>612</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="30">
         <f>'Arduino M0 Pro'!L16</f>
         <v>134.35</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="30">
         <f>Maple!F15</f>
         <v>96.64</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="30">
         <f>'Arduino Due'!F15</f>
         <v>98.05</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="30">
         <f>'Teensy 3.2'!E27</f>
         <v>29.55</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="30">
         <f>'NXP K66'!E15</f>
         <v>21.3</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="28" t="str">
         <f>B4</f>
         <v>Type</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="28" t="str">
         <f>C4</f>
         <v>N of FIR</v>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="28" t="str">
         <f>'Arduino Uno'!$B$2</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E11" s="19" t="str">
+      <c r="E11" s="28" t="str">
         <f>'Arduino M0 Pro'!$C$6</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="28" t="str">
         <f>Maple!$B$1</f>
         <v>Maple</v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="28" t="str">
         <f>'Arduino Due'!$C$6</f>
         <v>Arduino Due</v>
       </c>
-      <c r="H11" s="19" t="str">
+      <c r="H11" s="28" t="str">
         <f>'Teensy 3.2'!$C$18</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="34" t="str">
         <f>'NXP K66'!$C$6</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="29">
         <f>'Arduino Uno'!B13</f>
         <v>16</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="30">
         <f>'Arduino Uno'!E13</f>
         <v>129</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="30">
         <f>'Arduino M0 Pro'!M12</f>
         <v>10.77</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="30">
         <f>Maple!E11</f>
         <v>5.55</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="30">
         <f>'Arduino Due'!E11</f>
         <v>6.49</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="30">
         <f>'Teensy 3.2'!E23</f>
         <v>1.99</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="30">
         <f>'NXP K66'!D11</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="29">
         <f>'Arduino Uno'!B14</f>
         <v>32</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="30">
         <f>'Arduino Uno'!E14</f>
         <v>254</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="30">
         <f>'Arduino M0 Pro'!M13</f>
         <v>20.79</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="30">
         <f>Maple!E12</f>
         <v>10.66</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="30">
         <f>'Arduino Due'!E12</f>
         <v>12.6</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="30">
         <f>'Teensy 3.2'!E24</f>
         <v>3.82</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="30">
         <f>'NXP K66'!D12</f>
         <v>2.4</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="29">
         <f>'Arduino Uno'!B15</f>
         <v>64</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="30">
         <f>'Arduino Uno'!E15</f>
         <v>503</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="30">
         <f>'Arduino M0 Pro'!M14</f>
         <v>40.83</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="30">
         <f>Maple!E13</f>
         <v>20.91</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="30">
         <f>'Arduino Due'!E13</f>
         <v>24.8</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="30">
         <f>'Teensy 3.2'!E25</f>
         <v>7.5</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="30">
         <f>'NXP K66'!D13</f>
         <v>4.7</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="29">
         <f>'Arduino Uno'!B16</f>
         <v>128</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="30">
         <f>'Arduino Uno'!E16</f>
         <v>1000</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="30">
         <f>'Arduino M0 Pro'!M15</f>
         <v>80.91</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="30">
         <f>Maple!E14</f>
         <v>41.39</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="30">
         <f>'Arduino Due'!E14</f>
         <v>49.21</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="30">
         <f>'Teensy 3.2'!E26</f>
         <v>14.85</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="30">
         <f>'NXP K66'!D14</f>
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="29">
         <f>'Arduino Uno'!B17</f>
         <v>256</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30">
         <f>'Arduino M0 Pro'!M16</f>
         <v>161.06</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="30">
         <f>Maple!E15</f>
         <v>82.36</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="30">
         <f>'Arduino Due'!E15</f>
         <v>98.05</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="30">
         <f>'Teensy 3.2'!E27</f>
         <v>29.55</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="30">
         <f>'NXP K66'!D15</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="28" t="str">
         <f>B4</f>
         <v>Type</v>
       </c>
-      <c r="C18" s="19" t="str">
+      <c r="C18" s="28" t="str">
         <f>C4</f>
         <v>N of FIR</v>
       </c>
-      <c r="D18" s="19" t="str">
+      <c r="D18" s="28" t="str">
         <f>'Arduino Uno'!$B$2</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E18" s="19" t="str">
+      <c r="E18" s="28" t="str">
         <f>'Arduino M0 Pro'!$C$6</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="28" t="str">
         <f>Maple!$B$1</f>
         <v>Maple</v>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="28" t="str">
         <f>'Arduino Due'!$C$6</f>
         <v>Arduino Due</v>
       </c>
-      <c r="H18" s="19" t="str">
+      <c r="H18" s="28" t="str">
         <f>'Teensy 3.2'!$C$18</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I18" s="24" t="str">
+      <c r="I18" s="34" t="str">
         <f>'NXP K66'!$C$6</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="29">
         <f>'Arduino Uno'!B13</f>
         <v>16</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="30">
         <f>'Arduino Uno'!C13</f>
         <v>311</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="30">
         <f>'Arduino M0 Pro'!K12</f>
         <v>114.83</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="30">
         <f>Maple!D11</f>
         <v>39.39</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="30">
         <f>'Arduino Due'!D11</f>
         <v>35.69</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="30">
         <f>'Teensy 3.2'!D23</f>
         <v>30.53</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="30">
         <f>'NXP K66'!C11</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="29">
         <f>'Arduino Uno'!B14</f>
         <v>32</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="30">
         <f>'Arduino Uno'!C14</f>
         <v>622</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="30">
         <f>'Arduino M0 Pro'!K13</f>
         <v>226.47</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="30">
         <f>Maple!D12</f>
         <v>77.59</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="30">
         <f>'Arduino Due'!D12</f>
         <v>71.64</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="30">
         <f>'Teensy 3.2'!D24</f>
         <v>62.01</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="30">
         <f>'NXP K66'!C12</f>
         <v>2.7</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="29">
         <f>'Arduino Uno'!B15</f>
         <v>64</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="30">
         <f>'Arduino Uno'!C15</f>
         <v>1270</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="30">
         <f>'Arduino M0 Pro'!K14</f>
         <v>446.45</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="30">
         <f>Maple!D13</f>
         <v>153.84</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="30">
         <f>'Arduino Due'!D13</f>
         <v>143.43</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="30">
         <f>'Teensy 3.2'!D25</f>
         <v>124.89</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="30">
         <f>'NXP K66'!C13</f>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="29">
         <f>'Arduino Uno'!B16</f>
         <v>128</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="30">
         <f>'Arduino Uno'!C16</f>
         <v>2522</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="30">
         <f>'Arduino M0 Pro'!K15</f>
         <v>892.74</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="30">
         <f>Maple!D14</f>
         <v>306.20999999999998</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="30">
         <f>'Arduino Due'!D14</f>
         <v>286.93</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="30">
         <f>'Teensy 3.2'!D26</f>
         <v>250.57</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="30">
         <f>'NXP K66'!C14</f>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="29">
         <f>'Arduino Uno'!B17</f>
         <v>256</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30">
         <f>'Arduino M0 Pro'!K16</f>
         <v>1783.68</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="30">
         <f>Maple!D15</f>
         <v>610.84</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="30">
         <f>'Arduino Due'!D15</f>
         <v>573.83000000000004</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="30">
         <f>'Teensy 3.2'!D27</f>
         <v>501.85</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="30">
         <f>'NXP K66'!C15</f>
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="18.75">
-      <c r="B26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="B26" s="39" t="str">
+        <f>B2</f>
+        <v>FIR Performance (Naïve C)</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="17" t="str">
         <f>B4</f>
         <v>Type</v>
       </c>
-      <c r="C28" s="19" t="str">
+      <c r="C28" s="17" t="str">
         <f t="shared" ref="C28:I28" si="0">C4</f>
         <v>N of FIR</v>
       </c>
-      <c r="D28" s="31" t="str">
+      <c r="D28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Arduino Uno</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Arduino M0</v>
       </c>
-      <c r="F28" s="31" t="str">
+      <c r="F28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Maple</v>
       </c>
-      <c r="G28" s="31" t="str">
+      <c r="G28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Arduino Due</v>
       </c>
-      <c r="H28" s="31" t="str">
+      <c r="H28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I28" s="31" t="str">
+      <c r="I28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="18" t="str">
+      <c r="B29" s="16" t="str">
         <f>B5</f>
         <v>Int16</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <f>C5</f>
         <v>16</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="21">
         <f>1000000/D5</f>
         <v>24390.243902439026</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="21">
         <f t="shared" ref="E29:I29" si="1">1000000/E5</f>
         <v>109769.48408342482</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="21">
         <f t="shared" si="1"/>
         <v>155038.75968992247</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="21">
         <f t="shared" si="1"/>
         <v>154083.20493066256</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="21">
         <f t="shared" si="1"/>
         <v>502512.56281407038</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="21">
         <f t="shared" si="1"/>
         <v>714285.71428571432</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="18" t="str">
+      <c r="B30" s="16" t="str">
         <f t="shared" ref="B30:C30" si="2">B6</f>
         <v>Int16</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="21">
         <f t="shared" ref="D30:I30" si="3">1000000/D6</f>
         <v>12658.227848101265</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="21">
         <f t="shared" si="3"/>
         <v>57273.768613974797</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="21">
         <f t="shared" si="3"/>
         <v>80192.46190858059</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="21">
         <f t="shared" si="3"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="21">
         <f t="shared" si="3"/>
         <v>261780.10471204191</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="21">
         <f t="shared" si="3"/>
         <v>357142.85714285716</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="18" t="str">
+      <c r="B31" s="16" t="str">
         <f t="shared" ref="B31:C31" si="4">B7</f>
         <v>Int16</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="21">
         <f t="shared" ref="D31:I31" si="5">1000000/D7</f>
         <v>6451.6129032258068</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="21">
         <f t="shared" si="5"/>
         <v>29282.576866764277</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="21">
         <f t="shared" si="5"/>
         <v>40849.67320261438</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="21">
         <f t="shared" si="5"/>
         <v>40322.580645161288</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="21">
         <f t="shared" si="5"/>
         <v>133333.33333333334</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="21">
         <f t="shared" si="5"/>
         <v>185185.18518518517</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="18" t="str">
+      <c r="B32" s="16" t="str">
         <f t="shared" ref="B32:C32" si="6">B8</f>
         <v>Int16</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="21">
         <f t="shared" ref="D32:I32" si="7">1000000/D8</f>
         <v>3246.7532467532469</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="21">
         <f t="shared" si="7"/>
         <v>14803.849000740192</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="21">
         <f t="shared" si="7"/>
         <v>20605.8108386565</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="21">
         <f t="shared" si="7"/>
         <v>20321.072952651899</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="21">
         <f t="shared" si="7"/>
         <v>67340.06734006734</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="21">
         <f t="shared" si="7"/>
         <v>93457.943925233645</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="18" t="str">
+      <c r="B33" s="16" t="str">
         <f t="shared" ref="B33:C33" si="8">B9</f>
         <v>Int16</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="21">
         <f t="shared" ref="D33:I33" si="9">1000000/D9</f>
         <v>1633.9869281045751</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="21">
         <f t="shared" si="9"/>
         <v>7443.2452549311502</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="21">
         <f t="shared" si="9"/>
         <v>10347.682119205298</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="21">
         <f t="shared" si="9"/>
         <v>10198.878123406426</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="21">
         <f t="shared" si="9"/>
         <v>33840.947546531301</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="21">
         <f t="shared" si="9"/>
         <v>46948.356807511736</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="19" t="str">
+      <c r="B35" s="17" t="str">
         <f t="shared" ref="B35:C35" si="10">B11</f>
         <v>Type</v>
       </c>
-      <c r="C35" s="19" t="str">
+      <c r="C35" s="17" t="str">
         <f t="shared" si="10"/>
         <v>N of FIR</v>
       </c>
-      <c r="D35" s="35" t="str">
+      <c r="D35" s="24" t="str">
         <f>D11</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E35" s="35" t="str">
+      <c r="E35" s="24" t="str">
         <f t="shared" ref="E35:I35" si="11">E11</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F35" s="35" t="str">
+      <c r="F35" s="24" t="str">
         <f t="shared" si="11"/>
         <v>Maple</v>
       </c>
-      <c r="G35" s="35" t="str">
+      <c r="G35" s="24" t="str">
         <f t="shared" si="11"/>
         <v>Arduino Due</v>
       </c>
-      <c r="H35" s="35" t="str">
+      <c r="H35" s="24" t="str">
         <f t="shared" si="11"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I35" s="35" t="str">
+      <c r="I35" s="24" t="str">
         <f t="shared" si="11"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="18" t="str">
+      <c r="B36" s="16" t="str">
         <f t="shared" ref="B36:C36" si="12">B12</f>
         <v>Int32</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="21">
         <f t="shared" ref="D36:I36" si="13">1000000/D12</f>
         <v>7751.937984496124</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="21">
         <f t="shared" si="13"/>
         <v>92850.510677808736</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="21">
         <f t="shared" si="13"/>
         <v>180180.18018018018</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="21">
         <f t="shared" si="13"/>
         <v>154083.20493066256</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="21">
         <f t="shared" si="13"/>
         <v>502512.56281407038</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="21">
         <f t="shared" si="13"/>
         <v>833333.33333333337</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="18" t="str">
+      <c r="B37" s="16" t="str">
         <f t="shared" ref="B37:C37" si="14">B13</f>
         <v>Int32</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="21">
         <f t="shared" ref="D37:I37" si="15">1000000/D13</f>
         <v>3937.0078740157483</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="21">
         <f t="shared" si="15"/>
         <v>48100.048100048101</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="21">
         <f t="shared" si="15"/>
         <v>93808.630393996253</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="21">
         <f t="shared" si="15"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="21">
         <f t="shared" si="15"/>
         <v>261780.10471204191</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="21">
         <f t="shared" si="15"/>
         <v>416666.66666666669</v>
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="18" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" ref="B38:C38" si="16">B14</f>
         <v>Int32</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <f t="shared" si="16"/>
         <v>64</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="21">
         <f t="shared" ref="D38:I38" si="17">1000000/D14</f>
         <v>1988.0715705765408</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="21">
         <f t="shared" si="17"/>
         <v>24491.795248591723</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="21">
         <f t="shared" si="17"/>
         <v>47824.007651841224</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="21">
         <f t="shared" si="17"/>
         <v>40322.580645161288</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="21">
         <f t="shared" si="17"/>
         <v>133333.33333333334</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="21">
         <f t="shared" si="17"/>
         <v>212765.95744680849</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="18" t="str">
+      <c r="B39" s="16" t="str">
         <f t="shared" ref="B39:C39" si="18">B15</f>
         <v>Int32</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <f t="shared" si="18"/>
         <v>128</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="21">
         <f t="shared" ref="D39:I39" si="19">1000000/D15</f>
         <v>1000</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="21">
         <f t="shared" si="19"/>
         <v>12359.411692003461</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="21">
         <f t="shared" si="19"/>
         <v>24160.425223483933</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="21">
         <f t="shared" si="19"/>
         <v>20321.072952651899</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="21">
         <f t="shared" si="19"/>
         <v>67340.06734006734</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="21">
         <f t="shared" si="19"/>
         <v>107526.8817204301</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="18" t="str">
+      <c r="B40" s="16" t="str">
         <f t="shared" ref="B40:C40" si="20">B16</f>
         <v>Int32</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="16">
         <f t="shared" si="20"/>
         <v>256</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32">
-        <f t="shared" ref="D40:I40" si="21">1000000/E16</f>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21">
+        <f t="shared" ref="E40:I40" si="21">1000000/E16</f>
         <v>6208.8662610207375</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="21">
         <f t="shared" si="21"/>
         <v>12141.816415735793</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="21">
         <f t="shared" si="21"/>
         <v>10198.878123406426</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="21">
         <f t="shared" si="21"/>
         <v>33840.947546531301</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="21">
         <f t="shared" si="21"/>
         <v>54054.054054054053</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="19" t="str">
+      <c r="B42" s="17" t="str">
         <f t="shared" ref="B42:C42" si="22">B18</f>
         <v>Type</v>
       </c>
-      <c r="C42" s="19" t="str">
+      <c r="C42" s="17" t="str">
         <f t="shared" si="22"/>
         <v>N of FIR</v>
       </c>
-      <c r="D42" s="35" t="str">
+      <c r="D42" s="24" t="str">
         <f>D18</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E42" s="35" t="str">
+      <c r="E42" s="24" t="str">
         <f t="shared" ref="E42:I42" si="23">E18</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F42" s="35" t="str">
+      <c r="F42" s="24" t="str">
         <f t="shared" si="23"/>
         <v>Maple</v>
       </c>
-      <c r="G42" s="35" t="str">
+      <c r="G42" s="24" t="str">
         <f t="shared" si="23"/>
         <v>Arduino Due</v>
       </c>
-      <c r="H42" s="35" t="str">
+      <c r="H42" s="24" t="str">
         <f t="shared" si="23"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I42" s="35" t="str">
+      <c r="I42" s="24" t="str">
         <f t="shared" si="23"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="18" t="str">
+      <c r="B43" s="16" t="str">
         <f t="shared" ref="B43:C43" si="24">B19</f>
         <v>Float32</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="16">
         <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="21">
         <f t="shared" ref="D43:I43" si="25">1000000/D19</f>
         <v>3215.4340836012861</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="21">
         <f t="shared" si="25"/>
         <v>8708.52564660803</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="21">
         <f t="shared" si="25"/>
         <v>25387.154100025386</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="21">
         <f t="shared" si="25"/>
         <v>28019.052956010088</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="21">
         <f t="shared" si="25"/>
         <v>32754.667540124465</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="21">
         <f t="shared" si="25"/>
         <v>769230.76923076925</v>
       </c>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="18" t="str">
+      <c r="B44" s="16" t="str">
         <f t="shared" ref="B44:C44" si="26">B20</f>
         <v>Float32</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="16">
         <f t="shared" si="26"/>
         <v>32</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="21">
         <f t="shared" ref="D44:I44" si="27">1000000/D20</f>
         <v>1607.7170418006431</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="21">
         <f t="shared" si="27"/>
         <v>4415.5958846646354</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="21">
         <f t="shared" si="27"/>
         <v>12888.258796236629</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="21">
         <f t="shared" si="27"/>
         <v>13958.682300390843</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="21">
         <f t="shared" si="27"/>
         <v>16126.431220770844</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="21">
         <f t="shared" si="27"/>
         <v>370370.37037037034</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="18" t="str">
+      <c r="B45" s="16" t="str">
         <f t="shared" ref="B45:C45" si="28">B21</f>
         <v>Float32</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="16">
         <f t="shared" si="28"/>
         <v>64</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="21">
         <f t="shared" ref="D45:I45" si="29">1000000/D21</f>
         <v>787.40157480314963</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="21">
         <f t="shared" si="29"/>
         <v>2239.8924851607126</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="21">
         <f t="shared" si="29"/>
         <v>6500.2600104004159</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="21">
         <f t="shared" si="29"/>
         <v>6972.0421111343512</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="21">
         <f t="shared" si="29"/>
         <v>8007.0462006565776</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="21">
         <f t="shared" si="29"/>
         <v>200000</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="18" t="str">
+      <c r="B46" s="16" t="str">
         <f t="shared" ref="B46:C46" si="30">B22</f>
         <v>Float32</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="16">
         <f t="shared" si="30"/>
         <v>128</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="21">
         <f t="shared" ref="D46:I46" si="31">1000000/D22</f>
         <v>396.51070578905632</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="21">
         <f t="shared" si="31"/>
         <v>1120.1469632815824</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="21">
         <f t="shared" si="31"/>
         <v>3265.7326671238693</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="21">
         <f t="shared" si="31"/>
         <v>3485.1705991008257</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="21">
         <f t="shared" si="31"/>
         <v>3990.9007462984396</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="21">
         <f t="shared" si="31"/>
         <v>100000</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="18" t="str">
+      <c r="B47" s="16" t="str">
         <f t="shared" ref="B47:C47" si="32">B23</f>
         <v>Float32</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="16">
         <f t="shared" si="32"/>
         <v>256</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32">
-        <f t="shared" ref="D47:I47" si="33">1000000/E23</f>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21">
+        <f t="shared" ref="E47:I47" si="33">1000000/E23</f>
         <v>560.63867958378182</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="21">
         <f t="shared" si="33"/>
         <v>1637.0899089778011</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="21">
         <f t="shared" si="33"/>
         <v>1742.6764024188346</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="21">
         <f t="shared" si="33"/>
         <v>1992.6272790674504</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="21">
         <f t="shared" si="33"/>
         <v>50251.256281407041</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="18.75">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="39" t="str">
+        <f>B2</f>
+        <v>FIR Performance (Naïve C)</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="40" t="str">
+        <f>B3</f>
+        <v>Inputs</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="42"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="31" t="str">
-        <f>D28</f>
+      <c r="D52" s="35" t="str">
+        <f t="shared" ref="D52:I52" si="34">D28</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E52" s="31" t="str">
-        <f>E28</f>
+      <c r="E52" s="35" t="str">
+        <f t="shared" si="34"/>
         <v>Arduino M0</v>
       </c>
-      <c r="F52" s="31" t="str">
-        <f>F28</f>
+      <c r="F52" s="35" t="str">
+        <f t="shared" si="34"/>
         <v>Maple</v>
       </c>
-      <c r="G52" s="31" t="str">
-        <f>G28</f>
+      <c r="G52" s="35" t="str">
+        <f t="shared" si="34"/>
         <v>Arduino Due</v>
       </c>
-      <c r="H52" s="31" t="str">
-        <f>H28</f>
+      <c r="H52" s="35" t="str">
+        <f t="shared" si="34"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I52" s="31" t="str">
-        <f>I28</f>
+      <c r="I52" s="35" t="str">
+        <f t="shared" si="34"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="18" t="str">
+      <c r="B53" s="29" t="str">
         <f>B32</f>
         <v>Int16</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="29">
         <v>250</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="21">
         <f>SQRT($C53/(D8*0.000001/$C8))</f>
         <v>10192.94382875251</v>
       </c>
-      <c r="E53" s="32">
-        <f t="shared" ref="E53:I53" si="34">SQRT($C53/(E8*0.000001/$C8))</f>
+      <c r="E53" s="21">
+        <f t="shared" ref="E53:I53" si="35">SQRT($C53/(E8*0.000001/$C8))</f>
         <v>21765.18247163773</v>
       </c>
-      <c r="F53" s="32">
-        <f t="shared" si="34"/>
+      <c r="F53" s="21">
+        <f t="shared" si="35"/>
         <v>25678.511382808159</v>
       </c>
-      <c r="G53" s="32">
-        <f t="shared" si="34"/>
+      <c r="G53" s="21">
+        <f t="shared" si="35"/>
         <v>25500.477142297961</v>
       </c>
-      <c r="H53" s="32">
-        <f t="shared" si="34"/>
+      <c r="H53" s="21">
+        <f t="shared" si="35"/>
         <v>46420.708254852754</v>
       </c>
-      <c r="I53" s="32">
-        <f t="shared" si="34"/>
+      <c r="I53" s="21">
+        <f t="shared" si="35"/>
         <v>54686.874161973057</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="18" t="str">
+      <c r="B54" s="29" t="str">
         <f>B39</f>
         <v>Int32</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="29">
         <v>250</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="21">
         <f>SQRT($C54/(D15*0.000001/$C15))</f>
         <v>5656.8542494923804</v>
       </c>
-      <c r="E54" s="32">
-        <f t="shared" ref="E54:I54" si="35">SQRT($C54/(E15*0.000001/$C15))</f>
+      <c r="E54" s="21">
+        <f t="shared" ref="E54:I54" si="36">SQRT($C54/(E15*0.000001/$C15))</f>
         <v>19887.211321452556</v>
       </c>
-      <c r="F54" s="32">
-        <f t="shared" si="35"/>
+      <c r="F54" s="21">
+        <f t="shared" si="36"/>
         <v>27805.280202714839</v>
       </c>
-      <c r="G54" s="32">
-        <f t="shared" si="35"/>
+      <c r="G54" s="21">
+        <f t="shared" si="36"/>
         <v>25500.477142297961</v>
       </c>
-      <c r="H54" s="32">
-        <f t="shared" si="35"/>
+      <c r="H54" s="21">
+        <f t="shared" si="36"/>
         <v>46420.708254852754</v>
       </c>
-      <c r="I54" s="32">
-        <f t="shared" si="35"/>
+      <c r="I54" s="21">
+        <f t="shared" si="36"/>
         <v>58658.846008541317</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="18" t="str">
+      <c r="B55" s="29" t="str">
         <f>B46</f>
         <v>Float32</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="29">
         <v>250</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="21">
         <f>SQRT($C55/(D22*0.000001/$C22))</f>
         <v>3562.0699860123191</v>
       </c>
-      <c r="E55" s="32">
-        <f t="shared" ref="E55:I55" si="36">SQRT($C55/(E22*0.000001/$C22))</f>
+      <c r="E55" s="21">
+        <f t="shared" ref="E55:I55" si="37">SQRT($C55/(E22*0.000001/$C22))</f>
         <v>5987.0445818459248</v>
       </c>
-      <c r="F55" s="32">
-        <f t="shared" si="36"/>
+      <c r="F55" s="21">
+        <f t="shared" si="37"/>
         <v>10222.692666218809</v>
       </c>
-      <c r="G55" s="32">
-        <f t="shared" si="36"/>
+      <c r="G55" s="21">
+        <f t="shared" si="37"/>
         <v>10560.561498861054</v>
       </c>
-      <c r="H55" s="32">
-        <f t="shared" si="36"/>
+      <c r="H55" s="21">
+        <f t="shared" si="37"/>
         <v>11300.832884418302</v>
       </c>
-      <c r="I55" s="32">
-        <f t="shared" si="36"/>
+      <c r="I55" s="21">
+        <f t="shared" si="37"/>
         <v>56568.542494923808</v>
       </c>
     </row>
@@ -11054,15 +13262,15 @@
     <mergeCell ref="B26:I26"/>
   </mergeCells>
   <conditionalFormatting sqref="D53:I55">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
-      <formula>32000</formula>
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThanOrEqual">
+      <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
       <formula>32000</formula>
       <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>44100</formula>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+      <formula>32000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11070,11 +13278,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD114"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -11147,15 +13355,15 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
@@ -11536,15 +13744,15 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
     </row>
     <row r="14" spans="2:17">
       <c r="C14" t="s">
@@ -14235,36 +16443,36 @@
     <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="C24:I35">
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>$D$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>$D$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:I39 C59:I61">
-    <cfRule type="cellIs" dxfId="7" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>$C$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>$C$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>$C$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>$C$16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14273,7 +16481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L37"/>
   <sheetViews>
@@ -14627,7 +16835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O21"/>
   <sheetViews>
@@ -15018,7 +17226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F17"/>
   <sheetViews>
@@ -15192,7 +17400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F16"/>
   <sheetViews>
@@ -15383,7 +17591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K52"/>
   <sheetViews>
@@ -16177,7 +18385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
@@ -16353,391 +18561,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:K21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L25" sqref="K25:L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:11">
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="str">
-        <f>C6</f>
-        <v>Python on PC</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="str">
-        <f>C7</f>
-        <v>i5, M540, 2.53 GHz</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>12.5</v>
-      </c>
-      <c r="D9" s="10">
-        <f>AVERAGE(F9:H9)</f>
-        <v>5.698666666666667</v>
-      </c>
-      <c r="F9">
-        <v>5.5460000000000003</v>
-      </c>
-      <c r="G9">
-        <v>5.47</v>
-      </c>
-      <c r="H9">
-        <v>6.08</v>
-      </c>
-      <c r="K9">
-        <f>D9/B9</f>
-        <v>1.4246666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>21.9</v>
-      </c>
-      <c r="D10" s="10">
-        <f>AVERAGE(F10:I10)</f>
-        <v>5.5945</v>
-      </c>
-      <c r="F10">
-        <v>5.6680000000000001</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>6.55</v>
-      </c>
-      <c r="I10">
-        <v>5.16</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K21" si="0">D10/B10</f>
-        <v>0.6993125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>37.4</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:D21" si="1">AVERAGE(F11:I11)</f>
-        <v>5.5045000000000002</v>
-      </c>
-      <c r="F11">
-        <v>5.7679999999999998</v>
-      </c>
-      <c r="G11">
-        <v>5.3</v>
-      </c>
-      <c r="H11">
-        <v>6.1</v>
-      </c>
-      <c r="I11">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.34403125000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>58</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="1"/>
-        <v>5.6927500000000002</v>
-      </c>
-      <c r="F12">
-        <v>5.9109999999999996</v>
-      </c>
-      <c r="G12">
-        <v>6.41</v>
-      </c>
-      <c r="H12">
-        <v>5.15</v>
-      </c>
-      <c r="I12">
-        <v>5.3</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0.17789843750000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>90.2</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="1"/>
-        <v>8.3607499999999995</v>
-      </c>
-      <c r="F13">
-        <v>10.183</v>
-      </c>
-      <c r="G13">
-        <v>8.9</v>
-      </c>
-      <c r="H13">
-        <v>7.02</v>
-      </c>
-      <c r="I13">
-        <v>7.34</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0.13063671874999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>222.9</v>
-      </c>
-      <c r="D14" s="10">
-        <f>AVERAGE(H14:I14,F14)</f>
-        <v>8.7690000000000001</v>
-      </c>
-      <c r="F14">
-        <v>8.1969999999999992</v>
-      </c>
-      <c r="G14">
-        <v>18.11</v>
-      </c>
-      <c r="H14">
-        <v>8.27</v>
-      </c>
-      <c r="I14">
-        <v>9.84</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>6.8507812500000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15">
-        <v>423.3</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="1"/>
-        <v>10.97575</v>
-      </c>
-      <c r="F15">
-        <v>11.093</v>
-      </c>
-      <c r="G15">
-        <v>10.33</v>
-      </c>
-      <c r="H15">
-        <v>11.87</v>
-      </c>
-      <c r="I15">
-        <v>10.61</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>4.2874023437499999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16">
-        <v>512</v>
-      </c>
-      <c r="C16">
-        <v>829.2</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="1"/>
-        <v>18.0565</v>
-      </c>
-      <c r="F16">
-        <v>20.045999999999999</v>
-      </c>
-      <c r="G16">
-        <v>17.88</v>
-      </c>
-      <c r="H16">
-        <v>16.25</v>
-      </c>
-      <c r="I16">
-        <v>18.05</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>3.52666015625E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17">
-        <v>1024</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="1"/>
-        <v>27.3535</v>
-      </c>
-      <c r="F17">
-        <v>29.384</v>
-      </c>
-      <c r="G17">
-        <v>26.82</v>
-      </c>
-      <c r="H17">
-        <v>27.16</v>
-      </c>
-      <c r="I17">
-        <v>26.05</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>2.671240234375E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18">
-        <v>2048</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="1"/>
-        <v>48.593333333333334</v>
-      </c>
-      <c r="G18">
-        <v>47</v>
-      </c>
-      <c r="H18">
-        <v>49.97</v>
-      </c>
-      <c r="I18">
-        <v>48.81</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>2.3727213541666667E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19">
-        <v>4096</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="1"/>
-        <v>99.42</v>
-      </c>
-      <c r="G19">
-        <v>94.1</v>
-      </c>
-      <c r="H19">
-        <v>91.43</v>
-      </c>
-      <c r="I19">
-        <v>112.73</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>2.42724609375E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20">
-        <v>8192</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="1"/>
-        <v>201.51333333333332</v>
-      </c>
-      <c r="G20">
-        <v>229.32</v>
-      </c>
-      <c r="H20">
-        <v>181.94</v>
-      </c>
-      <c r="I20">
-        <v>193.28</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>2.4598795572916665E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21">
-        <v>16384</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="1"/>
-        <v>366.99333333333334</v>
-      </c>
-      <c r="G21">
-        <v>377.01</v>
-      </c>
-      <c r="H21">
-        <v>342.47</v>
-      </c>
-      <c r="I21">
-        <v>381.5</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>2.2399495442708334E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -317,9 +317,6 @@
     <t>Time to Complete FIR (microseconds, smaller is better)</t>
   </si>
   <si>
-    <t>FIR per Second (Bigger is Better)</t>
-  </si>
-  <si>
     <t>Res (Hz)</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   </si>
   <si>
     <t>PJRC</t>
+  </si>
+  <si>
+    <t>FIR Filters per Second (Bigger is Better)</t>
   </si>
 </sst>
 </file>
@@ -671,16 +671,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,6 +844,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1243,11 +1244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148710144"/>
-        <c:axId val="148712064"/>
+        <c:axId val="178981504"/>
+        <c:axId val="179004160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148710144"/>
+        <c:axId val="178981504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,13 +1270,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148712064"/>
+        <c:crossAx val="179004160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148712064"/>
+        <c:axId val="179004160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1307,13 +1309,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148710144"/>
+        <c:crossAx val="178981504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,31 +1371,28 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filtering Performance,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Naive FIR</a:t>
+              <a:t>FIR Filtering Performance, Naive FIR</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(Bigger is Better)</a:t>
+              <a:t>(Smaller is Better)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1400,27 +1400,16 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21079662231946025"/>
-          <c:y val="0.21795166229221347"/>
-          <c:w val="0.64403785561582649"/>
-          <c:h val="0.60956364829396326"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$B$61</c:f>
+              <c:f>Comparison!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1429,12 +1418,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1452,44 +1440,48 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$61:$H$61</c:f>
+              <c:f>Comparison!$C$34:$H$34</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10160.010160015239</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21645.351229957632</c:v>
+                  <c:v>34.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25565.499628245681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25400.025400038103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54433.105395181738</c:v>
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$B$60</c:f>
+              <c:f>Comparison!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1498,12 +1490,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1521,44 +1512,48 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$60:$H$60</c:f>
+              <c:f>Comparison!$C$30:$H$30</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5639.9596744324917</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19795.674375415139</c:v>
+                  <c:v>40.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27661.961651868794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25400.025400038103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54433.105395181738</c:v>
+                  <c:v>20.91</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$B$59</c:f>
+              <c:f>Comparison!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,12 +1562,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1590,37 +1588,41 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$59:$H$59</c:f>
+              <c:f>Comparison!$C$26:$H$26</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3549.4260376644552</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5986.5081443669142</c:v>
+                  <c:v>446.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10198.24299408514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10561.849922156138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11768.778828946262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56568.542494923808</c:v>
+                  <c:v>153.84</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>143.43</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>115.52</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1630,12 +1632,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="149178240"/>
-        <c:axId val="149179776"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="179900416"/>
+        <c:axId val="179901952"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="149178240"/>
+        <c:axId val="179900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149179776"/>
+        <c:crossAx val="179901952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,8 +1655,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149179776"/>
+        <c:axId val="179901952"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1670,29 +1674,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
+                  <a:t>Time for -Point FIR (usec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.4282560706401765E-2"/>
-              <c:y val="0.16239610673665791"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149178240"/>
+        <c:crossAx val="179900416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1772,6 +1767,373 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.21079662231946025"/>
+          <c:y val="0.21795166229221347"/>
+          <c:w val="0.64403785561582649"/>
+          <c:h val="0.60956364829396326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$61:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10160.010160015239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21645.351229957632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25565.499628245681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400.025400038103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$60:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5639.9596744324917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19795.674375415139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27661.961651868794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400.025400038103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$59:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3549.4260376644552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5986.5081443669142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10198.24299408514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10561.849922156138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11768.778828946262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56568.542494923808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="179932544"/>
+        <c:axId val="179938432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="179932544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179938432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179938432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4282560706401765E-2"/>
+              <c:y val="0.16239610673665791"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179932544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filtering Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Naive FIR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Bigger is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.16542799327766317"/>
           <c:y val="0.19480351414406533"/>
           <c:w val="0.68940648465762355"/>
@@ -1989,11 +2351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149423232"/>
-        <c:axId val="149424768"/>
+        <c:axId val="179706880"/>
+        <c:axId val="179708672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149423232"/>
+        <c:axId val="179706880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="149424768"/>
+        <c:crossAx val="179708672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,7 +2372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149424768"/>
+        <c:axId val="179708672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2053,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149423232"/>
+        <c:crossAx val="179706880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,7 +2446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2371,11 +2733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149463808"/>
-        <c:axId val="149465344"/>
+        <c:axId val="179751552"/>
+        <c:axId val="179757440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149463808"/>
+        <c:axId val="179751552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +2746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149465344"/>
+        <c:crossAx val="179757440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2392,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149465344"/>
+        <c:axId val="179757440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149463808"/>
+        <c:crossAx val="179751552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2460,7 +2822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2755,11 +3117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149819776"/>
-        <c:axId val="149821312"/>
+        <c:axId val="179783936"/>
+        <c:axId val="179789824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149819776"/>
+        <c:axId val="179783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +3130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149821312"/>
+        <c:crossAx val="179789824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2776,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149821312"/>
+        <c:axId val="179789824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2814,7 +3176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149819776"/>
+        <c:crossAx val="179783936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,392 +3191,6 @@
           <c:y val="0.36044254884806071"/>
           <c:w val="8.5931224698607603E-2"/>
           <c:h val="0.25115157480314959"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filtering Speed, Arduino Uno</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller is Better)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12221453287197231"/>
-          <c:y val="1.7121452438425121E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15304642013303429"/>
-          <c:y val="0.20566470668727532"/>
-          <c:w val="0.58638958365498428"/>
-          <c:h val="0.63668884591299479"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$32:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$28:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$24:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149553536"/>
-        <c:axId val="149555072"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149553536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Filter Length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149555072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149555072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to Complete (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149553536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.76728958880139997"/>
-          <c:y val="0.36325385788790032"/>
-          <c:w val="0.16016510911914555"/>
-          <c:h val="0.28498826101991276"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3517,11 +3493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149590016"/>
-        <c:axId val="149591936"/>
+        <c:axId val="179824512"/>
+        <c:axId val="179838976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149590016"/>
+        <c:axId val="179824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +3525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149591936"/>
+        <c:crossAx val="179838976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3557,9 +3533,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149591936"/>
+        <c:axId val="179838976"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3587,7 +3562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149590016"/>
+        <c:crossAx val="179824512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3619,6 +3594,393 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filtering Speed, Arduino Uno</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller is Better)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12221453287197231"/>
+          <c:y val="1.7121452438425121E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15304642013303429"/>
+          <c:y val="0.20566470668727532"/>
+          <c:w val="0.58638958365498428"/>
+          <c:h val="0.63668884591299479"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="179861376"/>
+        <c:axId val="179867648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="179861376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179867648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179867648"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179861376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76728958880139997"/>
+          <c:y val="0.36325385788790032"/>
+          <c:w val="0.16016510911914555"/>
+          <c:h val="0.28498826101991276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3869,11 +4231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149630976"/>
-        <c:axId val="149632512"/>
+        <c:axId val="180307840"/>
+        <c:axId val="180309376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149630976"/>
+        <c:axId val="180307840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +4244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149632512"/>
+        <c:crossAx val="180309376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3890,7 +4252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149632512"/>
+        <c:axId val="180309376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -3928,7 +4290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149630976"/>
+        <c:crossAx val="180307840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -3936,431 +4298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Performance,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Naïve C</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149713280"/>
-        <c:axId val="149715584"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149713280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Length (samples)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149715584"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149715584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Duration (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149713280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85346158319805399"/>
-          <c:y val="0.40029335261880306"/>
-          <c:w val="0.13112415861312135"/>
-          <c:h val="0.2337048183371167"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4700,11 +4637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150225280"/>
-        <c:axId val="150227584"/>
+        <c:axId val="178300800"/>
+        <c:axId val="178307456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150225280"/>
+        <c:axId val="178300800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,7 +4669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150227584"/>
+        <c:crossAx val="178307456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4740,9 +4677,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150227584"/>
+        <c:axId val="178307456"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4770,7 +4706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150225280"/>
+        <c:crossAx val="178300800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4802,6 +4738,758 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="178333568"/>
+        <c:axId val="178336128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178333568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178336128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178336128"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178333568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter Time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>(Naive C, N=128, Smaller is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11104754886575054"/>
+          <c:y val="0.21648123439175887"/>
+          <c:w val="0.77527368004476038"/>
+          <c:h val="0.67731145511786739"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2893071379013952E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>892.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>286.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="179160576"/>
+        <c:axId val="179162112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="179160576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179162112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179162112"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179160576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5126,11 +5814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149947136"/>
-        <c:axId val="149949056"/>
+        <c:axId val="178370432"/>
+        <c:axId val="178372992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149947136"/>
+        <c:axId val="178370432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,7 +5846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149949056"/>
+        <c:crossAx val="178372992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5166,7 +5854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149949056"/>
+        <c:axId val="178372992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48000"/>
@@ -5197,7 +5885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149947136"/>
+        <c:crossAx val="178370432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8000"/>
@@ -5229,201 +5917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIRs Per Second (Naive C,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N=128)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12359.411692003461</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24160.425223483933</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20321.072952651899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67340.06734006734</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>107526.8817204301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="148745600"/>
-        <c:axId val="148751488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="148745600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148751488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="148751488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148745600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5772,11 +6266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150004864"/>
-        <c:axId val="150007168"/>
+        <c:axId val="178416256"/>
+        <c:axId val="178431104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150004864"/>
+        <c:axId val="178416256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,7 +6298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150007168"/>
+        <c:crossAx val="178431104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5812,7 +6306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150007168"/>
+        <c:axId val="178431104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5843,7 +6337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150004864"/>
+        <c:crossAx val="178416256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5874,7 +6368,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6021,11 +6515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148461440"/>
-        <c:axId val="148488192"/>
+        <c:axId val="180268416"/>
+        <c:axId val="180282880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148461440"/>
+        <c:axId val="180268416"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6054,13 +6548,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="148488192"/>
+        <c:crossAx val="180282880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148488192"/>
+        <c:axId val="180282880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6090,7 +6584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148461440"/>
+        <c:crossAx val="180268416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6111,7 +6605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6258,11 +6752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150679936"/>
-        <c:axId val="150681856"/>
+        <c:axId val="184891264"/>
+        <c:axId val="184893440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150679936"/>
+        <c:axId val="184891264"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6291,13 +6785,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150681856"/>
+        <c:crossAx val="184893440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150681856"/>
+        <c:axId val="184893440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6327,7 +6821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150679936"/>
+        <c:crossAx val="184891264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6369,17 +6863,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIRs Per Second (Naive C,</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N=128)</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Time</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>(Naive C, N=128, Smaller is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6388,32 +6891,43 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11104754886575054"/>
+          <c:y val="0.21648123439175887"/>
+          <c:w val="0.77527368004476038"/>
+          <c:h val="0.67731145511786739"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$46</c:f>
+              <c:f>'Pretty Comparison'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Float32</c:v>
+                  <c:v>Int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -6424,7 +6938,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6450,27 +6964,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
+              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>396.51070578905632</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.1469632815824</c:v>
+                  <c:v>80.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3265.7326671238693</c:v>
+                  <c:v>41.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3485.1705991008257</c:v>
+                  <c:v>49.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3990.9007462984396</c:v>
+                  <c:v>14.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6485,11 +6999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148776448"/>
-        <c:axId val="148777984"/>
+        <c:axId val="179200000"/>
+        <c:axId val="179201536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148776448"/>
+        <c:axId val="179200000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,7 +7012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148777984"/>
+        <c:crossAx val="179201536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6506,18 +7020,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148777984"/>
+        <c:axId val="179201536"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148776448"/>
+        <c:crossAx val="179200000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6564,11 +7098,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filter Time</a:t>
+              <a:t>Max</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t>, Naive C, N=128</a:t>
+              <a:t> Sample Rate for FIR Filtering</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6576,42 +7110,37 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>(Smaller is Better)</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(250 Hz Resolution, Naive C, Bigger</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> Values are Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11104754886575054"/>
-          <c:y val="0.21648123439175887"/>
-          <c:w val="0.77527368004476038"/>
-          <c:h val="0.67731145511786739"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$8</c:f>
+              <c:f>'Pretty Comparison'!$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int16</c:v>
+                  <c:v>Int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6622,19 +7151,9 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6660,42 +7179,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$8:$I$8</c:f>
+              <c:f>'Pretty Comparison'!$D$54:$I$54</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>308</c:v>
+                  <c:v>5656.8542494923804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.55</c:v>
+                  <c:v>19887.211321452556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.53</c:v>
+                  <c:v>27805.280202714839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.21</c:v>
+                  <c:v>25500.477142297961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>46420.708254852754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.7</c:v>
+                  <c:v>58658.846008541317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:f>'Pretty Comparison'!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int32</c:v>
+                  <c:v>Float32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6706,19 +7225,9 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6744,111 +7253,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:f>'Pretty Comparison'!$D$55:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>3562.0699860123191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.91</c:v>
+                  <c:v>5987.0445818459248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.39</c:v>
+                  <c:v>10222.692666218809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.21</c:v>
+                  <c:v>10560.561498861054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>11300.832884418302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Float32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pretty Comparison'!$D$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>892.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>306.20999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>286.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>56568.542494923808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6863,11 +7288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148830080"/>
-        <c:axId val="148831616"/>
+        <c:axId val="179238784"/>
+        <c:axId val="179240320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148830080"/>
+        <c:axId val="179238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,7 +7301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148831616"/>
+        <c:crossAx val="179240320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6884,10 +7309,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148831616"/>
+        <c:axId val="179240320"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6903,24 +7328,33 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time to Complete (microseconds)</a:t>
+                  <a:t>Max Sample Rate (Hz) for 250 Hz FIR Filter</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5686274509803921E-2"/>
+              <c:y val="0.18872185365431632"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148830080"/>
+        <c:crossAx val="179238784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6960,11 +7394,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filter</a:t>
+              <a:t>FIR</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Time, Naive C, N=128</a:t>
+              <a:t> Filters</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t> Per Second</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6972,13 +7410,18 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>(Smaller is Better)</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Naive C,</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> N=128, Bigger Values are Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6988,10 +7431,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11104754886575054"/>
-          <c:y val="0.21648123439175887"/>
-          <c:w val="0.77527368004476038"/>
-          <c:h val="0.67731145511786739"/>
+          <c:x val="0.11251499974981463"/>
+          <c:y val="0.19528356967338573"/>
+          <c:w val="0.73860087246459882"/>
+          <c:h val="0.69850911983624064"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7003,7 +7446,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:f>'Pretty Comparison'!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7014,12 +7457,46 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9324090121317154E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3108030040438966E-2"/>
+                  <c:y val="8.4790658873492679E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -7030,7 +7507,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7056,27 +7533,195 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.91</c:v>
+                  <c:v>12359.411692003461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.39</c:v>
+                  <c:v>24160.425223483933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.21</c:v>
+                  <c:v>20321.072952651899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>67340.06734006734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>107526.8817204301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8486424032351241E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8486424032351241E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6175621028307337E-2"/>
+                  <c:y val="8.4790658873492679E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8486424032351241E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0797227036395149E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0040439052570769E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>396.51070578905632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1120.1469632815824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3265.7326671238693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3485.1705991008257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3990.9007462984396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,11 +7736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148930944"/>
-        <c:axId val="148932480"/>
+        <c:axId val="52976640"/>
+        <c:axId val="53070464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148930944"/>
+        <c:axId val="52976640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7104,7 +7749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148932480"/>
+        <c:crossAx val="53070464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7112,43 +7757,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148932480"/>
+        <c:axId val="53070464"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to Complete (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148930944"/>
+        <c:crossAx val="52976640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7188,11 +7815,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Max</a:t>
+              <a:t>FIR Filter,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Sample Rate for FIR Filtering</a:t>
+              <a:t> Naive C, Int32</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -7200,14 +7827,9 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(250 Hz Resolution, Naive C, Bigger</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>(Bigger is Better)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> Value is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7216,217 +7838,400 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18247569025612526"/>
+          <c:y val="0.209081072119635"/>
+          <c:w val="0.58475546316547244"/>
+          <c:h val="0.58969354455844381"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$53</c:f>
+              <c:f>'Pretty Comparison'!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int16</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Maple</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$53:$I$53</c:f>
+              <c:f>'Pretty Comparison'!$D$36:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10192.94382875251</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7751.937984496124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21765.18247163773</c:v>
+                  <c:v>3937.0078740157483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25678.511382808159</c:v>
+                  <c:v>1988.0715705765408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25500.477142297961</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46420.708254852754</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54686.874161973057</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$54</c:f>
+              <c:f>'Pretty Comparison'!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int32</c:v>
+                  <c:v>Arduino M0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Maple</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$54:$I$54</c:f>
+              <c:f>'Pretty Comparison'!$E$36:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5656.8542494923804</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>92850.510677808736</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19887.211321452556</c:v>
+                  <c:v>48100.048100048101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27805.280202714839</c:v>
+                  <c:v>24491.795248591723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25500.477142297961</c:v>
+                  <c:v>12359.411692003461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46420.708254852754</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58658.846008541317</c:v>
+                  <c:v>6208.8662610207375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$55</c:f>
+              <c:f>'Pretty Comparison'!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Float32</c:v>
+                  <c:v>Maple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Maple</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$55:$I$55</c:f>
+              <c:f>'Pretty Comparison'!$F$36:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3562.0699860123191</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180180.18018018018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5987.0445818459248</c:v>
+                  <c:v>93808.630393996253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10222.692666218809</c:v>
+                  <c:v>47824.007651841224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10560.561498861054</c:v>
+                  <c:v>24160.425223483933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11300.832884418302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56568.542494923808</c:v>
+                  <c:v>12141.816415735793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$G$36:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>154083.20493066256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79365.079365079364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40322.580645161288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20321.072952651899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10198.878123406426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$H$36:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>502512.56281407038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261780.10471204191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133333.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67340.06734006734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33840.947546531301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$I$36:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>833333.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416666.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212765.95744680849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107526.8817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54054.054054054053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7436,21 +8241,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="149365120"/>
-        <c:axId val="149366656"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53947776"/>
+        <c:axId val="53917184"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="149365120"/>
+        <c:axId val="53947776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length (N Taps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149366656"/>
+        <c:crossAx val="53917184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7458,10 +8284,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149366656"/>
+        <c:axId val="53917184"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="60000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7477,26 +8304,281 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Max Sample Rate (Hz) for 250 Hz FIR Filter</a:t>
+                  <a:t>FIR Filters Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.5686274509803921E-2"/>
-              <c:y val="0.18872185365431632"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149365120"/>
+        <c:crossAx val="53947776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79078827508263083"/>
+          <c:y val="0.23035897969900113"/>
+          <c:w val="0.1927217397546461"/>
+          <c:h val="0.47198460786466323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Filters</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t> Per Second</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Naive C,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> N=128, Bigger Values are Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11251499974981463"/>
+          <c:y val="0.19528356967338573"/>
+          <c:w val="0.73860087246459882"/>
+          <c:h val="0.69850911983624064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6216060080878103E-3"/>
+                  <c:y val="8.4790658873492679E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12359.411692003461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24160.425223483933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20321.072952651899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67340.06734006734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107526.8817204301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="53998336"/>
+        <c:axId val="53999872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53998336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53999872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53999872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53998336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7518,7 +8600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8135,11 +9217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148998784"/>
-        <c:axId val="149013632"/>
+        <c:axId val="179470720"/>
+        <c:axId val="179473024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148998784"/>
+        <c:axId val="179470720"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -8170,13 +9252,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149013632"/>
+        <c:crossAx val="179473024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149013632"/>
+        <c:axId val="179473024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8208,7 +9290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148998784"/>
+        <c:crossAx val="179470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -8253,7 +9335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8538,11 +9620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149035648"/>
-        <c:axId val="149045632"/>
+        <c:axId val="179524352"/>
+        <c:axId val="179525888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149035648"/>
+        <c:axId val="179524352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8551,7 +9633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149045632"/>
+        <c:crossAx val="179525888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8559,7 +9641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149045632"/>
+        <c:axId val="179525888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8589,366 +9671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149035648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>FIR Filtering Performance, Naive FIR</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(Smaller is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$21:$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python, PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$34:$H$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.48</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$21:$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python, PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$30:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.91</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$21:$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python, PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$26:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>446.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.84</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>143.43</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>115.52</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149063936"/>
-        <c:axId val="149073920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149063936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149073920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149073920"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time for -Point FIR (usec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149063936"/>
+        <c:crossAx val="179524352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9003,68 +9726,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -9087,7 +9748,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9117,7 +9778,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9125,16 +9786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9143,7 +9804,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="828675" y="10891836"/>
+          <a:off x="7353300" y="9453561"/>
           <a:ext cx="5838825" cy="3167063"/>
           <a:chOff x="828675" y="10891836"/>
           <a:chExt cx="5838825" cy="3167063"/>
@@ -9160,7 +9821,7 @@
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
@@ -9200,6 +9861,100 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10325,11 +11080,11 @@
   <sheetData>
     <row r="4" spans="2:10" ht="15.75">
       <c r="B4" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -10340,205 +11095,205 @@
     </row>
     <row r="5" spans="2:10" ht="15.75">
       <c r="B5" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="G5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75">
       <c r="B6" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75">
       <c r="B7" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75">
       <c r="B8" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75">
       <c r="B9" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75">
       <c r="B10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75">
       <c r="B11" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -11791,8 +12546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11802,30 +12557,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75">
-      <c r="B2" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="39" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="28" t="s">
@@ -12437,31 +13192,31 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="18.75">
-      <c r="B26" s="39" t="str">
+      <c r="B26" s="42" t="str">
         <f>B2</f>
         <v>FIR Performance (Naïve C)</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="40" t="s">
-        <v>97</v>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
+      <c r="I27" s="40"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="17" t="str">
@@ -13090,39 +13845,39 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="18.75">
-      <c r="B50" s="39" t="str">
+      <c r="B50" s="42" t="str">
         <f>B2</f>
         <v>FIR Performance (Naïve C)</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="40" t="str">
+      <c r="B51" s="39" t="str">
         <f>B3</f>
         <v>Inputs</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="40" t="s">
-        <v>99</v>
+      <c r="C51" s="40"/>
+      <c r="D51" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
+      <c r="I51" s="40"/>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="28" t="s">
         <v>89</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="35" t="str">
         <f t="shared" ref="D52:I52" si="34">D28</f>
@@ -13250,16 +14005,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="D51:I51"/>
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B26:I26"/>
   </mergeCells>
   <conditionalFormatting sqref="D53:I55">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThanOrEqual">

--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="141">
   <si>
     <t>Float</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Time to Complete FIR (microseconds, smaller is better)</t>
   </si>
   <si>
-    <t>FIR per Second (Bigger is Better)</t>
-  </si>
-  <si>
     <t>Res (Hz)</t>
   </si>
   <si>
@@ -441,6 +438,15 @@
   </si>
   <si>
     <t>PJRC</t>
+  </si>
+  <si>
+    <t>FIR Filters Completed per Second (Bigger is Better)</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Max Sample Rate (Hz) for FIR Filter of the Given Size  (Bigger is Better)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -695,13 +701,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -772,27 +820,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -844,6 +871,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1243,11 +1271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148710144"/>
-        <c:axId val="148712064"/>
+        <c:axId val="104751104"/>
+        <c:axId val="104753024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148710144"/>
+        <c:axId val="104751104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,13 +1297,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148712064"/>
+        <c:crossAx val="104753024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148712064"/>
+        <c:axId val="104753024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1307,13 +1336,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148710144"/>
+        <c:crossAx val="104751104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,31 +1398,28 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filtering Performance,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Naive FIR</a:t>
+              <a:t>FIR Filtering Performance, Naive FIR</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(Bigger is Better)</a:t>
+              <a:t>(Smaller is Better)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1400,27 +1427,16 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21079662231946025"/>
-          <c:y val="0.21795166229221347"/>
-          <c:w val="0.64403785561582649"/>
-          <c:h val="0.60956364829396326"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$B$61</c:f>
+              <c:f>Comparison!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1429,12 +1445,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1452,44 +1467,48 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$61:$H$61</c:f>
+              <c:f>Comparison!$C$34:$H$34</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10160.010160015239</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21645.351229957632</c:v>
+                  <c:v>34.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25565.499628245681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25400.025400038103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54433.105395181738</c:v>
+                  <c:v>24.48</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$B$60</c:f>
+              <c:f>Comparison!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1498,12 +1517,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1521,44 +1539,48 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$60:$H$60</c:f>
+              <c:f>Comparison!$C$30:$H$30</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5639.9596744324917</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19795.674375415139</c:v>
+                  <c:v>40.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27661.961651868794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25400.025400038103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54433.105395181738</c:v>
+                  <c:v>20.91</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison!$B$59</c:f>
+              <c:f>Comparison!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,12 +1589,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:f>Comparison!$C$21:$I$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1590,37 +1615,41 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$59:$H$59</c:f>
+              <c:f>Comparison!$C$26:$H$26</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3549.4260376644552</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5986.5081443669142</c:v>
+                  <c:v>446.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10198.24299408514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10561.849922156138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11768.778828946262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56568.542494923808</c:v>
+                  <c:v>153.84</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>143.43</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>115.52</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1630,12 +1659,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="149178240"/>
-        <c:axId val="149179776"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="104941056"/>
+        <c:axId val="104942592"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="149178240"/>
+        <c:axId val="104941056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149179776"/>
+        <c:crossAx val="104942592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,8 +1682,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149179776"/>
+        <c:axId val="104942592"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1670,29 +1701,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
+                  <a:t>Time for -Point FIR (usec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.4282560706401765E-2"/>
-              <c:y val="0.16239610673665791"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149178240"/>
+        <c:crossAx val="104941056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1772,6 +1794,373 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.21079662231946025"/>
+          <c:y val="0.21795166229221347"/>
+          <c:w val="0.64403785561582649"/>
+          <c:h val="0.60956364829396326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$61:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10160.010160015239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21645.351229957632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25565.499628245681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400.025400038103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$60:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5639.9596744324917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19795.674375415139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27661.961651868794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25400.025400038103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44253.636380814365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54433.105395181738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparison!$C$58:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$59:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3549.4260376644552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5986.5081443669142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10198.24299408514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10561.849922156138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11768.778828946262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56568.542494923808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="104981632"/>
+        <c:axId val="104983168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104981632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104983168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104983168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Sample Rate (Hz) For FIR with Resolution of 250 Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4282560706401765E-2"/>
+              <c:y val="0.16239610673665791"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104981632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filtering Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Naive FIR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Bigger is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.16542799327766317"/>
           <c:y val="0.19480351414406533"/>
           <c:w val="0.68940648465762355"/>
@@ -1989,11 +2378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149423232"/>
-        <c:axId val="149424768"/>
+        <c:axId val="104993536"/>
+        <c:axId val="104995072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149423232"/>
+        <c:axId val="104993536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="149424768"/>
+        <c:crossAx val="104995072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,7 +2399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149424768"/>
+        <c:axId val="104995072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2053,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149423232"/>
+        <c:crossAx val="104993536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,7 +2473,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2371,11 +2760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149463808"/>
-        <c:axId val="149465344"/>
+        <c:axId val="105046400"/>
+        <c:axId val="105047936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149463808"/>
+        <c:axId val="105046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,7 +2773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149465344"/>
+        <c:crossAx val="105047936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2392,7 +2781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149465344"/>
+        <c:axId val="105047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149463808"/>
+        <c:crossAx val="105046400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2460,7 +2849,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2755,11 +3144,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149819776"/>
-        <c:axId val="149821312"/>
+        <c:axId val="105058304"/>
+        <c:axId val="105059840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149819776"/>
+        <c:axId val="105058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +3157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149821312"/>
+        <c:crossAx val="105059840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2776,7 +3165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149821312"/>
+        <c:axId val="105059840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2814,7 +3203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149819776"/>
+        <c:crossAx val="105058304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,392 +3218,6 @@
           <c:y val="0.36044254884806071"/>
           <c:w val="8.5931224698607603E-2"/>
           <c:h val="0.25115157480314959"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filtering Speed, Arduino Uno</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller is Better)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12221453287197231"/>
-          <c:y val="1.7121452438425121E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15304642013303429"/>
-          <c:y val="0.20566470668727532"/>
-          <c:w val="0.58638958365498428"/>
-          <c:h val="0.63668884591299479"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$32:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$28:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Comparison!$B$32:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$24:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149553536"/>
-        <c:axId val="149555072"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149553536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Filter Length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149555072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149555072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time to Complete (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149553536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.76728958880139997"/>
-          <c:y val="0.36325385788790032"/>
-          <c:w val="0.16016510911914555"/>
-          <c:h val="0.28498826101991276"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3517,11 +3520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149590016"/>
-        <c:axId val="149591936"/>
+        <c:axId val="105094528"/>
+        <c:axId val="105100800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149590016"/>
+        <c:axId val="105094528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +3552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149591936"/>
+        <c:crossAx val="105100800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3557,9 +3560,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149591936"/>
+        <c:axId val="105100800"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3587,7 +3589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149590016"/>
+        <c:crossAx val="105094528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3619,6 +3621,393 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filtering Speed, Arduino Uno</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller is Better)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12221453287197231"/>
+          <c:y val="1.7121452438425121E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15304642013303429"/>
+          <c:y val="0.20566470668727532"/>
+          <c:w val="0.58638958365498428"/>
+          <c:h val="0.63668884591299479"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="105201024"/>
+        <c:axId val="105211392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="105201024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105211392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="105211392"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105201024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76728958880139997"/>
+          <c:y val="0.36325385788790032"/>
+          <c:w val="0.16016510911914555"/>
+          <c:h val="0.28498826101991276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3869,11 +4258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149630976"/>
-        <c:axId val="149632512"/>
+        <c:axId val="105225600"/>
+        <c:axId val="105243776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149630976"/>
+        <c:axId val="105225600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149632512"/>
+        <c:crossAx val="105243776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3890,7 +4279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149632512"/>
+        <c:axId val="105243776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -3928,7 +4317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149630976"/>
+        <c:crossAx val="105225600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -3936,431 +4325,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Performance,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Naïve C</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Smaller</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Arduino Uno'!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149713280"/>
-        <c:axId val="149715584"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149713280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FIR Length (samples)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149715584"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149715584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Duration (microseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149713280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85346158319805399"/>
-          <c:y val="0.40029335261880306"/>
-          <c:w val="0.13112415861312135"/>
-          <c:h val="0.2337048183371167"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4700,11 +4664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150225280"/>
-        <c:axId val="150227584"/>
+        <c:axId val="106151296"/>
+        <c:axId val="106178432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150225280"/>
+        <c:axId val="106151296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,7 +4696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150227584"/>
+        <c:crossAx val="106178432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4740,9 +4704,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150227584"/>
+        <c:axId val="106178432"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4770,7 +4733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150225280"/>
+        <c:crossAx val="106151296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4802,6 +4765,645 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Performance,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Naïve C</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Smaller</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$D$13:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arduino Uno'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arduino Uno'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="106216832"/>
+        <c:axId val="106227584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="106216832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106227584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106227584"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106216832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85346158319805399"/>
+          <c:y val="0.40029335261880306"/>
+          <c:w val="0.13112415861312135"/>
+          <c:h val="0.2337048183371167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Filters </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Per Second</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Naive C,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> N=128, Bigger Values are Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12359.411692003461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24160.425223483933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20321.072952651899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67340.06734006734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107526.8817204301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="104761984"/>
+        <c:axId val="104767872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104761984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104767872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104767872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104761984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5126,11 +5728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149947136"/>
-        <c:axId val="149949056"/>
+        <c:axId val="106278272"/>
+        <c:axId val="106293120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149947136"/>
+        <c:axId val="106278272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,7 +5760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149949056"/>
+        <c:crossAx val="106293120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5166,7 +5768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149949056"/>
+        <c:axId val="106293120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48000"/>
@@ -5197,7 +5799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149947136"/>
+        <c:crossAx val="106278272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8000"/>
@@ -5229,201 +5831,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIRs Per Second (Naive C,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N=128)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12359.411692003461</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24160.425223483933</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20321.072952651899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67340.06734006734</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>107526.8817204301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="148745600"/>
-        <c:axId val="148751488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="148745600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148751488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="148751488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148745600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5772,11 +6180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150004864"/>
-        <c:axId val="150007168"/>
+        <c:axId val="107458944"/>
+        <c:axId val="107461248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150004864"/>
+        <c:axId val="107458944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,7 +6212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150007168"/>
+        <c:crossAx val="107461248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5812,7 +6220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150007168"/>
+        <c:axId val="107461248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5843,7 +6251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150004864"/>
+        <c:crossAx val="107458944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5874,7 +6282,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6021,11 +6429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148461440"/>
-        <c:axId val="148488192"/>
+        <c:axId val="108389504"/>
+        <c:axId val="108391424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148461440"/>
+        <c:axId val="108389504"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6054,13 +6462,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="148488192"/>
+        <c:crossAx val="108391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148488192"/>
+        <c:axId val="108391424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6090,7 +6498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148461440"/>
+        <c:crossAx val="108389504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6111,7 +6519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6258,11 +6666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150679936"/>
-        <c:axId val="150681856"/>
+        <c:axId val="108408192"/>
+        <c:axId val="108443136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150679936"/>
+        <c:axId val="108408192"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6291,13 +6699,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150681856"/>
+        <c:crossAx val="108443136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150681856"/>
+        <c:axId val="108443136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6327,7 +6735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150679936"/>
+        <c:crossAx val="108408192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6369,17 +6777,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FIRs Per Second (Naive C,</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter Time</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N=128)</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>, Naive C, N=128</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>(Smaller is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6388,17 +6805,195 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11104754886575054"/>
+          <c:y val="0.21648123439175887"/>
+          <c:w val="0.77527368004476038"/>
+          <c:h val="0.67731145511786739"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$46</c:f>
+              <c:f>'Pretty Comparison'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6414,6 +7009,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="0"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -6424,7 +7020,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6450,27 +7046,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
+              <c:f>'Pretty Comparison'!$D$22:$I$22</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>396.51070578905632</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.1469632815824</c:v>
+                  <c:v>892.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3265.7326671238693</c:v>
+                  <c:v>306.20999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3485.1705991008257</c:v>
+                  <c:v>286.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3990.9007462984396</c:v>
+                  <c:v>250.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6485,11 +7081,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148776448"/>
-        <c:axId val="148777984"/>
+        <c:axId val="104809600"/>
+        <c:axId val="104811136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148776448"/>
+        <c:axId val="104809600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,7 +7094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148777984"/>
+        <c:crossAx val="104811136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6506,18 +7102,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148777984"/>
+        <c:axId val="104811136"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Complete (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148776448"/>
+        <c:crossAx val="104809600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6564,11 +7180,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filter Time</a:t>
+              <a:t>FIR Filter</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t>, Naive C, N=128</a:t>
+              <a:t> Time, Naive C, N=128</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6576,13 +7192,14 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
               <a:t>(Smaller is Better)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6603,15 +7220,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$8</c:f>
+              <c:f>'Pretty Comparison'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int16</c:v>
+                  <c:v>Int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6660,90 +7277,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$8:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -6765,90 +7298,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.3000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Float32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pretty Comparison'!$D$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>892.74</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>306.20999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>286.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6863,11 +7312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148830080"/>
-        <c:axId val="148831616"/>
+        <c:axId val="104828928"/>
+        <c:axId val="104830464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148830080"/>
+        <c:axId val="104828928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,7 +7325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148831616"/>
+        <c:crossAx val="104830464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6884,7 +7333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148831616"/>
+        <c:axId val="104830464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6908,19 +7357,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148830080"/>
+        <c:crossAx val="104828928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6960,11 +7411,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FIR Filter</a:t>
+              <a:t>Max</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Time, Naive C, N=128</a:t>
+              <a:t> Sample Rate for Sustained 250 Hz FIR Filtering</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6972,42 +7423,111 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>(Smaller is Better)</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(250 Hz Resolution, Naive C, Bigger</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> Values are Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11104754886575054"/>
-          <c:y val="0.21648123439175887"/>
-          <c:w val="0.77527368004476038"/>
-          <c:h val="0.67731145511786739"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$15</c:f>
+              <c:f>'Pretty Comparison'!$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5656.8542494923804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19887.211321452556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27805.280202714839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25500.477142297961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46420.708254852754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58658.846008541317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7018,19 +7538,9 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7056,27 +7566,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:f>'Pretty Comparison'!$D$55:$I$55</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>3562.0699860123191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.91</c:v>
+                  <c:v>5987.0445818459248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.39</c:v>
+                  <c:v>10222.692666218809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.21</c:v>
+                  <c:v>10560.561498861054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>11300.832884418302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>56568.542494923808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,11 +7601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148930944"/>
-        <c:axId val="148932480"/>
+        <c:axId val="104844672"/>
+        <c:axId val="104846464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148930944"/>
+        <c:axId val="104844672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7104,7 +7614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148932480"/>
+        <c:crossAx val="104846464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7112,10 +7622,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148932480"/>
+        <c:axId val="104846464"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7131,24 +7641,33 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time to Complete (microseconds)</a:t>
+                  <a:t>Max Sample Rate (Hz) for 250 Hz FIR Filter</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5686274509803921E-2"/>
+              <c:y val="0.18872185365431632"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148930944"/>
+        <c:crossAx val="104844672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7188,11 +7707,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Max</a:t>
+              <a:t>FIR</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Sample Rate for FIR Filtering</a:t>
+              <a:t> Filters </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Per Second</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -7200,14 +7723,14 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(250 Hz Resolution, Naive C, Bigger</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Naive C,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> Value is Better)</a:t>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> N=128, Bigger Values are Better)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7226,19 +7749,68 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$53</c:f>
+              <c:f>'Pretty Comparison'!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int16</c:v>
+                  <c:v>Int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.279433815921282E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8838301447763845E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7264,27 +7836,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$53:$I$53</c:f>
+              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10192.94382875251</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21765.18247163773</c:v>
+                  <c:v>12359.411692003461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25678.511382808159</c:v>
+                  <c:v>24160.425223483933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25500.477142297961</c:v>
+                  <c:v>20321.072952651899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46420.708254852754</c:v>
+                  <c:v>67340.06734006734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54686.874161973057</c:v>
+                  <c:v>107526.8817204301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7295,19 +7867,118 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$B$54</c:f>
+              <c:f>'Pretty Comparison'!$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int32</c:v>
+                  <c:v>Float32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.046572302653547E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2558867631842564E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2558867631842564E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.046572302653547E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3725784212283754E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5117735263685128E-2"/>
+                  <c:y val="-3.9980003702085381E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
+              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -7333,96 +8004,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$54:$I$54</c:f>
+              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5656.8542494923804</c:v>
+                  <c:v>396.51070578905632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19887.211321452556</c:v>
+                  <c:v>1120.1469632815824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27805.280202714839</c:v>
+                  <c:v>3265.7326671238693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25500.477142297961</c:v>
+                  <c:v>3485.1705991008257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46420.708254852754</c:v>
+                  <c:v>3990.9007462984396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58658.846008541317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$B$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Float32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pretty Comparison'!$D$55:$I$55</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3562.0699860123191</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5987.0445818459248</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10222.692666218809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10560.561498861054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11300.832884418302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56568.542494923808</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,11 +8039,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149365120"/>
-        <c:axId val="149366656"/>
+        <c:axId val="83106048"/>
+        <c:axId val="83107840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149365120"/>
+        <c:axId val="83106048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,7 +8052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149366656"/>
+        <c:crossAx val="83107840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7458,45 +8060,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149366656"/>
+        <c:axId val="83107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Max Sample Rate (Hz) for 250 Hz FIR Filter</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.5686274509803921E-2"/>
-              <c:y val="0.18872185365431632"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149365120"/>
+        <c:crossAx val="83106048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7519,6 +8094,549 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FIR Filter Speed</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>(Naive C, Int32, Bigger Values are Better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$D$36:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7751.937984496124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3937.0078740157483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988.0715705765408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$E$36:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>92850.510677808736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48100.048100048101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24491.795248591723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12359.411692003461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6208.8662610207375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$F$36:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180180.18018018018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93808.630393996253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47824.007651841224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24160.425223483933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12141.816415735793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$G$36:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>154083.20493066256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79365.079365079364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40322.580645161288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20321.072952651899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10198.878123406426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$H$36:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>502512.56281407038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261780.10471204191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133333.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67340.06734006734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33840.947546531301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$I$36:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>833333.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416666.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212765.95744680849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107526.8817204301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54054.054054054053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83882752"/>
+        <c:axId val="83884672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83882752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filter Length (N Taps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83884672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83884672"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FIR Filters Completed Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83882752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79078827508263083"/>
+          <c:y val="0.23035897969900113"/>
+          <c:w val="0.1927217397546461"/>
+          <c:h val="0.47198460786466323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8135,11 +9253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148998784"/>
-        <c:axId val="149013632"/>
+        <c:axId val="104880000"/>
+        <c:axId val="104890752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148998784"/>
+        <c:axId val="104880000"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -8170,13 +9288,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149013632"/>
+        <c:crossAx val="104890752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149013632"/>
+        <c:axId val="104890752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8208,7 +9326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148998784"/>
+        <c:crossAx val="104880000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -8253,7 +9371,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8538,11 +9656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149035648"/>
-        <c:axId val="149045632"/>
+        <c:axId val="104917248"/>
+        <c:axId val="104919040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149035648"/>
+        <c:axId val="104917248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8551,7 +9669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149045632"/>
+        <c:crossAx val="104919040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8559,7 +9677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149045632"/>
+        <c:axId val="104919040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8589,366 +9707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149035648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>FIR Filtering Performance, Naive FIR</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(Smaller is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$21:$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python, PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$34:$H$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.48</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$21:$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python, PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$30:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.91</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparison!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparison!$C$21:$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arduino Due</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Python, PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparison!$C$26:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>446.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153.84</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>143.43</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>115.52</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149063936"/>
-        <c:axId val="149073920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149063936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149073920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149073920"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time for -Point FIR (usec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149063936"/>
+        <c:crossAx val="104917248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8974,15 +9733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9004,15 +9763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:colOff>409574</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9026,38 +9785,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9087,7 +9814,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9117,7 +9844,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9160,7 +9887,7 @@
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
@@ -9200,6 +9927,66 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10325,11 +11112,11 @@
   <sheetData>
     <row r="4" spans="2:10" ht="15.75">
       <c r="B4" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -10340,205 +11127,205 @@
     </row>
     <row r="5" spans="2:10" ht="15.75">
       <c r="B5" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="G5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75">
       <c r="B6" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75">
       <c r="B7" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75">
       <c r="B8" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75">
       <c r="B9" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75">
       <c r="B10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75">
       <c r="B11" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -11789,10 +12576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I55"/>
+  <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11803,7 +12590,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18.75">
       <c r="B2" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -12455,7 +13242,7 @@
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="40" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -13109,7 +13896,7 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
@@ -13122,7 +13909,7 @@
         <v>89</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="35" t="str">
         <f t="shared" ref="D52:I52" si="34">D28</f>
@@ -13248,8 +14035,206 @@
         <v>56568.542494923808</v>
       </c>
     </row>
+    <row r="76" spans="2:9">
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="15">
+        <v>250</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="15">
+        <v>44100</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="15">
+        <f>ROUND(D77/D76,0)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="18.75">
+      <c r="B79" s="39" t="str">
+        <f>B2</f>
+        <v>FIR Performance (Naïve C)</v>
+      </c>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="40" t="str">
+        <f>B27</f>
+        <v>Inputs</v>
+      </c>
+      <c r="C80" s="42"/>
+      <c r="D80" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="42"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="28" t="str">
+        <f>B28</f>
+        <v>Type</v>
+      </c>
+      <c r="C81" s="28" t="str">
+        <f t="shared" ref="C81:I81" si="38">C28</f>
+        <v>N of FIR</v>
+      </c>
+      <c r="D81" s="28" t="str">
+        <f t="shared" si="38"/>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="E81" s="28" t="str">
+        <f t="shared" si="38"/>
+        <v>Arduino M0</v>
+      </c>
+      <c r="F81" s="28" t="str">
+        <f t="shared" si="38"/>
+        <v>Maple</v>
+      </c>
+      <c r="G81" s="28" t="str">
+        <f t="shared" si="38"/>
+        <v>Arduino Due</v>
+      </c>
+      <c r="H81" s="28" t="str">
+        <f t="shared" si="38"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="I81" s="28" t="str">
+        <f t="shared" si="38"/>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="29" t="str">
+        <f>B32</f>
+        <v>Int16</v>
+      </c>
+      <c r="C82" s="29">
+        <f>$D$78</f>
+        <v>176</v>
+      </c>
+      <c r="D82" s="47">
+        <f>D32*$C32/$C82</f>
+        <v>2361.2750885478158</v>
+      </c>
+      <c r="E82" s="47">
+        <f t="shared" ref="E82:I82" si="39">E32*$C32/$C82</f>
+        <v>10766.435636901959</v>
+      </c>
+      <c r="F82" s="47">
+        <f t="shared" si="39"/>
+        <v>14986.044246295636</v>
+      </c>
+      <c r="G82" s="47">
+        <f t="shared" si="39"/>
+        <v>14778.962147383199</v>
+      </c>
+      <c r="H82" s="47">
+        <f t="shared" si="39"/>
+        <v>48974.594429139885</v>
+      </c>
+      <c r="I82" s="47">
+        <f t="shared" si="39"/>
+        <v>67969.413763806282</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="29" t="str">
+        <f>B39</f>
+        <v>Int32</v>
+      </c>
+      <c r="C83" s="29">
+        <f t="shared" ref="C83:C84" si="40">$D$78</f>
+        <v>176</v>
+      </c>
+      <c r="D83" s="47">
+        <f>D39*$C39/$C83</f>
+        <v>727.27272727272725</v>
+      </c>
+      <c r="E83" s="47">
+        <f t="shared" ref="E83:I83" si="41">E39*$C39/$C83</f>
+        <v>8988.6630487297898</v>
+      </c>
+      <c r="F83" s="47">
+        <f t="shared" si="41"/>
+        <v>17571.21834435195</v>
+      </c>
+      <c r="G83" s="47">
+        <f t="shared" si="41"/>
+        <v>14778.962147383199</v>
+      </c>
+      <c r="H83" s="47">
+        <f t="shared" si="41"/>
+        <v>48974.594429139885</v>
+      </c>
+      <c r="I83" s="47">
+        <f t="shared" si="41"/>
+        <v>78201.368523949161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="29" t="str">
+        <f>B46</f>
+        <v>Float32</v>
+      </c>
+      <c r="C84" s="29">
+        <f t="shared" si="40"/>
+        <v>176</v>
+      </c>
+      <c r="D84" s="47">
+        <f>D46*$C46/$C84</f>
+        <v>288.37142239204098</v>
+      </c>
+      <c r="E84" s="47">
+        <f t="shared" ref="E84:I84" si="42">E46*$C46/$C84</f>
+        <v>814.65233693205994</v>
+      </c>
+      <c r="F84" s="47">
+        <f t="shared" si="42"/>
+        <v>2375.078303362814</v>
+      </c>
+      <c r="G84" s="47">
+        <f t="shared" si="42"/>
+        <v>2534.6695266187821</v>
+      </c>
+      <c r="H84" s="47">
+        <f t="shared" si="42"/>
+        <v>2902.4732700352288</v>
+      </c>
+      <c r="I84" s="47">
+        <f t="shared" si="42"/>
+        <v>72727.272727272721</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:I80"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="D51:I51"/>
@@ -13262,15 +14247,23 @@
     <mergeCell ref="B26:I26"/>
   </mergeCells>
   <conditionalFormatting sqref="D53:I55">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
       <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>32000</formula>
       <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>32000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:I84">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+      <formula>$D$77</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$D$77</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16443,36 +17436,36 @@
     <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="C24:I35">
-    <cfRule type="cellIs" dxfId="9" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>$D$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>$D$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:I39 C59:I61">
-    <cfRule type="cellIs" dxfId="4" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>$C$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>$C$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>$C$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>$C$16</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FIR Speed Results.xlsx
@@ -15,16 +15,17 @@
     <sheet name="Maple" sheetId="5" r:id="rId6"/>
     <sheet name="Arduino Due" sheetId="6" r:id="rId7"/>
     <sheet name="Teensy 3.2" sheetId="7" r:id="rId8"/>
-    <sheet name="NXP K66" sheetId="9" r:id="rId9"/>
-    <sheet name="Python" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
+    <sheet name="Teensy 3.6" sheetId="13" r:id="rId9"/>
+    <sheet name="NXP K66" sheetId="9" r:id="rId10"/>
+    <sheet name="Python" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="149">
   <si>
     <t>Float</t>
   </si>
@@ -448,6 +449,30 @@
   <si>
     <t>Max Sample Rate (Hz) for FIR Filter of the Given Size  (Bigger is Better)</t>
   </si>
+  <si>
+    <t>Teensy 3.5</t>
+  </si>
+  <si>
+    <t>Teensy 3.6</t>
+  </si>
+  <si>
+    <t>120 MHz</t>
+  </si>
+  <si>
+    <t>MK66FX1M0VMD18</t>
+  </si>
+  <si>
+    <t>192 KB</t>
+  </si>
+  <si>
+    <t>MK64FX512VMD12</t>
+  </si>
+  <si>
+    <t>https://www.kickstarter.com/projects/paulstoffregen/teensy-35-and-36/description</t>
+  </si>
+  <si>
+    <t>NXP Kinetis MK66FX1M0VMD18, Cortex-M4 (with FPU)</t>
+  </si>
 </sst>
 </file>
 
@@ -671,6 +696,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,10 +711,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,16 +729,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -820,6 +845,45 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1178,19 +1242,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.99</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.82</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>8.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.85</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.55</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,7 +1262,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -1206,7 +1270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
+                  <c:v>Teensy 3.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1238,6 +1302,70 @@
           <c:val>
             <c:numRef>
               <c:f>'Pretty Comparison'!$I$12:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$J$12:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1271,11 +1399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104751104"/>
-        <c:axId val="104753024"/>
+        <c:axId val="143456512"/>
+        <c:axId val="144318848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104751104"/>
+        <c:axId val="143456512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104753024"/>
+        <c:crossAx val="144318848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104753024"/>
+        <c:axId val="144318848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1343,7 +1471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104751104"/>
+        <c:crossAx val="143456512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,8 +1484,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.79078827508263083"/>
           <c:y val="0.23035897969900113"/>
-          <c:w val="0.1927217397546461"/>
-          <c:h val="0.47198460786466323"/>
+          <c:w val="0.17178032582630445"/>
+          <c:h val="0.53664156997530388"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1493,7 +1621,7 @@
                   <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
@@ -1565,7 +1693,7 @@
                   <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
@@ -1641,7 +1769,7 @@
                   <c:v>143.43</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>115.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>5</c:v>
@@ -1661,11 +1789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104941056"/>
-        <c:axId val="104942592"/>
+        <c:axId val="143661312"/>
+        <c:axId val="143671296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104941056"/>
+        <c:axId val="143661312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104942592"/>
+        <c:crossAx val="143671296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1682,7 +1810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104942592"/>
+        <c:axId val="143671296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1712,7 +1840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104941056"/>
+        <c:crossAx val="143661312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1864,7 +1992,7 @@
                   <c:v>25400.025400038103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54433.105395181738</c:v>
@@ -1933,7 +2061,7 @@
                   <c:v>25400.025400038103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44253.636380814365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54433.105395181738</c:v>
@@ -2002,7 +2130,7 @@
                   <c:v>10561.849922156138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11768.778828946262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56568.542494923808</c:v>
@@ -2020,11 +2148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104981632"/>
-        <c:axId val="104983168"/>
+        <c:axId val="143705984"/>
+        <c:axId val="143707520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104981632"/>
+        <c:axId val="143705984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,7 +2161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104983168"/>
+        <c:crossAx val="143707520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2041,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104983168"/>
+        <c:axId val="143707520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104981632"/>
+        <c:crossAx val="143705984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2226,7 +2354,7 @@
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.971848225214199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28.703703703703702</c:v>
@@ -2292,7 +2420,7 @@
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.971848225214199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28.703703703703702</c:v>
@@ -2358,7 +2486,7 @@
                   <c:v>1.0806665272258245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3417590027700832</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31</c:v>
@@ -2378,11 +2506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104993536"/>
-        <c:axId val="104995072"/>
+        <c:axId val="144459264"/>
+        <c:axId val="144460800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104993536"/>
+        <c:axId val="144459264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="104995072"/>
+        <c:crossAx val="144460800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104995072"/>
+        <c:axId val="144460800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2442,7 +2570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104993536"/>
+        <c:crossAx val="144459264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2604,7 +2732,7 @@
                   <c:v>20321.072952651899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61728.395061728399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>93457.943925233645</c:v>
@@ -2673,7 +2801,7 @@
                   <c:v>20321.072952651899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61728.395061728399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>93457.943925233645</c:v>
@@ -2742,7 +2870,7 @@
                   <c:v>3485.1705991008257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4338.5830187860647</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100000</c:v>
@@ -2760,11 +2888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105046400"/>
-        <c:axId val="105047936"/>
+        <c:axId val="144503936"/>
+        <c:axId val="144505472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105046400"/>
+        <c:axId val="144503936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105047936"/>
+        <c:crossAx val="144505472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105047936"/>
+        <c:axId val="144505472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105046400"/>
+        <c:crossAx val="144503936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2988,7 +3116,7 @@
                   <c:v>393.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.59999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>85.6</c:v>
@@ -3057,7 +3185,7 @@
                   <c:v>393.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.59999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>85.6</c:v>
@@ -3126,7 +3254,7 @@
                   <c:v>2294.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1848.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>79.999999999999986</c:v>
@@ -3144,11 +3272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105058304"/>
-        <c:axId val="105059840"/>
+        <c:axId val="144614144"/>
+        <c:axId val="144615680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105058304"/>
+        <c:axId val="144614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,7 +3285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105059840"/>
+        <c:crossAx val="144615680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3165,7 +3293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105059840"/>
+        <c:axId val="144615680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3203,7 +3331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105058304"/>
+        <c:crossAx val="144614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3520,11 +3648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105094528"/>
-        <c:axId val="105100800"/>
+        <c:axId val="144978304"/>
+        <c:axId val="144980224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105094528"/>
+        <c:axId val="144978304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,13 +3674,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105100800"/>
+        <c:crossAx val="144980224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3560,7 +3689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105100800"/>
+        <c:axId val="144980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,13 +3712,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105094528"/>
+        <c:crossAx val="144978304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3906,11 +4036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105201024"/>
-        <c:axId val="105211392"/>
+        <c:axId val="145035648"/>
+        <c:axId val="145037568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105201024"/>
+        <c:axId val="145035648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +4068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105211392"/>
+        <c:crossAx val="145037568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3946,7 +4076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105211392"/>
+        <c:axId val="145037568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3976,7 +4106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105201024"/>
+        <c:crossAx val="145035648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4126,7 +4256,7 @@
                   <c:v>21645.351229957632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44253.636380814365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54433.105395181738</c:v>
@@ -4183,7 +4313,7 @@
                   <c:v>19795.674375415139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44253.636380814365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54433.105395181738</c:v>
@@ -4240,7 +4370,7 @@
                   <c:v>5986.5081443669142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11768.778828946262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56568.542494923808</c:v>
@@ -4258,11 +4388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105225600"/>
-        <c:axId val="105243776"/>
+        <c:axId val="145084800"/>
+        <c:axId val="145086336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105225600"/>
+        <c:axId val="145084800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105243776"/>
+        <c:crossAx val="145086336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4279,7 +4409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105243776"/>
+        <c:axId val="145086336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -4317,7 +4447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105225600"/>
+        <c:crossAx val="145084800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -4391,6 +4521,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4664,11 +4795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106151296"/>
-        <c:axId val="106178432"/>
+        <c:axId val="144831232"/>
+        <c:axId val="144833536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106151296"/>
+        <c:axId val="144831232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4690,13 +4821,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106178432"/>
+        <c:crossAx val="144833536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4704,7 +4836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106178432"/>
+        <c:axId val="144833536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4727,13 +4859,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106151296"/>
+        <c:crossAx val="144831232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4816,6 +4949,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5089,11 +5223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106216832"/>
-        <c:axId val="106227584"/>
+        <c:axId val="145138432"/>
+        <c:axId val="145140736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106216832"/>
+        <c:axId val="145138432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5115,13 +5249,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106227584"/>
+        <c:crossAx val="145140736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5129,7 +5264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106227584"/>
+        <c:axId val="145140736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5153,13 +5288,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106216832"/>
+        <c:crossAx val="145138432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5288,9 +5424,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:f>'Pretty Comparison'!$D$35:$J$35</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5307,6 +5443,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5314,10 +5453,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
+              <c:f>'Pretty Comparison'!$D$39:$J$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -5331,9 +5470,12 @@
                   <c:v>20321.072952651899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67340.06734006734</c:v>
+                  <c:v>61728.395061728399</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>116144.01858304298</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>107526.8817204301</c:v>
                 </c:pt>
               </c:numCache>
@@ -5349,11 +5491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104761984"/>
-        <c:axId val="104767872"/>
+        <c:axId val="144356480"/>
+        <c:axId val="144358016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104761984"/>
+        <c:axId val="144356480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +5504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104767872"/>
+        <c:crossAx val="144358016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5370,7 +5512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104767872"/>
+        <c:axId val="144358016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,7 +5523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104761984"/>
+        <c:crossAx val="144356480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5728,11 +5870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106278272"/>
-        <c:axId val="106293120"/>
+        <c:axId val="144929536"/>
+        <c:axId val="144931840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106278272"/>
+        <c:axId val="144929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,7 +5902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106293120"/>
+        <c:crossAx val="144931840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5768,7 +5910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106293120"/>
+        <c:axId val="144931840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48000"/>
@@ -5799,7 +5941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106278272"/>
+        <c:crossAx val="144929536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8000"/>
@@ -6180,11 +6322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107458944"/>
-        <c:axId val="107461248"/>
+        <c:axId val="145167872"/>
+        <c:axId val="145195008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107458944"/>
+        <c:axId val="145167872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6212,7 +6354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107461248"/>
+        <c:crossAx val="145195008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6220,7 +6362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107461248"/>
+        <c:axId val="145195008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6251,7 +6393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107458944"/>
+        <c:crossAx val="145167872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6429,11 +6571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108389504"/>
-        <c:axId val="108391424"/>
+        <c:axId val="145479936"/>
+        <c:axId val="143327616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108389504"/>
+        <c:axId val="145479936"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6462,13 +6604,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="108391424"/>
+        <c:crossAx val="143327616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108391424"/>
+        <c:axId val="143327616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6498,7 +6640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108389504"/>
+        <c:crossAx val="145479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6666,11 +6808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108408192"/>
-        <c:axId val="108443136"/>
+        <c:axId val="145261312"/>
+        <c:axId val="145263232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108408192"/>
+        <c:axId val="145261312"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6699,13 +6841,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108443136"/>
+        <c:crossAx val="145263232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108443136"/>
+        <c:axId val="145263232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6735,7 +6877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108408192"/>
+        <c:crossAx val="145261312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6852,9 +6994,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -6871,6 +7013,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -6878,10 +7023,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$8:$I$8</c:f>
+              <c:f>'Pretty Comparison'!$D$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>308</c:v>
                 </c:pt>
@@ -6895,9 +7040,12 @@
                   <c:v>49.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -6936,9 +7084,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -6955,6 +7103,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -6962,10 +7113,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:f>'Pretty Comparison'!$D$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -6979,9 +7130,12 @@
                   <c:v>49.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -7020,9 +7174,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -7039,6 +7193,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -7046,10 +7203,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$22:$I$22</c:f>
+              <c:f>'Pretty Comparison'!$D$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2522</c:v>
                 </c:pt>
@@ -7063,9 +7220,12 @@
                   <c:v>286.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250.57</c:v>
+                  <c:v>230.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -7081,11 +7241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104809600"/>
-        <c:axId val="104811136"/>
+        <c:axId val="144057856"/>
+        <c:axId val="144059392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104809600"/>
+        <c:axId val="144057856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,7 +7254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104811136"/>
+        <c:crossAx val="144059392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7102,7 +7262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104811136"/>
+        <c:axId val="144059392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7133,7 +7293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104809600"/>
+        <c:crossAx val="144057856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7251,9 +7411,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$11:$I$11</c:f>
+              <c:f>'Pretty Comparison'!$D$11:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -7270,6 +7430,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -7277,10 +7440,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$15:$I$15</c:f>
+              <c:f>'Pretty Comparison'!$D$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -7294,9 +7457,12 @@
                   <c:v>49.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.85</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -7312,11 +7478,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104828928"/>
-        <c:axId val="104830464"/>
+        <c:axId val="144102912"/>
+        <c:axId val="144104448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104828928"/>
+        <c:axId val="144102912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7325,7 +7491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104830464"/>
+        <c:crossAx val="144104448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7333,7 +7499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104830464"/>
+        <c:axId val="144104448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7364,7 +7530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104828928"/>
+        <c:crossAx val="144102912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7466,9 +7632,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
+              <c:f>'Pretty Comparison'!$D$52:$J$52</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -7485,6 +7651,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -7492,10 +7661,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$54:$I$54</c:f>
+              <c:f>'Pretty Comparison'!$D$54:$J$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5656.8542494923804</c:v>
                 </c:pt>
@@ -7509,9 +7678,12 @@
                   <c:v>25500.477142297961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46420.708254852754</c:v>
+                  <c:v>44444.444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>60963.994247895011</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>58658.846008541317</c:v>
                 </c:pt>
               </c:numCache>
@@ -7540,9 +7712,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$52:$I$52</c:f>
+              <c:f>'Pretty Comparison'!$D$52:$J$52</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -7559,6 +7731,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -7566,10 +7741,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$55:$I$55</c:f>
+              <c:f>'Pretty Comparison'!$D$55:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3562.0699860123191</c:v>
                 </c:pt>
@@ -7583,9 +7758,12 @@
                   <c:v>10560.561498861054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11300.832884418302</c:v>
+                  <c:v>11782.811914019254</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>52750.437871662958</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>56568.542494923808</c:v>
                 </c:pt>
               </c:numCache>
@@ -7601,11 +7779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104844672"/>
-        <c:axId val="104846464"/>
+        <c:axId val="144150912"/>
+        <c:axId val="144152448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104844672"/>
+        <c:axId val="144150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7614,7 +7792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104846464"/>
+        <c:crossAx val="144152448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7622,10 +7800,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104846464"/>
+        <c:axId val="144152448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60000"/>
+          <c:max val="70000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7660,7 +7838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104844672"/>
+        <c:crossAx val="144150912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7810,9 +7988,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:f>'Pretty Comparison'!$D$35:$J$35</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -7829,6 +8007,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -7836,10 +8017,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$39:$I$39</c:f>
+              <c:f>'Pretty Comparison'!$D$39:$J$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -7853,9 +8034,12 @@
                   <c:v>20321.072952651899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67340.06734006734</c:v>
+                  <c:v>61728.395061728399</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>116144.01858304298</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>107526.8817204301</c:v>
                 </c:pt>
               </c:numCache>
@@ -7968,6 +8152,21 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5117735263685128E-2"/>
+                  <c:y val="3.9980003702085381E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -7978,9 +8177,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$D$35:$I$35</c:f>
+              <c:f>'Pretty Comparison'!$D$35:$J$35</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -7997,6 +8196,9 @@
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -8004,10 +8206,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pretty Comparison'!$D$46:$I$46</c:f>
+              <c:f>'Pretty Comparison'!$D$46:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>396.51070578905632</c:v>
                 </c:pt>
@@ -8021,9 +8223,12 @@
                   <c:v>3485.1705991008257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3990.9007462984396</c:v>
+                  <c:v>4338.5830187860647</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>86956.521739130432</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -8039,11 +8244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83106048"/>
-        <c:axId val="83107840"/>
+        <c:axId val="144654720"/>
+        <c:axId val="144656256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83106048"/>
+        <c:axId val="144654720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8052,7 +8257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83107840"/>
+        <c:crossAx val="144656256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8060,7 +8265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83107840"/>
+        <c:axId val="144656256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8071,7 +8276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83106048"/>
+        <c:crossAx val="144654720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8439,19 +8644,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>502512.56281407038</c:v>
+                  <c:v>462962.96296296292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261780.10471204191</c:v>
+                  <c:v>240384.61538461538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133333.33333333334</c:v>
+                  <c:v>122399.02080783354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67340.06734006734</c:v>
+                  <c:v>61728.395061728399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33840.947546531301</c:v>
+                  <c:v>31026.993484331371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8459,15 +8664,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pretty Comparison'!$I$11</c:f>
+              <c:f>'Pretty Comparison'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
+                  <c:v>Teensy 3.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8499,6 +8704,70 @@
           <c:val>
             <c:numRef>
               <c:f>'Pretty Comparison'!$I$36:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>884955.75221238949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>454545.45454545453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230946.88221709005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116144.01858304298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58309.037900874639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pretty Comparison'!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pretty Comparison'!$J$36:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8532,11 +8801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83882752"/>
-        <c:axId val="83884672"/>
+        <c:axId val="144257408"/>
+        <c:axId val="144259328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83882752"/>
+        <c:axId val="144257408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8565,7 +8834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83884672"/>
+        <c:crossAx val="144259328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8573,7 +8842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83884672"/>
+        <c:axId val="144259328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8605,7 +8874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83882752"/>
+        <c:crossAx val="144257408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8618,8 +8887,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.79078827508263083"/>
           <c:y val="0.23035897969900113"/>
-          <c:w val="0.1927217397546461"/>
-          <c:h val="0.47198460786466323"/>
+          <c:w val="0.17178032582630445"/>
+          <c:h val="0.53664156997530388"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9126,22 +9395,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>29.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230.49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>460.29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>919.99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9253,11 +9522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104880000"/>
-        <c:axId val="104890752"/>
+        <c:axId val="143637120"/>
+        <c:axId val="143647872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104880000"/>
+        <c:axId val="143637120"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -9282,19 +9551,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104890752"/>
+        <c:crossAx val="143647872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104890752"/>
+        <c:axId val="143647872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9320,13 +9590,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104880000"/>
+        <c:crossAx val="143637120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -9500,7 +9771,7 @@
                   <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
@@ -9569,7 +9840,7 @@
                   <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>8.17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>5.4</c:v>
@@ -9638,7 +9909,7 @@
                   <c:v>143.43</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>115.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>5</c:v>
@@ -9656,11 +9927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104917248"/>
-        <c:axId val="104919040"/>
+        <c:axId val="143563392"/>
+        <c:axId val="143569280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104917248"/>
+        <c:axId val="143563392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9669,7 +9940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104919040"/>
+        <c:crossAx val="143569280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9677,7 +9948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104919040"/>
+        <c:axId val="143569280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9707,7 +9978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104917248"/>
+        <c:crossAx val="143563392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9732,13 +10003,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -9762,13 +10033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9792,13 +10063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>476248</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>438149</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -9822,13 +10093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>400048</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -9858,7 +10129,7 @@
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -9871,7 +10142,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="828675" y="10891836"/>
-          <a:ext cx="5838825" cy="3167063"/>
+          <a:ext cx="6677025" cy="3167063"/>
           <a:chOff x="828675" y="10891836"/>
           <a:chExt cx="5838825" cy="3167063"/>
         </a:xfrm>
@@ -9898,8 +10169,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1647825" y="12134850"/>
-            <a:ext cx="4181475" cy="0"/>
+            <a:off x="1556203" y="12363450"/>
+            <a:ext cx="4345003" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -9931,13 +10202,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -9961,13 +10232,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>485774</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -10684,19 +10955,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>17526</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.pjrc.com/store/teensy32.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://www.pjrc.com/store/teensy32.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10716,7 +10987,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4648200" y="742950"/>
+          <a:off x="4267200" y="571500"/>
           <a:ext cx="3657600" cy="1751076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10740,6 +11011,66 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://ksr-ugc.imgix.net/assets/013/384/642/4b5b213495ffe94ab56a547e080f8a5a_original.jpg?w=680&amp;fit=max&amp;v=1471301219&amp;auto=format&amp;q=92&amp;s=925f9702ad831cea745af7399d5eb576"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="923925"/>
+          <a:ext cx="4572000" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11091,10 +11422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J11"/>
+  <dimension ref="B4:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11102,7 +11433,7 @@
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
@@ -11111,19 +11442,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="15.75">
       <c r="B5" s="25" t="s">
@@ -11301,22 +11632,22 @@
     </row>
     <row r="11" spans="2:10" ht="15.75">
       <c r="B11" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>108</v>
@@ -11325,8 +11656,69 @@
         <v>130</v>
       </c>
       <c r="J11" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75">
+      <c r="B12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>115</v>
       </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75">
+      <c r="B13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="15.75">
+      <c r="E17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11338,6 +11730,184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D11">
+        <v>1.2</v>
+      </c>
+      <c r="E11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="D12">
+        <v>2.4</v>
+      </c>
+      <c r="E12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4.7</v>
+      </c>
+      <c r="E13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E14">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>18.5</v>
+      </c>
+      <c r="E15">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D16">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E16">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="C17" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="D17">
+        <v>73.5</v>
+      </c>
+      <c r="E17">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="D18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K21"/>
   <sheetViews>
@@ -11724,7 +12294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S23"/>
   <sheetViews>
@@ -12576,45 +13146,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I84"/>
+  <dimension ref="B2:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="9" width="12.5703125" style="15" customWidth="1"/>
+    <col min="4" max="10" width="12.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:10" ht="18.75">
+      <c r="B2" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="41" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="42"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="28" t="s">
         <v>89</v>
       </c>
@@ -12642,11 +13214,15 @@
         <v>Teensy 3.2</v>
       </c>
       <c r="I4" s="28" t="str">
+        <f>'Teensy 3.6'!B4</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J4" s="28" t="str">
         <f>'NXP K66'!$C$6</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:10">
       <c r="B5" s="29" t="s">
         <v>90</v>
       </c>
@@ -12671,15 +13247,19 @@
         <v>6.49</v>
       </c>
       <c r="H5" s="30">
-        <f>'Teensy 3.2'!E23</f>
-        <v>1.99</v>
+        <f>'Teensy 3.2'!D7</f>
+        <v>2.16</v>
       </c>
       <c r="I5" s="30">
+        <f>'Teensy 3.6'!E8</f>
+        <v>1.23</v>
+      </c>
+      <c r="J5" s="30">
         <f>'NXP K66'!E11</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6" s="29" t="s">
         <v>90</v>
       </c>
@@ -12704,15 +13284,19 @@
         <v>12.6</v>
       </c>
       <c r="H6" s="30">
-        <f>'Teensy 3.2'!E24</f>
-        <v>3.82</v>
+        <f>'Teensy 3.2'!D8</f>
+        <v>4.16</v>
       </c>
       <c r="I6" s="30">
+        <f>'Teensy 3.6'!E9</f>
+        <v>2.39</v>
+      </c>
+      <c r="J6" s="30">
         <f>'NXP K66'!E12</f>
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:10">
       <c r="B7" s="29" t="s">
         <v>90</v>
       </c>
@@ -12737,15 +13321,19 @@
         <v>24.8</v>
       </c>
       <c r="H7" s="30">
-        <f>'Teensy 3.2'!E25</f>
-        <v>7.5</v>
+        <f>'Teensy 3.2'!D9</f>
+        <v>8.17</v>
       </c>
       <c r="I7" s="30">
+        <f>'Teensy 3.6'!E10</f>
+        <v>4.7</v>
+      </c>
+      <c r="J7" s="30">
         <f>'NXP K66'!E13</f>
         <v>5.4</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8" s="29" t="s">
         <v>90</v>
       </c>
@@ -12770,15 +13358,19 @@
         <v>49.21</v>
       </c>
       <c r="H8" s="30">
-        <f>'Teensy 3.2'!E26</f>
-        <v>14.85</v>
+        <f>'Teensy 3.2'!D10</f>
+        <v>16.2</v>
       </c>
       <c r="I8" s="30">
+        <f>'Teensy 3.6'!E11</f>
+        <v>9.32</v>
+      </c>
+      <c r="J8" s="30">
         <f>'NXP K66'!E14</f>
         <v>10.7</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:10">
       <c r="B9" s="29" t="s">
         <v>90</v>
       </c>
@@ -12803,15 +13395,19 @@
         <v>98.05</v>
       </c>
       <c r="H9" s="30">
-        <f>'Teensy 3.2'!E27</f>
-        <v>29.55</v>
+        <f>'Teensy 3.2'!D11</f>
+        <v>32.229999999999997</v>
       </c>
       <c r="I9" s="30">
+        <f>'Teensy 3.6'!E12</f>
+        <v>18.579999999999998</v>
+      </c>
+      <c r="J9" s="30">
         <f>'NXP K66'!E15</f>
         <v>21.3</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -12819,9 +13415,10 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="28" t="str">
         <f>B4</f>
         <v>Type</v>
@@ -12850,12 +13447,16 @@
         <f>'Teensy 3.2'!$C$18</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I11" s="34" t="str">
+      <c r="I11" s="28" t="str">
+        <f>'Teensy 3.6'!B4</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J11" s="34" t="str">
         <f>'NXP K66'!$C$6</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:10">
       <c r="B12" s="29" t="s">
         <v>91</v>
       </c>
@@ -12880,15 +13481,19 @@
         <v>6.49</v>
       </c>
       <c r="H12" s="30">
-        <f>'Teensy 3.2'!E23</f>
-        <v>1.99</v>
+        <f>'Teensy 3.2'!D7</f>
+        <v>2.16</v>
       </c>
       <c r="I12" s="30">
+        <f>'Teensy 3.6'!D8</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J12" s="30">
         <f>'NXP K66'!D11</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:10">
       <c r="B13" s="29" t="s">
         <v>91</v>
       </c>
@@ -12913,15 +13518,19 @@
         <v>12.6</v>
       </c>
       <c r="H13" s="30">
-        <f>'Teensy 3.2'!E24</f>
-        <v>3.82</v>
+        <f>'Teensy 3.2'!D8</f>
+        <v>4.16</v>
       </c>
       <c r="I13" s="30">
+        <f>'Teensy 3.6'!D9</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J13" s="30">
         <f>'NXP K66'!D12</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:10">
       <c r="B14" s="29" t="s">
         <v>91</v>
       </c>
@@ -12946,15 +13555,19 @@
         <v>24.8</v>
       </c>
       <c r="H14" s="30">
-        <f>'Teensy 3.2'!E25</f>
-        <v>7.5</v>
+        <f>'Teensy 3.2'!D9</f>
+        <v>8.17</v>
       </c>
       <c r="I14" s="30">
+        <f>'Teensy 3.6'!D10</f>
+        <v>4.33</v>
+      </c>
+      <c r="J14" s="30">
         <f>'NXP K66'!D13</f>
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:10">
       <c r="B15" s="29" t="s">
         <v>91</v>
       </c>
@@ -12979,15 +13592,19 @@
         <v>49.21</v>
       </c>
       <c r="H15" s="30">
-        <f>'Teensy 3.2'!E26</f>
-        <v>14.85</v>
+        <f>'Teensy 3.2'!D10</f>
+        <v>16.2</v>
       </c>
       <c r="I15" s="30">
+        <f>'Teensy 3.6'!D11</f>
+        <v>8.61</v>
+      </c>
+      <c r="J15" s="30">
         <f>'NXP K66'!D14</f>
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:10">
       <c r="B16" s="29" t="s">
         <v>91</v>
       </c>
@@ -13009,25 +13626,30 @@
         <v>98.05</v>
       </c>
       <c r="H16" s="30">
-        <f>'Teensy 3.2'!E27</f>
-        <v>29.55</v>
+        <f>'Teensy 3.2'!D11</f>
+        <v>32.229999999999997</v>
       </c>
       <c r="I16" s="30">
+        <f>'Teensy 3.6'!D12</f>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="J16" s="30">
         <f>'NXP K66'!D15</f>
         <v>18.5</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="28" t="str">
         <f>B4</f>
         <v>Type</v>
@@ -13056,12 +13678,16 @@
         <f>'Teensy 3.2'!$C$18</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="I18" s="34" t="str">
+      <c r="I18" s="28" t="str">
+        <f>'Teensy 3.6'!B4</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J18" s="34" t="str">
         <f>'NXP K66'!$C$6</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:10">
       <c r="B19" s="29" t="s">
         <v>92</v>
       </c>
@@ -13086,15 +13712,19 @@
         <v>35.69</v>
       </c>
       <c r="H19" s="30">
-        <f>'Teensy 3.2'!D23</f>
-        <v>30.53</v>
+        <f>'Teensy 3.2'!C7</f>
+        <v>29.24</v>
       </c>
       <c r="I19" s="30">
+        <f>'Teensy 3.6'!C8</f>
+        <v>1.53</v>
+      </c>
+      <c r="J19" s="30">
         <f>'NXP K66'!C11</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:10">
       <c r="B20" s="29" t="s">
         <v>92</v>
       </c>
@@ -13119,15 +13749,19 @@
         <v>71.64</v>
       </c>
       <c r="H20" s="30">
-        <f>'Teensy 3.2'!D24</f>
-        <v>62.01</v>
+        <f>'Teensy 3.2'!C8</f>
+        <v>58.05</v>
       </c>
       <c r="I20" s="30">
+        <f>'Teensy 3.6'!C9</f>
+        <v>2.95</v>
+      </c>
+      <c r="J20" s="30">
         <f>'NXP K66'!C12</f>
         <v>2.7</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:10">
       <c r="B21" s="29" t="s">
         <v>92</v>
       </c>
@@ -13152,15 +13786,19 @@
         <v>143.43</v>
       </c>
       <c r="H21" s="30">
-        <f>'Teensy 3.2'!D25</f>
-        <v>124.89</v>
+        <f>'Teensy 3.2'!C9</f>
+        <v>115.52</v>
       </c>
       <c r="I21" s="30">
+        <f>'Teensy 3.6'!C10</f>
+        <v>5.79</v>
+      </c>
+      <c r="J21" s="30">
         <f>'NXP K66'!C13</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:10">
       <c r="B22" s="29" t="s">
         <v>92</v>
       </c>
@@ -13185,15 +13823,19 @@
         <v>286.93</v>
       </c>
       <c r="H22" s="30">
-        <f>'Teensy 3.2'!D26</f>
-        <v>250.57</v>
+        <f>'Teensy 3.2'!C10</f>
+        <v>230.49</v>
       </c>
       <c r="I22" s="30">
+        <f>'Teensy 3.6'!C11</f>
+        <v>11.5</v>
+      </c>
+      <c r="J22" s="30">
         <f>'NXP K66'!C14</f>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:10">
       <c r="B23" s="29" t="s">
         <v>92</v>
       </c>
@@ -13215,48 +13857,54 @@
         <v>573.83000000000004</v>
       </c>
       <c r="H23" s="30">
-        <f>'Teensy 3.2'!D27</f>
-        <v>501.85</v>
+        <f>'Teensy 3.2'!C11</f>
+        <v>460.29</v>
       </c>
       <c r="I23" s="30">
+        <f>'Teensy 3.6'!C12</f>
+        <v>22.88</v>
+      </c>
+      <c r="J23" s="30">
         <f>'NXP K66'!C15</f>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="18.75">
-      <c r="B26" s="39" t="str">
+    <row r="26" spans="2:10" ht="18.75">
+      <c r="B26" s="40" t="str">
         <f>B2</f>
         <v>FIR Performance (Naïve C)</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="40" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="41" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="17" t="str">
         <f>B4</f>
         <v>Type</v>
       </c>
       <c r="C28" s="17" t="str">
-        <f t="shared" ref="C28:I28" si="0">C4</f>
+        <f t="shared" ref="C28:J28" si="0">C4</f>
         <v>N of FIR</v>
       </c>
       <c r="D28" s="20" t="str">
@@ -13280,11 +13928,15 @@
         <v>Teensy 3.2</v>
       </c>
       <c r="I28" s="20" t="str">
+        <f t="shared" ref="I28" si="1">I4</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:10">
       <c r="B29" s="16" t="str">
         <f>B5</f>
         <v>Int16</v>
@@ -13298,163 +13950,183 @@
         <v>24390.243902439026</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" ref="E29:I29" si="1">1000000/E5</f>
+        <f t="shared" ref="E29:J29" si="2">1000000/E5</f>
         <v>109769.48408342482</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155038.75968992247</v>
       </c>
       <c r="G29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154083.20493066256</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" si="1"/>
-        <v>502512.56281407038</v>
+        <f t="shared" si="2"/>
+        <v>462962.96296296292</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I29" si="3">1000000/I5</f>
+        <v>813008.13008130086</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="2"/>
         <v>714285.71428571432</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:10">
       <c r="B30" s="16" t="str">
-        <f t="shared" ref="B30:C30" si="2">B6</f>
+        <f t="shared" ref="B30:C30" si="4">B6</f>
         <v>Int16</v>
       </c>
       <c r="C30" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" ref="D30:I30" si="3">1000000/D6</f>
+        <f t="shared" ref="D30:J30" si="5">1000000/D6</f>
         <v>12658.227848101265</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57273.768613974797</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80192.46190858059</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79365.079365079364</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="3"/>
-        <v>261780.10471204191</v>
+        <f t="shared" si="5"/>
+        <v>240384.61538461538</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I30" si="6">1000000/I6</f>
+        <v>418410.04184100416</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="5"/>
         <v>357142.85714285716</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:10">
       <c r="B31" s="16" t="str">
-        <f t="shared" ref="B31:C31" si="4">B7</f>
+        <f t="shared" ref="B31:C31" si="7">B7</f>
         <v>Int16</v>
       </c>
       <c r="C31" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" ref="D31:I31" si="5">1000000/D7</f>
+        <f t="shared" ref="D31:J31" si="8">1000000/D7</f>
         <v>6451.6129032258068</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29282.576866764277</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40849.67320261438</v>
       </c>
       <c r="G31" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40322.580645161288</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" si="5"/>
-        <v>133333.33333333334</v>
+        <f t="shared" si="8"/>
+        <v>122399.02080783354</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I31" si="9">1000000/I7</f>
+        <v>212765.95744680849</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="8"/>
         <v>185185.18518518517</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:10">
       <c r="B32" s="16" t="str">
-        <f t="shared" ref="B32:C32" si="6">B8</f>
+        <f t="shared" ref="B32:C32" si="10">B8</f>
         <v>Int16</v>
       </c>
       <c r="C32" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" ref="D32:I32" si="7">1000000/D8</f>
+        <f t="shared" ref="D32:J32" si="11">1000000/D8</f>
         <v>3246.7532467532469</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14803.849000740192</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20605.8108386565</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20321.072952651899</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" si="7"/>
-        <v>67340.06734006734</v>
+        <f t="shared" si="11"/>
+        <v>61728.395061728399</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I32" si="12">1000000/I8</f>
+        <v>107296.13733905579</v>
+      </c>
+      <c r="J32" s="21">
+        <f t="shared" si="11"/>
         <v>93457.943925233645</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:10">
       <c r="B33" s="16" t="str">
-        <f t="shared" ref="B33:C33" si="8">B9</f>
+        <f t="shared" ref="B33:C33" si="13">B9</f>
         <v>Int16</v>
       </c>
       <c r="C33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" ref="D33:I33" si="9">1000000/D9</f>
+        <f t="shared" ref="D33:J33" si="14">1000000/D9</f>
         <v>1633.9869281045751</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7443.2452549311502</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10347.682119205298</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10198.878123406426</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" si="9"/>
-        <v>33840.947546531301</v>
+        <f t="shared" si="14"/>
+        <v>31026.993484331371</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I33" si="15">1000000/I9</f>
+        <v>53821.313240043062</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" si="14"/>
         <v>46948.356807511736</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:10">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="22"/>
@@ -13462,15 +14134,16 @@
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="17" t="str">
-        <f t="shared" ref="B35:C35" si="10">B11</f>
+        <f t="shared" ref="B35:C35" si="16">B11</f>
         <v>Type</v>
       </c>
       <c r="C35" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>N of FIR</v>
       </c>
       <c r="D35" s="24" t="str">
@@ -13478,194 +14151,218 @@
         <v>Arduino Uno</v>
       </c>
       <c r="E35" s="24" t="str">
-        <f t="shared" ref="E35:I35" si="11">E11</f>
+        <f t="shared" ref="E35:J35" si="17">E11</f>
         <v>Arduino M0</v>
       </c>
       <c r="F35" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Maple</v>
       </c>
       <c r="G35" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Arduino Due</v>
       </c>
       <c r="H35" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="I35" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I35" si="18">I11</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J35" s="24" t="str">
+        <f t="shared" si="17"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:10">
       <c r="B36" s="16" t="str">
-        <f t="shared" ref="B36:C36" si="12">B12</f>
+        <f t="shared" ref="B36:C36" si="19">B12</f>
         <v>Int32</v>
       </c>
       <c r="C36" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="D36" s="21">
-        <f t="shared" ref="D36:I36" si="13">1000000/D12</f>
+        <f t="shared" ref="D36:J36" si="20">1000000/D12</f>
         <v>7751.937984496124</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>92850.510677808736</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>180180.18018018018</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>154083.20493066256</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="13"/>
-        <v>502512.56281407038</v>
+        <f t="shared" si="20"/>
+        <v>462962.96296296292</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I36" si="21">1000000/I12</f>
+        <v>884955.75221238949</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="20"/>
         <v>833333.33333333337</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:10">
       <c r="B37" s="16" t="str">
-        <f t="shared" ref="B37:C37" si="14">B13</f>
+        <f t="shared" ref="B37:C37" si="22">B13</f>
         <v>Int32</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" ref="D37:I37" si="15">1000000/D13</f>
+        <f t="shared" ref="D37:J37" si="23">1000000/D13</f>
         <v>3937.0078740157483</v>
       </c>
       <c r="E37" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>48100.048100048101</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>93808.630393996253</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>79365.079365079364</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="15"/>
-        <v>261780.10471204191</v>
+        <f t="shared" si="23"/>
+        <v>240384.61538461538</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I37" si="24">1000000/I13</f>
+        <v>454545.45454545453</v>
+      </c>
+      <c r="J37" s="21">
+        <f t="shared" si="23"/>
         <v>416666.66666666669</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:10">
       <c r="B38" s="16" t="str">
-        <f t="shared" ref="B38:C38" si="16">B14</f>
+        <f t="shared" ref="B38:C38" si="25">B14</f>
         <v>Int32</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="D38" s="21">
-        <f t="shared" ref="D38:I38" si="17">1000000/D14</f>
+        <f t="shared" ref="D38:J38" si="26">1000000/D14</f>
         <v>1988.0715705765408</v>
       </c>
       <c r="E38" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>24491.795248591723</v>
       </c>
       <c r="F38" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>47824.007651841224</v>
       </c>
       <c r="G38" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>40322.580645161288</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="17"/>
-        <v>133333.33333333334</v>
+        <f t="shared" si="26"/>
+        <v>122399.02080783354</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I38" si="27">1000000/I14</f>
+        <v>230946.88221709005</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="26"/>
         <v>212765.95744680849</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:10">
       <c r="B39" s="16" t="str">
-        <f t="shared" ref="B39:C39" si="18">B15</f>
+        <f t="shared" ref="B39:C39" si="28">B15</f>
         <v>Int32</v>
       </c>
       <c r="C39" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>128</v>
       </c>
       <c r="D39" s="21">
-        <f t="shared" ref="D39:I39" si="19">1000000/D15</f>
+        <f t="shared" ref="D39:J39" si="29">1000000/D15</f>
         <v>1000</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>12359.411692003461</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>24160.425223483933</v>
       </c>
       <c r="G39" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>20321.072952651899</v>
       </c>
       <c r="H39" s="21">
-        <f t="shared" si="19"/>
-        <v>67340.06734006734</v>
+        <f t="shared" si="29"/>
+        <v>61728.395061728399</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I39" si="30">1000000/I15</f>
+        <v>116144.01858304298</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="29"/>
         <v>107526.8817204301</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:10">
       <c r="B40" s="16" t="str">
-        <f t="shared" ref="B40:C40" si="20">B16</f>
+        <f t="shared" ref="B40:C40" si="31">B16</f>
         <v>Int32</v>
       </c>
       <c r="C40" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>256</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21">
-        <f t="shared" ref="E40:I40" si="21">1000000/E16</f>
+        <f t="shared" ref="E40:J40" si="32">1000000/E16</f>
         <v>6208.8662610207375</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>12141.816415735793</v>
       </c>
       <c r="G40" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>10198.878123406426</v>
       </c>
       <c r="H40" s="21">
-        <f t="shared" si="21"/>
-        <v>33840.947546531301</v>
+        <f t="shared" si="32"/>
+        <v>31026.993484331371</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I40" si="33">1000000/I16</f>
+        <v>58309.037900874639</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="32"/>
         <v>54054.054054054053</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:10">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="22"/>
@@ -13673,15 +14370,16 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="2:9">
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="17" t="str">
-        <f t="shared" ref="B42:C42" si="22">B18</f>
+        <f t="shared" ref="B42:C42" si="34">B18</f>
         <v>Type</v>
       </c>
       <c r="C42" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>N of FIR</v>
       </c>
       <c r="D42" s="24" t="str">
@@ -13689,222 +14387,248 @@
         <v>Arduino Uno</v>
       </c>
       <c r="E42" s="24" t="str">
-        <f t="shared" ref="E42:I42" si="23">E18</f>
+        <f t="shared" ref="E42:J42" si="35">E18</f>
         <v>Arduino M0</v>
       </c>
       <c r="F42" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Maple</v>
       </c>
       <c r="G42" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Arduino Due</v>
       </c>
       <c r="H42" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="I42" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I42" si="36">I18</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J42" s="24" t="str">
+        <f t="shared" si="35"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:10">
       <c r="B43" s="16" t="str">
-        <f t="shared" ref="B43:C43" si="24">B19</f>
+        <f t="shared" ref="B43:C43" si="37">B19</f>
         <v>Float32</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" ref="D43:I43" si="25">1000000/D19</f>
+        <f t="shared" ref="D43:J43" si="38">1000000/D19</f>
         <v>3215.4340836012861</v>
       </c>
       <c r="E43" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>8708.52564660803</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>25387.154100025386</v>
       </c>
       <c r="G43" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>28019.052956010088</v>
       </c>
       <c r="H43" s="21">
-        <f t="shared" si="25"/>
-        <v>32754.667540124465</v>
+        <f t="shared" si="38"/>
+        <v>34199.726402188782</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I43" si="39">1000000/I19</f>
+        <v>653594.77124183008</v>
+      </c>
+      <c r="J43" s="21">
+        <f t="shared" si="38"/>
         <v>769230.76923076925</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:10">
       <c r="B44" s="16" t="str">
-        <f t="shared" ref="B44:C44" si="26">B20</f>
+        <f t="shared" ref="B44:C44" si="40">B20</f>
         <v>Float32</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>32</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" ref="D44:I44" si="27">1000000/D20</f>
+        <f t="shared" ref="D44:J44" si="41">1000000/D20</f>
         <v>1607.7170418006431</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>4415.5958846646354</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>12888.258796236629</v>
       </c>
       <c r="G44" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>13958.682300390843</v>
       </c>
       <c r="H44" s="21">
-        <f t="shared" si="27"/>
-        <v>16126.431220770844</v>
+        <f t="shared" si="41"/>
+        <v>17226.528854435834</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I44" si="42">1000000/I20</f>
+        <v>338983.05084745761</v>
+      </c>
+      <c r="J44" s="21">
+        <f t="shared" si="41"/>
         <v>370370.37037037034</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:10">
       <c r="B45" s="16" t="str">
-        <f t="shared" ref="B45:C45" si="28">B21</f>
+        <f t="shared" ref="B45:C45" si="43">B21</f>
         <v>Float32</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="43"/>
         <v>64</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" ref="D45:I45" si="29">1000000/D21</f>
+        <f t="shared" ref="D45:J45" si="44">1000000/D21</f>
         <v>787.40157480314963</v>
       </c>
       <c r="E45" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>2239.8924851607126</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>6500.2600104004159</v>
       </c>
       <c r="G45" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>6972.0421111343512</v>
       </c>
       <c r="H45" s="21">
-        <f t="shared" si="29"/>
-        <v>8007.0462006565776</v>
+        <f t="shared" si="44"/>
+        <v>8656.5096952908589</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="I45" si="45">1000000/I21</f>
+        <v>172711.57167530226</v>
+      </c>
+      <c r="J45" s="21">
+        <f t="shared" si="44"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:10">
       <c r="B46" s="16" t="str">
-        <f t="shared" ref="B46:C46" si="30">B22</f>
+        <f t="shared" ref="B46:C46" si="46">B22</f>
         <v>Float32</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>128</v>
       </c>
       <c r="D46" s="21">
-        <f t="shared" ref="D46:I46" si="31">1000000/D22</f>
+        <f t="shared" ref="D46:J46" si="47">1000000/D22</f>
         <v>396.51070578905632</v>
       </c>
       <c r="E46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>1120.1469632815824</v>
       </c>
       <c r="F46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>3265.7326671238693</v>
       </c>
       <c r="G46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>3485.1705991008257</v>
       </c>
       <c r="H46" s="21">
-        <f t="shared" si="31"/>
-        <v>3990.9007462984396</v>
+        <f t="shared" si="47"/>
+        <v>4338.5830187860647</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="I46" si="48">1000000/I22</f>
+        <v>86956.521739130432</v>
+      </c>
+      <c r="J46" s="21">
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:10">
       <c r="B47" s="16" t="str">
-        <f t="shared" ref="B47:C47" si="32">B23</f>
+        <f t="shared" ref="B47:C47" si="49">B23</f>
         <v>Float32</v>
       </c>
       <c r="C47" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>256</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21">
-        <f t="shared" ref="E47:I47" si="33">1000000/E23</f>
+        <f t="shared" ref="E47:J47" si="50">1000000/E23</f>
         <v>560.63867958378182</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>1637.0899089778011</v>
       </c>
       <c r="G47" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="50"/>
         <v>1742.6764024188346</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" si="33"/>
-        <v>1992.6272790674504</v>
+        <f t="shared" si="50"/>
+        <v>2172.5433965543461</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="I47" si="51">1000000/I23</f>
+        <v>43706.293706293705</v>
+      </c>
+      <c r="J47" s="21">
+        <f t="shared" si="50"/>
         <v>50251.256281407041</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="18.75">
-      <c r="B50" s="39" t="str">
+    <row r="50" spans="2:10" ht="18.75">
+      <c r="B50" s="40" t="str">
         <f>B2</f>
         <v>FIR Performance (Naïve C)</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="40" t="str">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="41" t="str">
         <f>B3</f>
         <v>Inputs</v>
       </c>
       <c r="C51" s="42"/>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
-    </row>
-    <row r="52" spans="2:9">
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="42"/>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="28" t="s">
         <v>89</v>
       </c>
@@ -13912,31 +14636,35 @@
         <v>97</v>
       </c>
       <c r="D52" s="35" t="str">
-        <f t="shared" ref="D52:I52" si="34">D28</f>
+        <f t="shared" ref="D52:J52" si="52">D28</f>
         <v>Arduino Uno</v>
       </c>
       <c r="E52" s="35" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>Arduino M0</v>
       </c>
       <c r="F52" s="35" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>Maple</v>
       </c>
       <c r="G52" s="35" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>Arduino Due</v>
       </c>
       <c r="H52" s="35" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="I52" s="35" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="I52" si="53">I28</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J52" s="35" t="str">
+        <f t="shared" si="52"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:10">
       <c r="B53" s="29" t="str">
         <f>B32</f>
         <v>Int16</v>
@@ -13949,27 +14677,31 @@
         <v>10192.94382875251</v>
       </c>
       <c r="E53" s="21">
-        <f t="shared" ref="E53:I53" si="35">SQRT($C53/(E8*0.000001/$C8))</f>
+        <f t="shared" ref="E53:J53" si="54">SQRT($C53/(E8*0.000001/$C8))</f>
         <v>21765.18247163773</v>
       </c>
       <c r="F53" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>25678.511382808159</v>
       </c>
       <c r="G53" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="54"/>
         <v>25500.477142297961</v>
       </c>
       <c r="H53" s="21">
-        <f t="shared" si="35"/>
-        <v>46420.708254852754</v>
+        <f t="shared" si="54"/>
+        <v>44444.444444444445</v>
       </c>
       <c r="I53" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="I53" si="55">SQRT($C53/(I8*0.000001/$C8))</f>
+        <v>58595.873530904762</v>
+      </c>
+      <c r="J53" s="21">
+        <f t="shared" si="54"/>
         <v>54686.874161973057</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:10">
       <c r="B54" s="29" t="str">
         <f>B39</f>
         <v>Int32</v>
@@ -13982,27 +14714,31 @@
         <v>5656.8542494923804</v>
       </c>
       <c r="E54" s="21">
-        <f t="shared" ref="E54:I54" si="36">SQRT($C54/(E15*0.000001/$C15))</f>
+        <f t="shared" ref="E54:J54" si="56">SQRT($C54/(E15*0.000001/$C15))</f>
         <v>19887.211321452556</v>
       </c>
       <c r="F54" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>27805.280202714839</v>
       </c>
       <c r="G54" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>25500.477142297961</v>
       </c>
       <c r="H54" s="21">
-        <f t="shared" si="36"/>
-        <v>46420.708254852754</v>
+        <f t="shared" si="56"/>
+        <v>44444.444444444445</v>
       </c>
       <c r="I54" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I54" si="57">SQRT($C54/(I15*0.000001/$C15))</f>
+        <v>60963.994247895011</v>
+      </c>
+      <c r="J54" s="21">
+        <f t="shared" si="56"/>
         <v>58658.846008541317</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:10">
       <c r="B55" s="29" t="str">
         <f>B46</f>
         <v>Float32</v>
@@ -14015,27 +14751,31 @@
         <v>3562.0699860123191</v>
       </c>
       <c r="E55" s="21">
-        <f t="shared" ref="E55:I55" si="37">SQRT($C55/(E22*0.000001/$C22))</f>
+        <f t="shared" ref="E55:J55" si="58">SQRT($C55/(E22*0.000001/$C22))</f>
         <v>5987.0445818459248</v>
       </c>
       <c r="F55" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>10222.692666218809</v>
       </c>
       <c r="G55" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>10560.561498861054</v>
       </c>
       <c r="H55" s="21">
-        <f t="shared" si="37"/>
-        <v>11300.832884418302</v>
+        <f t="shared" si="58"/>
+        <v>11782.811914019254</v>
       </c>
       <c r="I55" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I55" si="59">SQRT($C55/(I22*0.000001/$C22))</f>
+        <v>52750.437871662958</v>
+      </c>
+      <c r="J55" s="21">
+        <f t="shared" si="58"/>
         <v>56568.542494923808</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:10">
       <c r="B76" t="s">
         <v>139</v>
       </c>
@@ -14046,7 +14786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:10">
       <c r="B77" t="s">
         <v>13</v>
       </c>
@@ -14057,7 +14797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:10">
       <c r="B78" t="s">
         <v>66</v>
       </c>
@@ -14066,69 +14806,75 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="18.75">
-      <c r="B79" s="39" t="str">
+    <row r="79" spans="2:10" ht="18.75">
+      <c r="B79" s="40" t="str">
         <f>B2</f>
         <v>FIR Performance (Naïve C)</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="40" t="str">
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="41" t="str">
         <f>B27</f>
         <v>Inputs</v>
       </c>
       <c r="C80" s="42"/>
-      <c r="D80" s="40" t="s">
+      <c r="D80" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
-    </row>
-    <row r="81" spans="2:9">
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="2:10">
       <c r="B81" s="28" t="str">
         <f>B28</f>
         <v>Type</v>
       </c>
       <c r="C81" s="28" t="str">
-        <f t="shared" ref="C81:I81" si="38">C28</f>
+        <f t="shared" ref="C81:J81" si="60">C28</f>
         <v>N of FIR</v>
       </c>
       <c r="D81" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>Arduino Uno</v>
       </c>
       <c r="E81" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>Arduino M0</v>
       </c>
       <c r="F81" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>Maple</v>
       </c>
       <c r="G81" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>Arduino Due</v>
       </c>
       <c r="H81" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="60"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="I81" s="28" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I81" si="61">I28</f>
+        <v>Teensy 3.6</v>
+      </c>
+      <c r="J81" s="28" t="str">
+        <f t="shared" si="60"/>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:10">
       <c r="B82" s="29" t="str">
         <f>B32</f>
         <v>Int16</v>
@@ -14137,132 +14883,144 @@
         <f>$D$78</f>
         <v>176</v>
       </c>
-      <c r="D82" s="47">
+      <c r="D82" s="37">
         <f>D32*$C32/$C82</f>
         <v>2361.2750885478158</v>
       </c>
-      <c r="E82" s="47">
-        <f t="shared" ref="E82:I82" si="39">E32*$C32/$C82</f>
+      <c r="E82" s="37">
+        <f t="shared" ref="E82:J82" si="62">E32*$C32/$C82</f>
         <v>10766.435636901959</v>
       </c>
-      <c r="F82" s="47">
-        <f t="shared" si="39"/>
+      <c r="F82" s="37">
+        <f t="shared" si="62"/>
         <v>14986.044246295636</v>
       </c>
-      <c r="G82" s="47">
-        <f t="shared" si="39"/>
+      <c r="G82" s="37">
+        <f t="shared" si="62"/>
         <v>14778.962147383199</v>
       </c>
-      <c r="H82" s="47">
-        <f t="shared" si="39"/>
-        <v>48974.594429139885</v>
-      </c>
-      <c r="I82" s="47">
-        <f t="shared" si="39"/>
+      <c r="H82" s="37">
+        <f t="shared" si="62"/>
+        <v>44893.37822671156</v>
+      </c>
+      <c r="I82" s="37">
+        <f t="shared" ref="I82" si="63">I32*$C32/$C82</f>
+        <v>78033.554428404212</v>
+      </c>
+      <c r="J82" s="37">
+        <f t="shared" si="62"/>
         <v>67969.413763806282</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:10">
       <c r="B83" s="29" t="str">
         <f>B39</f>
         <v>Int32</v>
       </c>
       <c r="C83" s="29">
-        <f t="shared" ref="C83:C84" si="40">$D$78</f>
+        <f t="shared" ref="C83:C84" si="64">$D$78</f>
         <v>176</v>
       </c>
-      <c r="D83" s="47">
+      <c r="D83" s="37">
         <f>D39*$C39/$C83</f>
         <v>727.27272727272725</v>
       </c>
-      <c r="E83" s="47">
-        <f t="shared" ref="E83:I83" si="41">E39*$C39/$C83</f>
+      <c r="E83" s="37">
+        <f t="shared" ref="E83:J83" si="65">E39*$C39/$C83</f>
         <v>8988.6630487297898</v>
       </c>
-      <c r="F83" s="47">
-        <f t="shared" si="41"/>
+      <c r="F83" s="37">
+        <f t="shared" si="65"/>
         <v>17571.21834435195</v>
       </c>
-      <c r="G83" s="47">
-        <f t="shared" si="41"/>
+      <c r="G83" s="37">
+        <f t="shared" si="65"/>
         <v>14778.962147383199</v>
       </c>
-      <c r="H83" s="47">
-        <f t="shared" si="41"/>
-        <v>48974.594429139885</v>
-      </c>
-      <c r="I83" s="47">
-        <f t="shared" si="41"/>
+      <c r="H83" s="37">
+        <f t="shared" si="65"/>
+        <v>44893.37822671156</v>
+      </c>
+      <c r="I83" s="37">
+        <f t="shared" ref="I83" si="66">I39*$C39/$C83</f>
+        <v>84468.377151303983</v>
+      </c>
+      <c r="J83" s="37">
+        <f t="shared" si="65"/>
         <v>78201.368523949161</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:10">
       <c r="B84" s="29" t="str">
         <f>B46</f>
         <v>Float32</v>
       </c>
       <c r="C84" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="64"/>
         <v>176</v>
       </c>
-      <c r="D84" s="47">
+      <c r="D84" s="37">
         <f>D46*$C46/$C84</f>
         <v>288.37142239204098</v>
       </c>
-      <c r="E84" s="47">
-        <f t="shared" ref="E84:I84" si="42">E46*$C46/$C84</f>
+      <c r="E84" s="37">
+        <f t="shared" ref="E84:J84" si="67">E46*$C46/$C84</f>
         <v>814.65233693205994</v>
       </c>
-      <c r="F84" s="47">
-        <f t="shared" si="42"/>
+      <c r="F84" s="37">
+        <f t="shared" si="67"/>
         <v>2375.078303362814</v>
       </c>
-      <c r="G84" s="47">
-        <f t="shared" si="42"/>
+      <c r="G84" s="37">
+        <f t="shared" si="67"/>
         <v>2534.6695266187821</v>
       </c>
-      <c r="H84" s="47">
-        <f t="shared" si="42"/>
-        <v>2902.4732700352288</v>
-      </c>
-      <c r="I84" s="47">
-        <f t="shared" si="42"/>
+      <c r="H84" s="37">
+        <f t="shared" si="67"/>
+        <v>3155.3331045716836</v>
+      </c>
+      <c r="I84" s="37">
+        <f t="shared" ref="I84" si="68">I46*$C46/$C84</f>
+        <v>63241.106719367584</v>
+      </c>
+      <c r="J84" s="37">
+        <f t="shared" si="67"/>
         <v>72727.272727272721</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B79:J79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D80:J80"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B50:J50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B26:I26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D53:I55">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D53:J55">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThanOrEqual">
       <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
       <formula>32000</formula>
       <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>32000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:I84">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D82:J84">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>$D$77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThanOrEqual">
       <formula>$D$77</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14276,7 +15034,7 @@
   <dimension ref="A1:AD114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14348,15 +15106,15 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
@@ -14433,9 +15191,9 @@
         <f>'Arduino Due'!D11</f>
         <v>35.69</v>
       </c>
-      <c r="G5">
-        <f>'Teensy 3.2'!C7</f>
-        <v>29.24</v>
+      <c r="G5" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H5" s="10">
         <f>'NXP K66'!C11</f>
@@ -14461,9 +15219,9 @@
         <f t="shared" si="1"/>
         <v>8.7139254693191379</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>10.636114911080712</v>
+        <v>#REF!</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
@@ -14495,9 +15253,9 @@
         <f>'Arduino Due'!D12</f>
         <v>71.64</v>
       </c>
-      <c r="G6">
-        <f>'Teensy 3.2'!C8</f>
-        <v>58.05</v>
+      <c r="G6" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H6" s="10">
         <f>'NXP K66'!C12</f>
@@ -14523,9 +15281,9 @@
         <f t="shared" si="1"/>
         <v>8.6823003908431051</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>10.714900947459087</v>
+        <v>#REF!</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
@@ -14557,9 +15315,9 @@
         <f>'Arduino Due'!D13</f>
         <v>143.43</v>
       </c>
-      <c r="G7">
-        <f>'Teensy 3.2'!C9</f>
-        <v>115.52</v>
+      <c r="G7" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H7" s="10">
         <f>'NXP K66'!C13</f>
@@ -14585,9 +15343,9 @@
         <f t="shared" si="1"/>
         <v>8.8544934811406257</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>10.993767313019392</v>
+        <v>#REF!</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
@@ -14619,9 +15377,9 @@
         <f>'Arduino Due'!D14</f>
         <v>286.93</v>
       </c>
-      <c r="G8">
-        <f>'Teensy 3.2'!C10</f>
-        <v>230.49</v>
+      <c r="G8" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H8" s="10">
         <f>'NXP K66'!C14</f>
@@ -14647,9 +15405,9 @@
         <f t="shared" si="1"/>
         <v>8.789600250932283</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>10.941906373378455</v>
+        <v>#REF!</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
@@ -14677,9 +15435,9 @@
         <f>'Arduino Due'!D15</f>
         <v>573.83000000000004</v>
       </c>
-      <c r="G9">
-        <f>'Teensy 3.2'!C11</f>
-        <v>460.29</v>
+      <c r="G9" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" s="10">
         <f>'NXP K66'!C15</f>
@@ -14713,9 +15471,9 @@
         <f>'Arduino Due'!D16</f>
         <v>1147.53</v>
       </c>
-      <c r="G10">
-        <f>'Teensy 3.2'!C12</f>
-        <v>919.99</v>
+      <c r="G10" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H10" s="10">
         <f>'NXP K66'!C16</f>
@@ -14737,15 +15495,15 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="2:17">
       <c r="C14" t="s">
@@ -14876,9 +15634,9 @@
         <f t="shared" si="6"/>
         <v>1.6742095716061491</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="14" t="e">
         <f t="shared" si="6"/>
-        <v>1.8236510622297424</v>
+        <v>#REF!</v>
       </c>
       <c r="P17" s="14">
         <f t="shared" si="6"/>
@@ -15114,9 +15872,9 @@
         <f>'Arduino Due'!D11</f>
         <v>35.69</v>
       </c>
-      <c r="G24">
-        <f>'Teensy 3.2'!C7</f>
-        <v>29.24</v>
+      <c r="G24" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H24" s="10">
         <f>'NXP K66'!C11</f>
@@ -15142,9 +15900,9 @@
         <f t="shared" si="9"/>
         <v>8.7139254693191379</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="e">
         <f t="shared" ref="O24:O35" si="10">$C24/G24</f>
-        <v>10.636114911080712</v>
+        <v>#REF!</v>
       </c>
       <c r="P24">
         <f t="shared" ref="P24:P35" si="11">$C24/H24</f>
@@ -15155,9 +15913,9 @@
         <v>56.499227904441817</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="6">
+      <c r="S24" s="6" t="e">
         <f>G24/H24</f>
-        <v>22.492307692307691</v>
+        <v>#REF!</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6">
@@ -15176,9 +15934,9 @@
         <f t="shared" ref="X24:Z24" si="13">F24/F32</f>
         <v>5.499229583975346</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="6" t="e">
         <f t="shared" si="13"/>
-        <v>13.537037037037035</v>
+        <v>#REF!</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="13"/>
@@ -15206,9 +15964,9 @@
         <f>'Arduino Due'!D12</f>
         <v>71.64</v>
       </c>
-      <c r="G25">
-        <f>'Teensy 3.2'!C8</f>
-        <v>58.05</v>
+      <c r="G25" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H25" s="10">
         <f>'NXP K66'!C12</f>
@@ -15234,9 +15992,9 @@
         <f t="shared" si="9"/>
         <v>8.6823003908431051</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="e">
         <f t="shared" si="10"/>
-        <v>10.714900947459087</v>
+        <v>#REF!</v>
       </c>
       <c r="P25">
         <f t="shared" si="11"/>
@@ -15247,9 +16005,9 @@
         <v>109.26178033463616</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="6">
+      <c r="S25" s="6" t="e">
         <f t="shared" ref="S25:S35" si="18">G25/H25</f>
-        <v>21.499999999999996</v>
+        <v>#REF!</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6">
@@ -15268,9 +16026,9 @@
         <f t="shared" ref="X25:X27" si="19">F25/F33</f>
         <v>5.6857142857142859</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="6" t="e">
         <f t="shared" ref="Y25:Z27" si="20">G25/G33</f>
-        <v>13.954326923076922</v>
+        <v>#REF!</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="20"/>
@@ -15298,9 +16056,9 @@
         <f>'Arduino Due'!D13</f>
         <v>143.43</v>
       </c>
-      <c r="G26">
-        <f>'Teensy 3.2'!C9</f>
-        <v>115.52</v>
+      <c r="G26" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" s="10">
         <f>'NXP K66'!C13</f>
@@ -15326,9 +16084,9 @@
         <f t="shared" si="9"/>
         <v>8.8544934811406257</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="e">
         <f t="shared" si="10"/>
-        <v>10.993767313019392</v>
+        <v>#REF!</v>
       </c>
       <c r="P26">
         <f t="shared" si="11"/>
@@ -15339,9 +16097,9 @@
         <v>151.90024818347638</v>
       </c>
       <c r="R26" s="6"/>
-      <c r="S26" s="6">
+      <c r="S26" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>23.103999999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6">
@@ -15360,9 +16118,9 @@
         <f t="shared" si="19"/>
         <v>5.7834677419354836</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="6" t="e">
         <f t="shared" si="20"/>
-        <v>14.13953488372093</v>
+        <v>#REF!</v>
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="20"/>
@@ -15390,9 +16148,9 @@
         <f>'Arduino Due'!D14</f>
         <v>286.93</v>
       </c>
-      <c r="G27">
-        <f>'Teensy 3.2'!C10</f>
-        <v>230.49</v>
+      <c r="G27" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" s="10">
         <f>'NXP K66'!C14</f>
@@ -15418,9 +16176,9 @@
         <f t="shared" si="9"/>
         <v>8.789600250932283</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="e">
         <f t="shared" si="10"/>
-        <v>10.941906373378455</v>
+        <v>#REF!</v>
       </c>
       <c r="P27">
         <f t="shared" si="11"/>
@@ -15431,9 +16189,9 @@
         <v>287.60405975595847</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="6">
+      <c r="S27" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>23.048999999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6">
@@ -15452,9 +16210,9 @@
         <f t="shared" si="19"/>
         <v>5.83072546230441</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="6" t="e">
         <f t="shared" si="20"/>
-        <v>14.22777777777778</v>
+        <v>#REF!</v>
       </c>
       <c r="Z27" s="6">
         <f t="shared" si="20"/>
@@ -15485,9 +16243,9 @@
         <f>'Arduino Due'!E11</f>
         <v>6.49</v>
       </c>
-      <c r="G28">
-        <f>'Teensy 3.2'!D7</f>
-        <v>2.16</v>
+      <c r="G28" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" s="10">
         <f>H32</f>
@@ -15513,9 +16271,9 @@
         <f t="shared" si="9"/>
         <v>19.876733436055471</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="e">
         <f t="shared" si="10"/>
-        <v>59.722222222222221</v>
+        <v>#REF!</v>
       </c>
       <c r="P28">
         <f t="shared" si="11"/>
@@ -15526,9 +16284,9 @@
         <v>23.435371060041785</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="6">
+      <c r="S28" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.5428571428571431</v>
+        <v>#REF!</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6">
@@ -15547,9 +16305,9 @@
         <f t="shared" ref="X28:Z28" si="22">F28/F32</f>
         <v>1</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="6" t="e">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Z28" s="6">
         <f t="shared" si="22"/>
@@ -15577,9 +16335,9 @@
         <f>'Arduino Due'!E12</f>
         <v>12.6</v>
       </c>
-      <c r="G29">
-        <f>'Teensy 3.2'!D8</f>
-        <v>4.16</v>
+      <c r="G29" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" ref="H29:H31" si="24">H33</f>
@@ -15605,9 +16363,9 @@
         <f t="shared" si="9"/>
         <v>20.158730158730158</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="e">
         <f t="shared" si="10"/>
-        <v>61.057692307692307</v>
+        <v>#REF!</v>
       </c>
       <c r="P29">
         <f t="shared" si="11"/>
@@ -15618,9 +16376,9 @@
         <v>44.618154670414121</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6">
+      <c r="S29" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.4857142857142858</v>
+        <v>#REF!</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6">
@@ -15639,9 +16397,9 @@
         <f t="shared" ref="X29:X31" si="26">F29/F33</f>
         <v>1</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="6" t="e">
         <f t="shared" ref="Y29:Z31" si="27">G29/G33</f>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Z29" s="6">
         <f t="shared" si="27"/>
@@ -15669,9 +16427,9 @@
         <f>'Arduino Due'!E13</f>
         <v>24.8</v>
       </c>
-      <c r="G30">
-        <f>'Teensy 3.2'!D9</f>
-        <v>8.17</v>
+      <c r="G30" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="24"/>
@@ -15697,9 +16455,9 @@
         <f t="shared" si="9"/>
         <v>20.282258064516128</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="e">
         <f t="shared" si="10"/>
-        <v>61.566707466340269</v>
+        <v>#REF!</v>
       </c>
       <c r="P30">
         <f t="shared" si="11"/>
@@ -15710,9 +16468,9 @@
         <v>60.162066800227258</v>
       </c>
       <c r="R30" s="6"/>
-      <c r="S30" s="6">
+      <c r="S30" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.5129629629629628</v>
+        <v>#REF!</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6">
@@ -15731,9 +16489,9 @@
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="6" t="e">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="27"/>
@@ -15761,9 +16519,9 @@
         <f>'Arduino Due'!E14</f>
         <v>49.21</v>
       </c>
-      <c r="G31">
-        <f>'Teensy 3.2'!D10</f>
-        <v>16.2</v>
+      <c r="G31" t="e">
+        <f>'Teensy 3.2'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="24"/>
@@ -15789,9 +16547,9 @@
         <f t="shared" si="9"/>
         <v>20.3210729526519</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="e">
         <f t="shared" si="10"/>
-        <v>61.728395061728399</v>
+        <v>#REF!</v>
       </c>
       <c r="P31">
         <f t="shared" si="11"/>
@@ -15802,9 +16560,9 @@
         <v>114.03808872163303</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="6">
+      <c r="S31" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.514018691588785</v>
+        <v>#REF!</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6">
@@ -15823,9 +16581,9 @@
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="6" t="e">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="27"/>
@@ -15856,9 +16614,9 @@
         <f>'Arduino Due'!F11</f>
         <v>6.49</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="e">
         <f>G28</f>
-        <v>2.16</v>
+        <v>#REF!</v>
       </c>
       <c r="H32" s="10">
         <f>'NXP K66'!E11</f>
@@ -15884,9 +16642,9 @@
         <f t="shared" si="9"/>
         <v>6.3174114021571643</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="e">
         <f t="shared" si="10"/>
-        <v>18.981481481481481</v>
+        <v>#REF!</v>
       </c>
       <c r="P32">
         <f t="shared" si="11"/>
@@ -15897,9 +16655,9 @@
         <v>7.4484512671450629</v>
       </c>
       <c r="R32" s="6"/>
-      <c r="S32" s="6">
+      <c r="S32" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.5428571428571431</v>
+        <v>#REF!</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -15928,9 +16686,9 @@
         <f>'Arduino Due'!F12</f>
         <v>12.6</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="e">
         <f t="shared" ref="G33:G35" si="28">G29</f>
-        <v>4.16</v>
+        <v>#REF!</v>
       </c>
       <c r="H33" s="10">
         <f>'NXP K66'!E12</f>
@@ -15956,9 +16714,9 @@
         <f t="shared" si="9"/>
         <v>6.2698412698412698</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="e">
         <f t="shared" si="10"/>
-        <v>18.990384615384613</v>
+        <v>#REF!</v>
       </c>
       <c r="P33">
         <f t="shared" si="11"/>
@@ -15969,9 +16727,9 @@
         <v>13.877300074656361</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="6">
+      <c r="S33" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.4857142857142858</v>
+        <v>#REF!</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -16000,9 +16758,9 @@
         <f>'Arduino Due'!F13</f>
         <v>24.8</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="e">
         <f t="shared" si="28"/>
-        <v>8.17</v>
+        <v>#REF!</v>
       </c>
       <c r="H34" s="10">
         <f>'NXP K66'!E13</f>
@@ -16028,9 +16786,9 @@
         <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="e">
         <f t="shared" si="10"/>
-        <v>18.971848225214199</v>
+        <v>#REF!</v>
       </c>
       <c r="P34">
         <f t="shared" si="11"/>
@@ -16041,9 +16799,9 @@
         <v>18.539006668062076</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="6">
+      <c r="S34" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.5129629629629628</v>
+        <v>#REF!</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -16072,9 +16830,9 @@
         <f>'Arduino Due'!F14</f>
         <v>49.21</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="e">
         <f t="shared" si="28"/>
-        <v>16.2</v>
+        <v>#REF!</v>
       </c>
       <c r="H35" s="10">
         <f>'NXP K66'!E14</f>
@@ -16100,9 +16858,9 @@
         <f t="shared" si="9"/>
         <v>6.2588904694167855</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="e">
         <f t="shared" si="10"/>
-        <v>19.012345679012345</v>
+        <v>#REF!</v>
       </c>
       <c r="P35">
         <f t="shared" si="11"/>
@@ -16113,9 +16871,9 @@
         <v>35.12373132626297</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="6">
+      <c r="S35" s="6" t="e">
         <f t="shared" si="18"/>
-        <v>1.514018691588785</v>
+        <v>#REF!</v>
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
@@ -16147,9 +16905,9 @@
         <f t="shared" si="30"/>
         <v>13958.682300390843</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="8" t="e">
         <f t="shared" si="30"/>
-        <v>17226.528854435834</v>
+        <v>#REF!</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" ref="H37" si="32">1/(H25*0.000001)</f>
@@ -16178,9 +16936,9 @@
         <f t="shared" ref="N37" si="33">$C$34/F26</f>
         <v>1.0806665272258245</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="9" t="e">
         <f t="shared" ref="O37" si="34">$C$34/G26</f>
-        <v>1.3417590027700832</v>
+        <v>#REF!</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" ref="P37" si="35">$C$34/H26</f>
@@ -16215,9 +16973,9 @@
         <f t="shared" si="36"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="8" t="e">
         <f t="shared" si="36"/>
-        <v>240384.61538461538</v>
+        <v>#REF!</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" ref="H38" si="38">1/(H29*0.000001)</f>
@@ -16246,9 +17004,9 @@
         <f t="shared" ref="N38" si="40">$C$34/F30</f>
         <v>6.25</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="9" t="e">
         <f t="shared" ref="O38" si="41">$C$34/G30</f>
-        <v>18.971848225214199</v>
+        <v>#REF!</v>
       </c>
       <c r="P38" s="9">
         <f t="shared" ref="P38" si="42">$C$34/H30</f>
@@ -16283,9 +17041,9 @@
         <f t="shared" si="43"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="8" t="e">
         <f t="shared" si="43"/>
-        <v>240384.61538461538</v>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" ref="H39" si="45">1/(H33*0.000001)</f>
@@ -16314,9 +17072,9 @@
         <f t="shared" ref="N39" si="47">$C$34/F34</f>
         <v>6.25</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="9" t="e">
         <f t="shared" ref="O39" si="48">$C$34/G34</f>
-        <v>18.971848225214199</v>
+        <v>#REF!</v>
       </c>
       <c r="P39" s="9">
         <f t="shared" ref="P39" si="49">$C$34/H34</f>
@@ -16405,9 +17163,9 @@
         <f t="shared" si="52"/>
         <v>10561.849922156138</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="8" t="e">
         <f t="shared" si="52"/>
-        <v>11768.778828946262</v>
+        <v>#REF!</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="52"/>
@@ -16432,9 +17190,9 @@
         <f t="shared" ref="AB59:AB61" si="54">D59</f>
         <v>5986.5081443669142</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" t="e">
         <f t="shared" ref="AC59:AC61" si="55">G59</f>
-        <v>11768.778828946262</v>
+        <v>#REF!</v>
       </c>
       <c r="AD59">
         <f t="shared" ref="AD59:AD61" si="56">H59</f>
@@ -16462,9 +17220,9 @@
         <f t="shared" si="57"/>
         <v>25400.025400038103</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="8" t="e">
         <f t="shared" si="57"/>
-        <v>44253.636380814365</v>
+        <v>#REF!</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="57"/>
@@ -16489,9 +17247,9 @@
         <f t="shared" si="54"/>
         <v>19795.674375415139</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" t="e">
         <f t="shared" si="55"/>
-        <v>44253.636380814365</v>
+        <v>#REF!</v>
       </c>
       <c r="AD60">
         <f t="shared" si="56"/>
@@ -16519,9 +17277,9 @@
         <f t="shared" si="59"/>
         <v>25400.025400038103</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="8" t="e">
         <f t="shared" si="59"/>
-        <v>44253.636380814365</v>
+        <v>#REF!</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="59"/>
@@ -16546,9 +17304,9 @@
         <f t="shared" si="54"/>
         <v>21645.351229957632</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" t="e">
         <f t="shared" si="55"/>
-        <v>44253.636380814365</v>
+        <v>#REF!</v>
       </c>
       <c r="AD61">
         <f t="shared" si="56"/>
@@ -16649,9 +17407,9 @@
         <f t="shared" si="62"/>
         <v>28019.052956010088</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>34199.726402188782</v>
+        <v>#REF!</v>
       </c>
       <c r="H83" s="11">
         <f t="shared" si="62"/>
@@ -16680,9 +17438,9 @@
         <f t="shared" si="62"/>
         <v>13958.682300390843</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>17226.528854435834</v>
+        <v>#REF!</v>
       </c>
       <c r="H84" s="11">
         <f t="shared" si="62"/>
@@ -16711,9 +17469,9 @@
         <f t="shared" si="62"/>
         <v>6972.0421111343512</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>8656.5096952908589</v>
+        <v>#REF!</v>
       </c>
       <c r="H85" s="11">
         <f t="shared" si="62"/>
@@ -16742,9 +17500,9 @@
         <f t="shared" si="62"/>
         <v>3485.1705991008257</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>4338.5830187860647</v>
+        <v>#REF!</v>
       </c>
       <c r="H86" s="11">
         <f t="shared" si="62"/>
@@ -16777,9 +17535,9 @@
         <f t="shared" si="62"/>
         <v>154083.20493066256</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>462962.96296296292</v>
+        <v>#REF!</v>
       </c>
       <c r="H87" s="11">
         <f t="shared" si="62"/>
@@ -16808,9 +17566,9 @@
         <f t="shared" si="62"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>240384.61538461538</v>
+        <v>#REF!</v>
       </c>
       <c r="H88" s="11">
         <f t="shared" si="62"/>
@@ -16839,9 +17597,9 @@
         <f t="shared" si="62"/>
         <v>40322.580645161288</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>122399.02080783354</v>
+        <v>#REF!</v>
       </c>
       <c r="H89" s="11">
         <f t="shared" si="62"/>
@@ -16870,9 +17628,9 @@
         <f t="shared" si="62"/>
         <v>20321.072952651899</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>61728.395061728399</v>
+        <v>#REF!</v>
       </c>
       <c r="H90" s="11">
         <f t="shared" si="62"/>
@@ -16905,9 +17663,9 @@
         <f t="shared" si="62"/>
         <v>154083.20493066256</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>462962.96296296292</v>
+        <v>#REF!</v>
       </c>
       <c r="H91" s="11">
         <f t="shared" si="62"/>
@@ -16936,9 +17694,9 @@
         <f t="shared" si="62"/>
         <v>79365.079365079364</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>240384.61538461538</v>
+        <v>#REF!</v>
       </c>
       <c r="H92" s="11">
         <f t="shared" si="62"/>
@@ -16967,9 +17725,9 @@
         <f t="shared" si="62"/>
         <v>40322.580645161288</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>122399.02080783354</v>
+        <v>#REF!</v>
       </c>
       <c r="H93" s="11">
         <f t="shared" si="62"/>
@@ -16998,9 +17756,9 @@
         <f t="shared" si="62"/>
         <v>20321.072952651899</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="11" t="e">
         <f t="shared" si="62"/>
-        <v>61728.395061728399</v>
+        <v>#REF!</v>
       </c>
       <c r="H94" s="11">
         <f t="shared" si="62"/>
@@ -17075,9 +17833,9 @@
         <f>F26*0.000001/$B26</f>
         <v>2.24109375E-6</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="e">
         <f>G26*0.000001/$B26</f>
-        <v>1.8049999999999999E-6</v>
+        <v>#REF!</v>
       </c>
       <c r="H100">
         <f>H26*0.000001/$B26</f>
@@ -17109,9 +17867,9 @@
         <f>F31*0.000001/$B31</f>
         <v>3.8445312499999999E-7</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="e">
         <f>G31*0.000001/$B31</f>
-        <v>1.2656249999999998E-7</v>
+        <v>#REF!</v>
       </c>
       <c r="H101">
         <f>H31*0.000001/$B31</f>
@@ -17143,9 +17901,9 @@
         <f>F35*0.000001/$B35</f>
         <v>3.8445312499999999E-7</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="e">
         <f>G35*0.000001/$B35</f>
-        <v>1.2656249999999998E-7</v>
+        <v>#REF!</v>
       </c>
       <c r="H102">
         <f>H35*0.000001/$B35</f>
@@ -17212,9 +17970,9 @@
         <f t="shared" si="80"/>
         <v>13.944084222268703</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="10" t="e">
         <f t="shared" si="80"/>
-        <v>17.313019390581719</v>
+        <v>#REF!</v>
       </c>
       <c r="H106" s="10">
         <f t="shared" si="80"/>
@@ -17246,9 +18004,9 @@
         <f t="shared" si="80"/>
         <v>81.284291810607598</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="10" t="e">
         <f t="shared" si="80"/>
-        <v>246.91358024691363</v>
+        <v>#REF!</v>
       </c>
       <c r="H107" s="10">
         <f t="shared" si="80"/>
@@ -17280,9 +18038,9 @@
         <f t="shared" si="80"/>
         <v>81.284291810607598</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="10" t="e">
         <f t="shared" si="80"/>
-        <v>246.91358024691363</v>
+        <v>#REF!</v>
       </c>
       <c r="H108" s="10">
         <f t="shared" si="80"/>
@@ -17349,9 +18107,9 @@
         <f t="shared" si="85"/>
         <v>2294.88</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="11" t="e">
         <f t="shared" si="85"/>
-        <v>1848.32</v>
+        <v>#REF!</v>
       </c>
       <c r="H112" s="11">
         <f t="shared" si="85"/>
@@ -17383,9 +18141,9 @@
         <f t="shared" si="85"/>
         <v>393.68</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="11" t="e">
         <f t="shared" si="85"/>
-        <v>129.59999999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="H113" s="11">
         <f t="shared" si="85"/>
@@ -17417,9 +18175,9 @@
         <f t="shared" si="85"/>
         <v>393.68</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="11" t="e">
         <f t="shared" si="85"/>
-        <v>129.59999999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="H114" s="11">
         <f t="shared" si="85"/>
@@ -18589,7 +19347,7 @@
   <dimension ref="B2:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18710,9 +19468,6 @@
       <c r="D13">
         <v>128.49</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5"/>
@@ -19380,178 +20135,174 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>54</v>
+      <c r="B3" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="C5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.81</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1.53</v>
+      </c>
+      <c r="D8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.23</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2.95</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.8</v>
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>5.79</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.8</v>
+        <v>4.33</v>
+      </c>
+      <c r="E10">
+        <v>4.7</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.3</v>
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>11.5</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>8.61</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.7</v>
+        <v>256</v>
+      </c>
+      <c r="C12">
+        <v>22.88</v>
       </c>
       <c r="D12">
-        <v>2.4</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E12">
-        <v>2.8</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13">
-        <v>64</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
+        <v>512</v>
+      </c>
+      <c r="C13">
+        <v>45.65</v>
       </c>
       <c r="D13">
-        <v>4.7</v>
+        <v>34.33</v>
       </c>
       <c r="E13">
-        <v>5.4</v>
+        <v>37.090000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14" s="6">
-        <v>10</v>
+      <c r="B14" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C14">
+        <v>91.2</v>
       </c>
       <c r="D14">
-        <v>9.3000000000000007</v>
+        <v>68.39</v>
       </c>
       <c r="E14">
-        <v>10.7</v>
+        <v>74.09</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D15">
-        <v>18.5</v>
-      </c>
-      <c r="E15">
-        <v>21.3</v>
-      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16">
-        <v>512</v>
-      </c>
-      <c r="C16" s="6">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D16">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E16">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17">
-        <v>1024</v>
-      </c>
-      <c r="C17" s="6">
-        <v>79.2</v>
-      </c>
-      <c r="D17">
-        <v>73.5</v>
-      </c>
-      <c r="E17">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="D18" s="6"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="J27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>